--- a/italent/documents/quality/TimeSpent.xlsx
+++ b/italent/documents/quality/TimeSpent.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVD\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Import from RTC" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,10 @@
     <sheet name="Time spend by type" sheetId="8" r:id="rId7"/>
     <sheet name="Project cost" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="239">
   <si>
     <t>Type</t>
   </si>
@@ -739,18 +737,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Total cost:</t>
@@ -900,8 +886,36 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -916,7 +930,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1082,13 +1096,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>183.6</c:v>
+                  <c:v>173.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>190.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55</c:v>
@@ -1191,7 +1205,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1357,13 +1371,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>130.1</c:v>
+                  <c:v>120.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>126.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>48</c:v>
@@ -1466,7 +1480,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1635,7 +1649,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1741,7 +1755,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1773,7 +1787,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Time spent on defects</a:t>
+              <a:t>Time spent on stories</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1787,26 +1801,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1924,7 +1918,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -2030,7 +2024,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-BE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2160,13 +2154,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>342.1</c:v>
+                  <c:v>356.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5485,7 +5479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5495,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -10769,10 +10763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I199"/>
+  <dimension ref="A2:I196"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10950,6 +10944,9 @@
         <f>'Import from RTC'!G125</f>
         <v>Jesse Vranken</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
@@ -10964,6 +10961,9 @@
         <f>'Import from RTC'!G127</f>
         <v>Jesse Vranken</v>
       </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
@@ -11026,8 +11026,11 @@
         <f>'Import from RTC'!G150</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Import from RTC'!A134</f>
         <v>Defect</v>
@@ -11040,8 +11043,11 @@
         <f>'Import from RTC'!G152</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Import from RTC'!A135</f>
         <v>Defect</v>
@@ -11055,7 +11061,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Import from RTC'!A137</f>
         <v>Defect</v>
@@ -11072,7 +11078,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'Import from RTC'!A142</f>
         <v>Defect</v>
@@ -11086,7 +11092,7 @@
         <v>Arjen Schuurman</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'Import from RTC'!A144</f>
         <v>Defect</v>
@@ -11099,8 +11105,11 @@
         <f>'Import from RTC'!G162</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Import from RTC'!A147</f>
         <v>Defect</v>
@@ -11113,8 +11122,11 @@
         <f>'Import from RTC'!G165</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Import from RTC'!A152</f>
         <v>Defect</v>
@@ -11131,7 +11143,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'Import from RTC'!A155</f>
         <v>Defect</v>
@@ -11148,7 +11160,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'Import from RTC'!A159</f>
         <v>Defect</v>
@@ -11165,7 +11177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Import from RTC'!A165</f>
         <v>Defect</v>
@@ -11178,8 +11190,11 @@
         <f>'Import from RTC'!G183</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Import from RTC'!A166</f>
         <v>Defect</v>
@@ -11192,8 +11207,11 @@
         <f>'Import from RTC'!G184</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Import from RTC'!A167</f>
         <v>Defect</v>
@@ -11206,8 +11224,11 @@
         <f>'Import from RTC'!G185</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'Import from RTC'!A168</f>
         <v>Defect</v>
@@ -11220,8 +11241,11 @@
         <f>'Import from RTC'!G186</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'Import from RTC'!A169</f>
         <v>Defect</v>
@@ -11234,8 +11258,11 @@
         <f>'Import from RTC'!G187</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Import from RTC'!A170</f>
         <v>Defect</v>
@@ -11248,8 +11275,11 @@
         <f>'Import from RTC'!G188</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'Import from RTC'!A171</f>
         <v>Defect</v>
@@ -11261,6 +11291,9 @@
       <c r="C32" t="str">
         <f>'Import from RTC'!G189</f>
         <v>Jesse Vranken</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -11276,6 +11309,9 @@
         <f>'Import from RTC'!G191</f>
         <v>Jesse Vranken</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
@@ -11290,6 +11326,9 @@
         <f>'Import from RTC'!G192</f>
         <v>Jesse Vranken</v>
       </c>
+      <c r="E34">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
@@ -11329,7 +11368,7 @@
       </c>
       <c r="E38" s="2">
         <f t="shared" ref="E38:H38" si="0">SUM(E3:E36)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
@@ -11345,7 +11384,7 @@
       </c>
       <c r="I38" s="6">
         <f>SUM(D38:H38)</f>
-        <v>10.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -11364,6 +11403,9 @@
       <c r="D41">
         <v>5</v>
       </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
@@ -11504,8 +11546,11 @@
       <c r="D48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'Import from RTC'!A43</f>
         <v>Story</v>
@@ -11522,7 +11567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'Import from RTC'!A44</f>
         <v>Story</v>
@@ -11539,7 +11584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'Import from RTC'!A45</f>
         <v>Story</v>
@@ -11552,8 +11597,11 @@
         <f>'Import from RTC'!G63</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'Import from RTC'!A46</f>
         <v>Story</v>
@@ -11570,7 +11618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'Import from RTC'!A47</f>
         <v>Story</v>
@@ -11586,8 +11634,11 @@
       <c r="D53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'Import from RTC'!A48</f>
         <v>Story</v>
@@ -11603,8 +11654,11 @@
       <c r="D54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'Import from RTC'!A49</f>
         <v>Story</v>
@@ -11617,8 +11671,11 @@
         <f>'Import from RTC'!G67</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'Import from RTC'!A50</f>
         <v>Story</v>
@@ -11631,8 +11688,11 @@
         <f>'Import from RTC'!G68</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'Import from RTC'!A51</f>
         <v>Story</v>
@@ -11645,8 +11705,11 @@
         <f>'Import from RTC'!G69</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'Import from RTC'!A52</f>
         <v>Story</v>
@@ -11659,8 +11722,11 @@
         <f>'Import from RTC'!G70</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'Import from RTC'!A53</f>
         <v>Story</v>
@@ -11677,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'Import from RTC'!A54</f>
         <v>Story</v>
@@ -11693,8 +11759,11 @@
       <c r="D60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'Import from RTC'!A55</f>
         <v>Story</v>
@@ -11711,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>'Import from RTC'!A56</f>
         <v>Story</v>
@@ -11727,8 +11796,11 @@
       <c r="D62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>'Import from RTC'!A60</f>
         <v>Story</v>
@@ -11752,7 +11824,7 @@
       </c>
       <c r="E65" s="2">
         <f t="shared" ref="E65:H65" si="1">SUM(E41:E63)</f>
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="1"/>
@@ -11768,7 +11840,7 @@
       </c>
       <c r="I65" s="6">
         <f>SUM(D65:H65)</f>
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -11892,939 +11964,981 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>'Import from RTC'!A9</f>
+        <f>'Import from RTC'!A10</f>
         <v>Task</v>
       </c>
       <c r="B74" t="str">
-        <f>'Import from RTC'!F9</f>
-        <v>Setup RedHat Cloud</v>
+        <f>'Import from RTC'!F10</f>
+        <v>Share initial code</v>
       </c>
       <c r="C74" t="str">
-        <f>'Import from RTC'!G9</f>
+        <f>'Import from RTC'!G10</f>
         <v>Niek Vandael</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>'Import from RTC'!A10</f>
+        <f>'Import from RTC'!A11</f>
         <v>Task</v>
       </c>
       <c r="B75" t="str">
-        <f>'Import from RTC'!F10</f>
-        <v>Share initial code</v>
+        <f>'Import from RTC'!F11</f>
+        <v>Setup Openshift Server</v>
       </c>
       <c r="C75" t="str">
-        <f>'Import from RTC'!G10</f>
-        <v>Niek Vandael</v>
+        <f>'Import from RTC'!G11</f>
+        <v>Jesse Vranken</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>'Import from RTC'!A11</f>
+        <f>'Import from RTC'!A12</f>
         <v>Task</v>
       </c>
       <c r="B76" t="str">
-        <f>'Import from RTC'!F11</f>
-        <v>Setup Openshift Server</v>
+        <f>'Import from RTC'!F12</f>
+        <v>RTC Testing</v>
       </c>
       <c r="C76" t="str">
-        <f>'Import from RTC'!G11</f>
+        <f>'Import from RTC'!G12</f>
         <v>Jesse Vranken</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>'Import from RTC'!A12</f>
+        <f>'Import from RTC'!A13</f>
         <v>Task</v>
       </c>
       <c r="B77" t="str">
-        <f>'Import from RTC'!F12</f>
-        <v>RTC Testing</v>
+        <f>'Import from RTC'!F13</f>
+        <v>Enable Jenkins</v>
       </c>
       <c r="C77" t="str">
-        <f>'Import from RTC'!G12</f>
-        <v>Jesse Vranken</v>
+        <f>'Import from RTC'!G13</f>
+        <v>Niek Vandael</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>'Import from RTC'!A13</f>
+        <f>'Import from RTC'!A14</f>
         <v>Task</v>
       </c>
       <c r="B78" t="str">
-        <f>'Import from RTC'!F13</f>
-        <v>Enable Jenkins</v>
+        <f>'Import from RTC'!F23</f>
+        <v>Create Analisis</v>
       </c>
       <c r="C78" t="str">
-        <f>'Import from RTC'!G13</f>
-        <v>Niek Vandael</v>
+        <f>'Import from RTC'!G23</f>
+        <v>Unassigned</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>'Import from RTC'!A14</f>
+        <f>'Import from RTC'!A15</f>
         <v>Task</v>
       </c>
       <c r="B79" t="str">
-        <f>'Import from RTC'!F23</f>
-        <v>Create Analisis</v>
+        <f>'Import from RTC'!F24</f>
+        <v>Analyse login</v>
       </c>
       <c r="C79" t="str">
-        <f>'Import from RTC'!G23</f>
+        <f>'Import from RTC'!G24</f>
         <v>Unassigned</v>
       </c>
-      <c r="D79">
-        <v>10</v>
-      </c>
-      <c r="E79">
-        <v>10</v>
-      </c>
       <c r="F79">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G79">
-        <v>10</v>
-      </c>
-      <c r="H79">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>'Import from RTC'!A15</f>
+        <f>'Import from RTC'!A16</f>
         <v>Task</v>
       </c>
       <c r="B80" t="str">
-        <f>'Import from RTC'!F24</f>
-        <v>Analyse login</v>
+        <f>'Import from RTC'!F25</f>
+        <v>Analyse projects</v>
       </c>
       <c r="C80" t="str">
-        <f>'Import from RTC'!G24</f>
+        <f>'Import from RTC'!G25</f>
         <v>Unassigned</v>
       </c>
-      <c r="F80">
-        <v>5</v>
-      </c>
-      <c r="G80">
+      <c r="D80">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>'Import from RTC'!A16</f>
+        <f>'Import from RTC'!A17</f>
         <v>Task</v>
       </c>
       <c r="B81" t="str">
-        <f>'Import from RTC'!F25</f>
-        <v>Analyse projects</v>
+        <f>'Import from RTC'!F26</f>
+        <v>Analyse subscribers</v>
       </c>
       <c r="C81" t="str">
-        <f>'Import from RTC'!G25</f>
+        <f>'Import from RTC'!G26</f>
         <v>Unassigned</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>'Import from RTC'!A17</f>
+        <f>'Import from RTC'!A18</f>
         <v>Task</v>
       </c>
       <c r="B82" t="str">
-        <f>'Import from RTC'!F26</f>
-        <v>Analyse subscribers</v>
+        <f>'Import from RTC'!F27</f>
+        <v>Set Up Project Structure</v>
       </c>
       <c r="C82" t="str">
-        <f>'Import from RTC'!G26</f>
-        <v>Unassigned</v>
+        <f>'Import from RTC'!G27</f>
+        <v>Jesse Vranken</v>
       </c>
       <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
         <v>5</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>'Import from RTC'!A18</f>
+        <f>'Import from RTC'!A20</f>
         <v>Task</v>
       </c>
       <c r="B83" t="str">
-        <f>'Import from RTC'!F27</f>
-        <v>Set Up Project Structure</v>
+        <f>'Import from RTC'!F30</f>
+        <v>Vereisten verzamelen</v>
       </c>
       <c r="C83" t="str">
-        <f>'Import from RTC'!G27</f>
+        <f>'Import from RTC'!G30</f>
         <v>Jesse Vranken</v>
       </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
       <c r="F83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>'Import from RTC'!A19</f>
+        <f>'Import from RTC'!A21</f>
         <v>Task</v>
       </c>
       <c r="B84" t="str">
-        <f>'Import from RTC'!F29</f>
-        <v>Use case diagrams maken</v>
+        <f>'Import from RTC'!F31</f>
+        <v>Plan van aanpak</v>
       </c>
       <c r="C84" t="str">
-        <f>'Import from RTC'!G29</f>
-        <v>Unassigned</v>
+        <f>'Import from RTC'!G31</f>
+        <v>Jesse Vranken</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>'Import from RTC'!A20</f>
+        <f>'Import from RTC'!A22</f>
         <v>Task</v>
       </c>
       <c r="B85" t="str">
-        <f>'Import from RTC'!F30</f>
-        <v>Vereisten verzamelen</v>
+        <f>'Import from RTC'!F32</f>
+        <v>Create Use Cases Diagram</v>
       </c>
       <c r="C85" t="str">
-        <f>'Import from RTC'!G30</f>
+        <f>'Import from RTC'!G32</f>
         <v>Jesse Vranken</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>'Import from RTC'!A21</f>
+        <f>'Import from RTC'!A24</f>
         <v>Task</v>
       </c>
       <c r="B86" t="str">
-        <f>'Import from RTC'!F31</f>
-        <v>Plan van aanpak</v>
+        <f>'Import from RTC'!F34</f>
+        <v>RTC setup development environment documentje maken</v>
       </c>
       <c r="C86" t="str">
-        <f>'Import from RTC'!G31</f>
-        <v>Jesse Vranken</v>
+        <f>'Import from RTC'!G34</f>
+        <v>Niek Vandael</v>
       </c>
       <c r="D86">
-        <v>4</v>
-      </c>
-      <c r="E86">
-        <v>5</v>
-      </c>
-      <c r="F86">
-        <v>8</v>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>'Import from RTC'!A22</f>
+        <f>'Import from RTC'!A25</f>
         <v>Task</v>
       </c>
       <c r="B87" t="str">
-        <f>'Import from RTC'!F32</f>
-        <v>Create Use Cases Diagram</v>
+        <f>'Import from RTC'!F35</f>
+        <v>Setup development environment</v>
       </c>
       <c r="C87" t="str">
-        <f>'Import from RTC'!G32</f>
-        <v>Jesse Vranken</v>
+        <f>'Import from RTC'!G35</f>
+        <v>Niek Vandael</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>'Import from RTC'!A24</f>
+        <f>'Import from RTC'!A26</f>
         <v>Task</v>
       </c>
       <c r="B88" t="str">
-        <f>'Import from RTC'!F34</f>
-        <v>RTC setup development environment documentje maken</v>
+        <f>'Import from RTC'!F37</f>
+        <v>Requirements opstellen</v>
       </c>
       <c r="C88" t="str">
-        <f>'Import from RTC'!G34</f>
-        <v>Niek Vandael</v>
+        <f>'Import from RTC'!G37</f>
+        <v>Arjen Schuurman</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>'Import from RTC'!A25</f>
+        <f>'Import from RTC'!A27</f>
         <v>Task</v>
       </c>
       <c r="B89" t="str">
-        <f>'Import from RTC'!F35</f>
-        <v>Setup development environment</v>
+        <f>'Import from RTC'!F38</f>
+        <v>Studenten en docenten moeten inloggen alvorens de applicatie te kunnen gebruiken</v>
       </c>
       <c r="C89" t="str">
-        <f>'Import from RTC'!G35</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D89">
+        <f>'Import from RTC'!G38</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="E89">
         <v>1</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>'Import from RTC'!A26</f>
+        <f>'Import from RTC'!A29</f>
         <v>Task</v>
       </c>
       <c r="B90" t="str">
-        <f>'Import from RTC'!F37</f>
-        <v>Requirements opstellen</v>
+        <f>'Import from RTC'!F41</f>
+        <v>Studenten kunnen projecten liken</v>
       </c>
       <c r="C90" t="str">
-        <f>'Import from RTC'!G37</f>
-        <v>Arjen Schuurman</v>
+        <f>'Import from RTC'!G41</f>
+        <v>Unassigned</v>
       </c>
       <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
-      <c r="F90">
-        <v>5</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>'Import from RTC'!A27</f>
+        <f>'Import from RTC'!A30</f>
         <v>Task</v>
       </c>
       <c r="B91" t="str">
-        <f>'Import from RTC'!F38</f>
-        <v>Studenten en docenten moeten inloggen alvorens de applicatie te kunnen gebruiken</v>
+        <f>'Import from RTC'!F42</f>
+        <v>Studenten kunnen op projecten inschrijven</v>
       </c>
       <c r="C91" t="str">
-        <f>'Import from RTC'!G38</f>
+        <f>'Import from RTC'!G42</f>
         <v>Unassigned</v>
       </c>
       <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>'Import from RTC'!A29</f>
+        <f>'Import from RTC'!A31</f>
         <v>Task</v>
       </c>
       <c r="B92" t="str">
-        <f>'Import from RTC'!F41</f>
-        <v>Studenten kunnen projecten liken</v>
+        <f>'Import from RTC'!F43</f>
+        <v>Docenten kunnen op projecten intekenen</v>
       </c>
       <c r="C92" t="str">
-        <f>'Import from RTC'!G41</f>
+        <f>'Import from RTC'!G43</f>
         <v>Unassigned</v>
       </c>
-      <c r="D92">
-        <v>2</v>
+      <c r="E92">
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>'Import from RTC'!A30</f>
+        <f>'Import from RTC'!A33</f>
         <v>Task</v>
       </c>
       <c r="B93" t="str">
-        <f>'Import from RTC'!F42</f>
-        <v>Studenten kunnen op projecten inschrijven</v>
+        <f>'Import from RTC'!F46</f>
+        <v>Technische details zoals video en foto-hosting uitzoeken</v>
       </c>
       <c r="C93" t="str">
-        <f>'Import from RTC'!G42</f>
+        <f>'Import from RTC'!G46</f>
         <v>Unassigned</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>'Import from RTC'!A31</f>
+        <f>'Import from RTC'!A34</f>
         <v>Task</v>
       </c>
       <c r="B94" t="str">
-        <f>'Import from RTC'!F43</f>
-        <v>Docenten kunnen op projecten intekenen</v>
+        <f>'Import from RTC'!F47</f>
+        <v>Mockups maken</v>
       </c>
       <c r="C94" t="str">
-        <f>'Import from RTC'!G43</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="E94">
-        <v>5</v>
+        <f>'Import from RTC'!G47</f>
+        <v>Bart Hunerbein</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>'Import from RTC'!A32</f>
+        <f>'Import from RTC'!A39</f>
         <v>Task</v>
       </c>
       <c r="B95" t="str">
-        <f>'Import from RTC'!F44</f>
-        <v>Docenten kunnen projecten goedkeuren</v>
+        <f>'Import from RTC'!F54</f>
+        <v>Voorbereiding presentatie (engels)</v>
       </c>
       <c r="C95" t="str">
-        <f>'Import from RTC'!G44</f>
+        <f>'Import from RTC'!G54</f>
         <v>Unassigned</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
       </c>
       <c r="F95">
         <v>2</v>
       </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>'Import from RTC'!A33</f>
-        <v>Task</v>
-      </c>
-      <c r="B96" t="str">
-        <f>'Import from RTC'!F46</f>
-        <v>Technische details zoals video en foto-hosting uitzoeken</v>
-      </c>
-      <c r="C96" t="str">
-        <f>'Import from RTC'!G46</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
-        <f>'Import from RTC'!A34</f>
-        <v>Task</v>
-      </c>
-      <c r="B97" t="str">
-        <f>'Import from RTC'!F47</f>
-        <v>Mockups maken</v>
-      </c>
-      <c r="C97" t="str">
-        <f>'Import from RTC'!G47</f>
-        <v>Bart Hunerbein</v>
-      </c>
-      <c r="H97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
-        <f>'Import from RTC'!A39</f>
-        <v>Task</v>
-      </c>
-      <c r="B98" t="str">
-        <f>'Import from RTC'!F54</f>
-        <v>Voorbereiding presentatie (engels)</v>
-      </c>
-      <c r="C98" t="str">
-        <f>'Import from RTC'!G54</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
-      </c>
-      <c r="F98">
-        <v>2</v>
-      </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
         <f>'Import from RTC'!A40</f>
         <v>Task</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B96" t="str">
         <f>'Import from RTC'!F57</f>
         <v>backend uitwerken</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C96" t="str">
         <f>'Import from RTC'!G57</f>
         <v>Unassigned</v>
       </c>
-      <c r="E99">
-        <v>10</v>
-      </c>
-      <c r="G99">
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="G96">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
         <f>'Import from RTC'!A57</f>
         <v>Task</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B97" t="str">
         <f>'Import from RTC'!F75</f>
         <v>Openshift does not build anymore</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C97" t="str">
         <f>'Import from RTC'!G75</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D100">
+      <c r="D97">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
         <f>'Import from RTC'!A58</f>
         <v>Task</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B98" t="str">
         <f>'Import from RTC'!F76</f>
         <v>Angular - Implement Likes</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C98" t="str">
         <f>'Import from RTC'!G76</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
         <f>'Import from RTC'!A59</f>
         <v>Task</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B99" t="str">
         <f>'Import from RTC'!F77</f>
         <v>Toggle likes for a project</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C99" t="str">
         <f>'Import from RTC'!G77</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D102">
+      <c r="D99">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
         <f>'Import from RTC'!A61</f>
         <v>Task</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B100" t="str">
         <f>'Import from RTC'!F79</f>
         <v>Angular - Implement Project Service</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C100" t="str">
         <f>'Import from RTC'!G79</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
         <f>'Import from RTC'!A62</f>
         <v>Task</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B101" t="str">
         <f>'Import from RTC'!F80</f>
         <v>English presentation</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C101" t="str">
         <f>'Import from RTC'!G80</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D104">
+      <c r="D101">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
         <f>'Import from RTC'!A63</f>
         <v>Task</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B102" t="str">
         <f>'Import from RTC'!F81</f>
         <v>Spring - Implement Subscriber Student Service</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C102" t="str">
         <f>'Import from RTC'!G81</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
         <f>'Import from RTC'!A64</f>
         <v>Task</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B103" t="str">
         <f>'Import from RTC'!F82</f>
         <v>Angular - Implement Subscriber Student Service</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C103" t="str">
         <f>'Import from RTC'!G82</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
         <f>'Import from RTC'!A65</f>
         <v>Task</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B104" t="str">
         <f>'Import from RTC'!F83</f>
         <v>Spring - Implement Subscriber Docent Service</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C104" t="str">
         <f>'Import from RTC'!G83</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
         <f>'Import from RTC'!A66</f>
         <v>Task</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B105" t="str">
         <f>'Import from RTC'!F84</f>
         <v>MySql timeout after 8 hours</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C105" t="str">
         <f>'Import from RTC'!G84</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D108">
+      <c r="D105">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
         <f>'Import from RTC'!A67</f>
         <v>Task</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B106" t="str">
         <f>'Import from RTC'!F85</f>
         <v>Security setup</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C106" t="str">
         <f>'Import from RTC'!G85</f>
         <v>Dennie Grondelaers</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
         <f>'Import from RTC'!A68</f>
         <v>Task</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B107" t="str">
         <f>'Import from RTC'!F86</f>
         <v>Create category screen</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C107" t="str">
         <f>'Import from RTC'!G86</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D110">
+      <c r="D107">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
         <f>'Import from RTC'!A69</f>
         <v>Task</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B108" t="str">
         <f>'Import from RTC'!F87</f>
         <v>Security - Autowiring Error</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C108" t="str">
         <f>'Import from RTC'!G87</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
+      <c r="E108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
         <f>'Import from RTC'!A70</f>
         <v>Task</v>
       </c>
-      <c r="B112" t="str">
+      <c r="B109" t="str">
         <f>'Import from RTC'!F88</f>
         <v>Save youtube videos on project</v>
       </c>
-      <c r="C112" t="str">
+      <c r="C109" t="str">
         <f>'Import from RTC'!G88</f>
         <v>Niek Vandael</v>
       </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>'Import from RTC'!A71</f>
+        <v>Task</v>
+      </c>
+      <c r="B110" t="str">
+        <f>'Import from RTC'!F89</f>
+        <v>Add pictures on project</v>
+      </c>
+      <c r="C110" t="str">
+        <f>'Import from RTC'!G89</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>'Import from RTC'!A72</f>
+        <v>Task</v>
+      </c>
+      <c r="B111" t="str">
+        <f>'Import from RTC'!F90</f>
+        <v>Enable update for projects</v>
+      </c>
+      <c r="C111" t="str">
+        <f>'Import from RTC'!G90</f>
+        <v>Arjen Schuurman</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>'Import from RTC'!A74</f>
+        <v>Task</v>
+      </c>
+      <c r="B112" t="str">
+        <f>'Import from RTC'!F92</f>
+        <v>Add milestones to project</v>
+      </c>
+      <c r="C112" t="str">
+        <f>'Import from RTC'!G92</f>
+        <v>Niek Vandael</v>
+      </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f>'Import from RTC'!A71</f>
+        <f>'Import from RTC'!A76</f>
         <v>Task</v>
       </c>
       <c r="B113" t="str">
-        <f>'Import from RTC'!F89</f>
-        <v>Add pictures on project</v>
+        <f>'Import from RTC'!F94</f>
+        <v xml:space="preserve">Create department list </v>
       </c>
       <c r="C113" t="str">
-        <f>'Import from RTC'!G89</f>
+        <f>'Import from RTC'!G94</f>
         <v>Niek Vandael</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f>'Import from RTC'!A72</f>
+        <f>'Import from RTC'!A77</f>
         <v>Task</v>
       </c>
       <c r="B114" t="str">
-        <f>'Import from RTC'!F90</f>
-        <v>Enable update for projects</v>
+        <f>'Import from RTC'!F95</f>
+        <v>Add wanted-subscribers to project</v>
       </c>
       <c r="C114" t="str">
-        <f>'Import from RTC'!G90</f>
-        <v>Arjen Schuurman</v>
+        <f>'Import from RTC'!G95</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f>'Import from RTC'!A74</f>
+        <f>'Import from RTC'!A78</f>
         <v>Task</v>
       </c>
       <c r="B115" t="str">
-        <f>'Import from RTC'!F92</f>
-        <v>Add milestones to project</v>
+        <f>'Import from RTC'!F96</f>
+        <v>Angular - Implement Subscriber Docent Service</v>
       </c>
       <c r="C115" t="str">
-        <f>'Import from RTC'!G92</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D115">
+        <f>'Import from RTC'!G96</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f>'Import from RTC'!A76</f>
+        <f>'Import from RTC'!A79</f>
         <v>Task</v>
       </c>
       <c r="B116" t="str">
-        <f>'Import from RTC'!F94</f>
-        <v xml:space="preserve">Create department list </v>
+        <f>'Import from RTC'!F97</f>
+        <v>Prezis toevoegen aan het project</v>
       </c>
       <c r="C116" t="str">
-        <f>'Import from RTC'!G94</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
+        <f>'Import from RTC'!G97</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E116">
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f>'Import from RTC'!A77</f>
+        <f>'Import from RTC'!A80</f>
         <v>Task</v>
       </c>
       <c r="B117" t="str">
-        <f>'Import from RTC'!F95</f>
-        <v>Add wanted-subscribers to project</v>
+        <f>'Import from RTC'!F98</f>
+        <v>Search functionality (angular)</v>
       </c>
       <c r="C117" t="str">
-        <f>'Import from RTC'!G95</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D117">
+        <f>'Import from RTC'!G98</f>
+        <v>Bart Hunerbein</v>
+      </c>
+      <c r="H117">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f>'Import from RTC'!A78</f>
+        <f>'Import from RTC'!A81</f>
         <v>Task</v>
       </c>
       <c r="B118" t="str">
-        <f>'Import from RTC'!F96</f>
-        <v>Angular - Implement Subscriber Docent Service</v>
+        <f>'Import from RTC'!F99</f>
+        <v>Online bestanden toevoegen aan het project</v>
       </c>
       <c r="C118" t="str">
-        <f>'Import from RTC'!G96</f>
+        <f>'Import from RTC'!G99</f>
         <v>Jesse Vranken</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f>'Import from RTC'!A79</f>
+        <f>'Import from RTC'!A82</f>
         <v>Task</v>
       </c>
       <c r="B119" t="str">
-        <f>'Import from RTC'!F97</f>
-        <v>Prezis toevoegen aan het project</v>
+        <f>'Import from RTC'!F100</f>
+        <v>JSTD syntax error in eclipse</v>
       </c>
       <c r="C119" t="str">
-        <f>'Import from RTC'!G97</f>
-        <v>Jesse Vranken</v>
+        <f>'Import from RTC'!G100</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D119">
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f>'Import from RTC'!A80</f>
+        <f>'Import from RTC'!A83</f>
         <v>Task</v>
       </c>
       <c r="B120" t="str">
-        <f>'Import from RTC'!F98</f>
-        <v>Search functionality (angular)</v>
+        <f>'Import from RTC'!F101</f>
+        <v>Compress pictures</v>
       </c>
       <c r="C120" t="str">
-        <f>'Import from RTC'!G98</f>
-        <v>Bart Hunerbein</v>
-      </c>
-      <c r="H120">
-        <v>2</v>
+        <f>'Import from RTC'!G101</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f>'Import from RTC'!A81</f>
+        <f>'Import from RTC'!A85</f>
         <v>Task</v>
       </c>
       <c r="B121" t="str">
-        <f>'Import from RTC'!F99</f>
-        <v>Online bestanden toevoegen aan het project</v>
+        <f>'Import from RTC'!F103</f>
+        <v>Filter projects by category</v>
       </c>
       <c r="C121" t="str">
-        <f>'Import from RTC'!G99</f>
-        <v>Jesse Vranken</v>
+        <f>'Import from RTC'!G103</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f>'Import from RTC'!A82</f>
+        <f>'Import from RTC'!A86</f>
         <v>Task</v>
       </c>
       <c r="B122" t="str">
-        <f>'Import from RTC'!F100</f>
-        <v>JSTD syntax error in eclipse</v>
+        <f>'Import from RTC'!F104</f>
+        <v>Form submits when not valid (new project)</v>
       </c>
       <c r="C122" t="str">
-        <f>'Import from RTC'!G100</f>
+        <f>'Import from RTC'!G104</f>
         <v>Niek Vandael</v>
       </c>
       <c r="D122">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f>'Import from RTC'!A83</f>
+        <f>'Import from RTC'!A88</f>
         <v>Task</v>
       </c>
       <c r="B123" t="str">
-        <f>'Import from RTC'!F101</f>
-        <v>Compress pictures</v>
+        <f>'Import from RTC'!F106</f>
+        <v>Deleting category does not show errormessage</v>
       </c>
       <c r="C123" t="str">
-        <f>'Import from RTC'!G101</f>
+        <f>'Import from RTC'!G106</f>
         <v>Niek Vandael</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f>'Import from RTC'!A85</f>
+        <f>'Import from RTC'!A89</f>
         <v>Task</v>
       </c>
       <c r="B124" t="str">
-        <f>'Import from RTC'!F103</f>
-        <v>Filter projects by category</v>
+        <f>'Import from RTC'!F107</f>
+        <v>Missing menu item 'New project'</v>
       </c>
       <c r="C124" t="str">
-        <f>'Import from RTC'!G103</f>
+        <f>'Import from RTC'!G107</f>
         <v>Niek Vandael</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f>'Import from RTC'!A86</f>
+        <f>'Import from RTC'!A90</f>
         <v>Task</v>
       </c>
       <c r="B125" t="str">
-        <f>'Import from RTC'!F104</f>
-        <v>Form submits when not valid (new project)</v>
+        <f>'Import from RTC'!F108</f>
+        <v>Create domain model</v>
       </c>
       <c r="C125" t="str">
-        <f>'Import from RTC'!G104</f>
+        <f>'Import from RTC'!G108</f>
         <v>Niek Vandael</v>
       </c>
       <c r="D125">
@@ -12833,15 +12947,15 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f>'Import from RTC'!A88</f>
+        <f>'Import from RTC'!A91</f>
         <v>Task</v>
       </c>
       <c r="B126" t="str">
-        <f>'Import from RTC'!F106</f>
-        <v>Deleting category does not show errormessage</v>
+        <f>'Import from RTC'!F109</f>
+        <v>Disable like when not authenticated</v>
       </c>
       <c r="C126" t="str">
-        <f>'Import from RTC'!G106</f>
+        <f>'Import from RTC'!G109</f>
         <v>Niek Vandael</v>
       </c>
       <c r="D126">
@@ -12850,136 +12964,151 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f>'Import from RTC'!A89</f>
+        <f>'Import from RTC'!A92</f>
         <v>Task</v>
       </c>
       <c r="B127" t="str">
-        <f>'Import from RTC'!F107</f>
-        <v>Missing menu item 'New project'</v>
+        <f>'Import from RTC'!F110</f>
+        <v>Layout myProject Page</v>
       </c>
       <c r="C127" t="str">
-        <f>'Import from RTC'!G107</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D127">
-        <v>0.25</v>
+        <f>'Import from RTC'!G110</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f>'Import from RTC'!A90</f>
+        <f>'Import from RTC'!A93</f>
         <v>Task</v>
       </c>
       <c r="B128" t="str">
-        <f>'Import from RTC'!F108</f>
-        <v>Create domain model</v>
+        <f>'Import from RTC'!F111</f>
+        <v>Add Background</v>
       </c>
       <c r="C128" t="str">
-        <f>'Import from RTC'!G108</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
+        <f>'Import from RTC'!G111</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E128">
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f>'Import from RTC'!A91</f>
+        <f>'Import from RTC'!A94</f>
         <v>Task</v>
       </c>
       <c r="B129" t="str">
-        <f>'Import from RTC'!F109</f>
-        <v>Disable like when not authenticated</v>
+        <f>'Import from RTC'!F112</f>
+        <v>Layout home pagina</v>
       </c>
       <c r="C129" t="str">
-        <f>'Import from RTC'!G109</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D129">
+        <f>'Import from RTC'!G112</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E129">
         <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f>'Import from RTC'!A92</f>
+        <f>'Import from RTC'!A95</f>
         <v>Task</v>
       </c>
       <c r="B130" t="str">
-        <f>'Import from RTC'!F110</f>
-        <v>Layout myProject Page</v>
+        <f>'Import from RTC'!F113</f>
+        <v>Add domain to projects</v>
       </c>
       <c r="C130" t="str">
-        <f>'Import from RTC'!G110</f>
+        <f>'Import from RTC'!G113</f>
         <v>Jesse Vranken</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f>'Import from RTC'!A93</f>
+        <f>'Import from RTC'!A96</f>
         <v>Task</v>
       </c>
       <c r="B131" t="str">
-        <f>'Import from RTC'!F111</f>
-        <v>Add Background</v>
+        <f>'Import from RTC'!F114</f>
+        <v>Remove comic sans font.</v>
       </c>
       <c r="C131" t="str">
-        <f>'Import from RTC'!G111</f>
-        <v>Jesse Vranken</v>
+        <f>'Import from RTC'!G114</f>
+        <v>Arjen Schuurman</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f>'Import from RTC'!A94</f>
+        <f>'Import from RTC'!A97</f>
         <v>Task</v>
       </c>
       <c r="B132" t="str">
-        <f>'Import from RTC'!F112</f>
-        <v>Layout home pagina</v>
+        <f>'Import from RTC'!F115</f>
+        <v>Guests cannot view project details</v>
       </c>
       <c r="C132" t="str">
-        <f>'Import from RTC'!G112</f>
-        <v>Jesse Vranken</v>
+        <f>'Import from RTC'!G115</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f>'Import from RTC'!A95</f>
+        <f>'Import from RTC'!A98</f>
         <v>Task</v>
       </c>
       <c r="B133" t="str">
-        <f>'Import from RTC'!F113</f>
-        <v>Add domain to projects</v>
+        <f>'Import from RTC'!F116</f>
+        <v>Align subscripe/backup row, move to detail project page.</v>
       </c>
       <c r="C133" t="str">
-        <f>'Import from RTC'!G113</f>
-        <v>Jesse Vranken</v>
+        <f>'Import from RTC'!G116</f>
+        <v>Arjen Schuurman</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f>'Import from RTC'!A96</f>
+        <f>'Import from RTC'!A99</f>
         <v>Task</v>
       </c>
-      <c r="B134" t="str">
-        <f>'Import from RTC'!F114</f>
-        <v>Remove comic sans font.</v>
-      </c>
-      <c r="C134" t="str">
-        <f>'Import from RTC'!G114</f>
-        <v>Arjen Schuurman</v>
-      </c>
+      <c r="B134" s="5" t="str">
+        <f>'Import from RTC'!F117</f>
+        <v>Plan van aanpak: Quality assurance</v>
+      </c>
+      <c r="C134" s="5" t="str">
+        <f>'Import from RTC'!G117</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D134" s="5">
+        <v>5</v>
+      </c>
+      <c r="E134" s="5">
+        <v>3</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f>'Import from RTC'!A97</f>
+        <f>'Import from RTC'!A101</f>
         <v>Task</v>
       </c>
       <c r="B135" t="str">
-        <f>'Import from RTC'!F115</f>
-        <v>Guests cannot view project details</v>
+        <f>'Import from RTC'!F119</f>
+        <v>Tag projects (multiple categories per project)</v>
       </c>
       <c r="C135" t="str">
-        <f>'Import from RTC'!G115</f>
+        <f>'Import from RTC'!G119</f>
         <v>Niek Vandael</v>
       </c>
       <c r="D135">
@@ -12988,910 +13117,963 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>'Import from RTC'!A98</f>
+        <f>'Import from RTC'!A102</f>
         <v>Task</v>
       </c>
       <c r="B136" t="str">
-        <f>'Import from RTC'!F116</f>
-        <v>Align subscripe/backup row, move to detail project page.</v>
+        <f>'Import from RTC'!F120</f>
+        <v>Create FIT criteria</v>
       </c>
       <c r="C136" t="str">
-        <f>'Import from RTC'!G116</f>
-        <v>Arjen Schuurman</v>
+        <f>'Import from RTC'!G120</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f>'Import from RTC'!A99</f>
+        <f>'Import from RTC'!A103</f>
         <v>Task</v>
       </c>
-      <c r="B137" s="5" t="str">
-        <f>'Import from RTC'!F117</f>
-        <v>Plan van aanpak: Quality assurance</v>
-      </c>
-      <c r="C137" s="5" t="str">
-        <f>'Import from RTC'!G117</f>
+      <c r="B137" t="str">
+        <f>'Import from RTC'!F121</f>
+        <v>Docenten kunnen filteren op niet-gebackte projecten</v>
+      </c>
+      <c r="C137" t="str">
+        <f>'Import from RTC'!G121</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D137" s="5">
-        <v>5</v>
-      </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
+      <c r="D137">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f>'Import from RTC'!A101</f>
+        <f>'Import from RTC'!A108</f>
         <v>Task</v>
       </c>
       <c r="B138" t="str">
-        <f>'Import from RTC'!F119</f>
-        <v>Tag projects (multiple categories per project)</v>
+        <f>'Import from RTC'!F126</f>
+        <v>Bugfix subscribe/back project</v>
       </c>
       <c r="C138" t="str">
-        <f>'Import from RTC'!G119</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D138">
+        <f>'Import from RTC'!G126</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f>'Import from RTC'!A102</f>
+        <f>'Import from RTC'!A110</f>
         <v>Task</v>
       </c>
       <c r="B139" t="str">
-        <f>'Import from RTC'!F120</f>
-        <v>Create FIT criteria</v>
+        <f>'Import from RTC'!F128</f>
+        <v>Only show Student Subscribe when possible</v>
       </c>
       <c r="C139" t="str">
-        <f>'Import from RTC'!G120</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D139">
-        <v>2</v>
+        <f>'Import from RTC'!G128</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E139">
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f>'Import from RTC'!A103</f>
+        <f>'Import from RTC'!A111</f>
         <v>Task</v>
       </c>
       <c r="B140" t="str">
-        <f>'Import from RTC'!F121</f>
-        <v>Docenten kunnen filteren op niet-gebackte projecten</v>
+        <f>'Import from RTC'!F129</f>
+        <v>Layout Language Select</v>
       </c>
       <c r="C140" t="str">
-        <f>'Import from RTC'!G121</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
+        <f>'Import from RTC'!G129</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E140">
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f>'Import from RTC'!A108</f>
+        <f>'Import from RTC'!A112</f>
         <v>Task</v>
       </c>
       <c r="B141" t="str">
-        <f>'Import from RTC'!F126</f>
-        <v>Bugfix subscribe/back project</v>
+        <f>'Import from RTC'!F130</f>
+        <v>Layout Login Button</v>
       </c>
       <c r="C141" t="str">
-        <f>'Import from RTC'!G126</f>
+        <f>'Import from RTC'!G130</f>
         <v>Jesse Vranken</v>
+      </c>
+      <c r="E141">
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f>'Import from RTC'!A110</f>
+        <f>'Import from RTC'!A113</f>
         <v>Task</v>
       </c>
       <c r="B142" t="str">
-        <f>'Import from RTC'!F128</f>
-        <v>Only show Student Subscribe when possible</v>
+        <f>'Import from RTC'!F131</f>
+        <v>Layout - Adding All Caps for titles and subtitles</v>
       </c>
       <c r="C142" t="str">
-        <f>'Import from RTC'!G128</f>
+        <f>'Import from RTC'!G131</f>
         <v>Jesse Vranken</v>
+      </c>
+      <c r="E142">
+        <v>0.5</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f>'Import from RTC'!A111</f>
+        <f>'Import from RTC'!A114</f>
         <v>Task</v>
       </c>
       <c r="B143" t="str">
-        <f>'Import from RTC'!F129</f>
-        <v>Layout Language Select</v>
+        <f>'Import from RTC'!F132</f>
+        <v>Bugfix - Title not showing in public list</v>
       </c>
       <c r="C143" t="str">
-        <f>'Import from RTC'!G129</f>
+        <f>'Import from RTC'!G132</f>
         <v>Jesse Vranken</v>
+      </c>
+      <c r="E143">
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f>'Import from RTC'!A112</f>
-        <v>Task</v>
-      </c>
-      <c r="B144" t="str">
-        <f>'Import from RTC'!F130</f>
-        <v>Layout Login Button</v>
-      </c>
-      <c r="C144" t="str">
-        <f>'Import from RTC'!G130</f>
-        <v>Jesse Vranken</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
-        <f>'Import from RTC'!A113</f>
-        <v>Task</v>
-      </c>
-      <c r="B145" t="str">
-        <f>'Import from RTC'!F131</f>
-        <v>Layout - Adding All Caps for titles and subtitles</v>
-      </c>
-      <c r="C145" t="str">
-        <f>'Import from RTC'!G131</f>
-        <v>Jesse Vranken</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
-        <f>'Import from RTC'!A114</f>
-        <v>Task</v>
-      </c>
-      <c r="B146" t="str">
-        <f>'Import from RTC'!F132</f>
-        <v>Bugfix - Title not showing in public list</v>
-      </c>
-      <c r="C146" t="str">
-        <f>'Import from RTC'!G132</f>
-        <v>Jesse Vranken</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
         <f>'Import from RTC'!A116</f>
         <v>Task</v>
       </c>
-      <c r="B147" t="str">
+      <c r="B144" t="str">
         <f>'Import from RTC'!F134</f>
         <v>Session lost after refresh</v>
       </c>
-      <c r="C147" t="str">
+      <c r="C144" t="str">
         <f>'Import from RTC'!G134</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D147">
+      <c r="D144">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
         <f>'Import from RTC'!A117</f>
         <v>Task</v>
       </c>
-      <c r="B148" t="str">
+      <c r="B145" t="str">
         <f>'Import from RTC'!F135</f>
         <v>Bugfix Delete Media</v>
       </c>
-      <c r="C148" t="str">
+      <c r="C145" t="str">
         <f>'Import from RTC'!G135</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
+      <c r="E145">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
         <f>'Import from RTC'!A118</f>
         <v>Task</v>
       </c>
-      <c r="B149" t="str">
+      <c r="B146" t="str">
         <f>'Import from RTC'!F136</f>
         <v>Only show docent back when possible</v>
       </c>
-      <c r="C149" t="str">
+      <c r="C146" t="str">
         <f>'Import from RTC'!G136</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
+      <c r="E146">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
         <f>'Import from RTC'!A119</f>
         <v>Task</v>
       </c>
-      <c r="B150" t="str">
+      <c r="B147" t="str">
         <f>'Import from RTC'!F137</f>
         <v>Bugfix - import sql</v>
       </c>
-      <c r="C150" t="str">
+      <c r="C147" t="str">
         <f>'Import from RTC'!G137</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
+      <c r="E147">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
         <f>'Import from RTC'!A120</f>
         <v>Task</v>
       </c>
-      <c r="B151" t="str">
+      <c r="B148" t="str">
         <f>'Import from RTC'!F138</f>
         <v>Show Docent backed projects in myprojects</v>
       </c>
-      <c r="C151" t="str">
+      <c r="C148" t="str">
         <f>'Import from RTC'!G138</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
+      <c r="E148">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
         <f>'Import from RTC'!A121</f>
         <v>Task</v>
       </c>
-      <c r="B152" t="str">
+      <c r="B149" t="str">
         <f>'Import from RTC'!F139</f>
         <v>Change max number of media to 100</v>
       </c>
-      <c r="C152" t="str">
+      <c r="C149" t="str">
         <f>'Import from RTC'!G139</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
+      <c r="E149">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
         <f>'Import from RTC'!A122</f>
         <v>Task</v>
       </c>
-      <c r="B153" t="str">
+      <c r="B150" t="str">
         <f>'Import from RTC'!F140</f>
         <v>Add social media buttons</v>
       </c>
-      <c r="C153" t="str">
+      <c r="C150" t="str">
         <f>'Import from RTC'!G140</f>
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
         <f>'Import from RTC'!A123</f>
         <v>Task</v>
       </c>
-      <c r="B154" t="str">
+      <c r="B151" t="str">
         <f>'Import from RTC'!F141</f>
         <v>Enable student subscribe when project is fully backed</v>
       </c>
-      <c r="C154" t="str">
+      <c r="C151" t="str">
         <f>'Import from RTC'!G141</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
+      <c r="E151">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
         <f>'Import from RTC'!A124</f>
         <v>Task</v>
       </c>
-      <c r="B155" t="str">
+      <c r="B152" t="str">
         <f>'Import from RTC'!F142</f>
         <v>Bugfix - filter for student home page</v>
       </c>
-      <c r="C155" t="str">
+      <c r="C152" t="str">
         <f>'Import from RTC'!G142</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
+      <c r="E152">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
         <f>'Import from RTC'!A125</f>
         <v>Task</v>
       </c>
-      <c r="B156" t="str">
+      <c r="B153" t="str">
         <f>'Import from RTC'!F143</f>
         <v>Add comments to projects</v>
       </c>
-      <c r="C156" t="str">
+      <c r="C153" t="str">
         <f>'Import from RTC'!G143</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D156">
+      <c r="D153">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
         <f>'Import from RTC'!A128</f>
         <v>Task</v>
       </c>
-      <c r="B157" t="str">
+      <c r="B154" t="str">
         <f>'Import from RTC'!F146</f>
         <v>Create popup messages for result while saving/creating projects.</v>
       </c>
-      <c r="C157" t="str">
+      <c r="C154" t="str">
         <f>'Import from RTC'!G146</f>
         <v>Arjen Schuurman</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
         <f>'Import from RTC'!A129</f>
         <v>Task</v>
       </c>
-      <c r="B158" t="str">
+      <c r="B155" t="str">
         <f>'Import from RTC'!F147</f>
         <v>Bugfix - error updating projects</v>
       </c>
-      <c r="C158" t="str">
+      <c r="C155" t="str">
         <f>'Import from RTC'!G147</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
+      <c r="E155">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
         <f>'Import from RTC'!A130</f>
         <v>Task</v>
       </c>
-      <c r="B159" t="str">
+      <c r="B156" t="str">
         <f>'Import from RTC'!F148</f>
         <v>Only docents can make projects public</v>
       </c>
-      <c r="C159" t="str">
+      <c r="C156" t="str">
         <f>'Import from RTC'!G148</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
+      <c r="E156">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
         <f>'Import from RTC'!A131</f>
         <v>Task</v>
       </c>
-      <c r="B160" t="str">
+      <c r="B157" t="str">
         <f>'Import from RTC'!F149</f>
         <v>Picture carousel on detail page</v>
       </c>
-      <c r="C160" t="str">
+      <c r="C157" t="str">
         <f>'Import from RTC'!G149</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D160">
+      <c r="D157">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
         <f>'Import from RTC'!A133</f>
         <v>Task</v>
       </c>
-      <c r="B161" t="str">
+      <c r="B158" t="str">
         <f>'Import from RTC'!F151</f>
         <v>Disable student edit for backed projects</v>
       </c>
-      <c r="C161" t="str">
+      <c r="C158" t="str">
         <f>'Import from RTC'!G151</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
+      <c r="E158">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
         <f>'Import from RTC'!A136</f>
         <v>Task</v>
       </c>
-      <c r="B162" t="str">
+      <c r="B159" t="str">
         <f>'Import from RTC'!F154</f>
         <v>Set start date when 100%  subscribed</v>
       </c>
-      <c r="C162" t="str">
+      <c r="C159" t="str">
         <f>'Import from RTC'!G154</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
         <f>'Import from RTC'!A138</f>
         <v>Task</v>
       </c>
-      <c r="B163" t="str">
+      <c r="B160" t="str">
         <f>'Import from RTC'!F156</f>
         <v>Allow Docents to edit all projects</v>
       </c>
-      <c r="C163" t="str">
+      <c r="C160" t="str">
         <f>'Import from RTC'!G156</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="str">
+      <c r="E160">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
         <f>'Import from RTC'!A139</f>
         <v>Task</v>
       </c>
-      <c r="B164" t="str">
+      <c r="B161" t="str">
         <f>'Import from RTC'!F157</f>
         <v>Allow Docents do delete all projects</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C161" t="str">
         <f>'Import from RTC'!G157</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="str">
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
         <f>'Import from RTC'!A140</f>
         <v>Task</v>
       </c>
-      <c r="B165" t="str">
+      <c r="B162" t="str">
         <f>'Import from RTC'!F158</f>
         <v>Display end date &amp; duration</v>
       </c>
-      <c r="C165" t="str">
+      <c r="C162" t="str">
         <f>'Import from RTC'!G158</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="str">
+      <c r="E162">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
         <f>'Import from RTC'!A141</f>
         <v>Task</v>
       </c>
-      <c r="B166" t="str">
+      <c r="B163" t="str">
         <f>'Import from RTC'!F159</f>
         <v>No text on full progressbar</v>
       </c>
-      <c r="C166" t="str">
+      <c r="C163" t="str">
         <f>'Import from RTC'!G159</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="str">
+      <c r="E163">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
         <f>'Import from RTC'!A143</f>
         <v>Task</v>
       </c>
-      <c r="B167" t="str">
+      <c r="B164" t="str">
         <f>'Import from RTC'!F161</f>
         <v>Get archived projects</v>
       </c>
-      <c r="C167" t="str">
+      <c r="C164" t="str">
         <f>'Import from RTC'!G161</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D167">
+      <c r="D164">
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="str">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
         <f>'Import from RTC'!A145</f>
         <v>Task</v>
       </c>
-      <c r="B168" t="str">
+      <c r="B165" t="str">
         <f>'Import from RTC'!F163</f>
         <v>Add Scrollbar for long description</v>
       </c>
-      <c r="C168" t="str">
+      <c r="C165" t="str">
         <f>'Import from RTC'!G163</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="str">
+      <c r="E165">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
         <f>'Import from RTC'!A146</f>
         <v>Task</v>
       </c>
-      <c r="B169" t="str">
+      <c r="B166" t="str">
         <f>'Import from RTC'!F164</f>
         <v>Docents can delete subscribers</v>
       </c>
-      <c r="C169" t="str">
+      <c r="C166" t="str">
         <f>'Import from RTC'!G164</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="str">
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
         <f>'Import from RTC'!A148</f>
         <v>Task</v>
       </c>
-      <c r="B170" t="str">
+      <c r="B167" t="str">
         <f>'Import from RTC'!F166</f>
         <v>Disable animation on progress bar</v>
       </c>
-      <c r="C170" t="str">
+      <c r="C167" t="str">
         <f>'Import from RTC'!G166</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D170">
+      <c r="D167">
         <v>0.25</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="str">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
         <f>'Import from RTC'!A149</f>
         <v>Task</v>
       </c>
-      <c r="B171" t="str">
+      <c r="B168" t="str">
         <f>'Import from RTC'!F167</f>
         <v>Show full project description without scroller</v>
       </c>
-      <c r="C171" t="str">
+      <c r="C168" t="str">
         <f>'Import from RTC'!G167</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D171">
+      <c r="D168">
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="str">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
         <f>'Import from RTC'!A150</f>
         <v>Task</v>
       </c>
-      <c r="B172" t="str">
+      <c r="B169" t="str">
         <f>'Import from RTC'!F168</f>
         <v>BackingPct not centered when &gt; 100</v>
       </c>
-      <c r="C172" t="str">
+      <c r="C169" t="str">
         <f>'Import from RTC'!G168</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D172">
+      <c r="D169">
         <v>0.25</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="str">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
         <f>'Import from RTC'!A151</f>
         <v>Task</v>
       </c>
-      <c r="B173" t="str">
+      <c r="B170" t="str">
         <f>'Import from RTC'!F169</f>
         <v>Change background color to match selected menu item</v>
       </c>
-      <c r="C173" t="str">
+      <c r="C170" t="str">
         <f>'Import from RTC'!G169</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D173">
+      <c r="D170">
         <v>0.75</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="str">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
         <f>'Import from RTC'!A153</f>
         <v>Task</v>
       </c>
-      <c r="B174" t="str">
+      <c r="B171" t="str">
         <f>'Import from RTC'!F171</f>
         <v>Left title should navigate to home page</v>
       </c>
-      <c r="C174" t="str">
+      <c r="C171" t="str">
         <f>'Import from RTC'!G171</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D174">
+      <c r="D171">
         <v>0.25</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="str">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
         <f>'Import from RTC'!A154</f>
         <v>Task</v>
       </c>
-      <c r="B175" t="str">
+      <c r="B172" t="str">
         <f>'Import from RTC'!F172</f>
         <v>Possibility to delete a project comment</v>
       </c>
-      <c r="C175" t="str">
+      <c r="C172" t="str">
         <f>'Import from RTC'!G172</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D175">
+      <c r="D172">
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="str">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
         <f>'Import from RTC'!A156</f>
         <v>Task</v>
       </c>
-      <c r="B176" t="str">
+      <c r="B173" t="str">
         <f>'Import from RTC'!F174</f>
         <v>About page not presentable</v>
       </c>
-      <c r="C176" t="str">
+      <c r="C173" t="str">
         <f>'Import from RTC'!G174</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D176">
+      <c r="D173">
         <v>0.25</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="str">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
         <f>'Import from RTC'!A157</f>
         <v>Task</v>
       </c>
-      <c r="B177" t="str">
+      <c r="B174" t="str">
         <f>'Import from RTC'!F175</f>
         <v>Search by tag or keyword in one search box</v>
       </c>
-      <c r="C177" t="str">
+      <c r="C174" t="str">
         <f>'Import from RTC'!G175</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D177">
+      <c r="D174">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="str">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
         <f>'Import from RTC'!A158</f>
         <v>Task</v>
       </c>
-      <c r="B178" t="str">
+      <c r="B175" t="str">
         <f>'Import from RTC'!F176</f>
         <v>Category menuitem not showing 'active'</v>
       </c>
-      <c r="C178" t="str">
+      <c r="C175" t="str">
         <f>'Import from RTC'!G176</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D178">
+      <c r="D175">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="str">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
         <f>'Import from RTC'!A160</f>
         <v>Task</v>
       </c>
-      <c r="B179" t="str">
+      <c r="B176" t="str">
         <f>'Import from RTC'!F178</f>
         <v>Make project title bold</v>
       </c>
-      <c r="C179" t="str">
+      <c r="C176" t="str">
         <f>'Import from RTC'!G178</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="str">
+      <c r="E176">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
         <f>'Import from RTC'!A161</f>
         <v>Task</v>
       </c>
-      <c r="B180" t="str">
+      <c r="B177" t="str">
         <f>'Import from RTC'!F179</f>
         <v>Allow Back after 100%</v>
       </c>
-      <c r="C180" t="str">
+      <c r="C177" t="str">
         <f>'Import from RTC'!G179</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="str">
+      <c r="E177">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
         <f>'Import from RTC'!A162</f>
         <v>Task</v>
       </c>
-      <c r="B181" t="str">
+      <c r="B178" t="str">
         <f>'Import from RTC'!F180</f>
         <v>make public only when 100% backed</v>
       </c>
-      <c r="C181" t="str">
+      <c r="C178" t="str">
         <f>'Import from RTC'!G180</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="str">
+      <c r="E178">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
         <f>'Import from RTC'!A163</f>
         <v>Task</v>
       </c>
-      <c r="B182" t="str">
+      <c r="B179" t="str">
         <f>'Import from RTC'!F181</f>
         <v>Navigate to details on title click</v>
       </c>
-      <c r="C182" t="str">
+      <c r="C179" t="str">
         <f>'Import from RTC'!G181</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="str">
+      <c r="E179">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
         <f>'Import from RTC'!A164</f>
         <v>Task</v>
       </c>
-      <c r="B183" t="str">
+      <c r="B180" t="str">
         <f>'Import from RTC'!F182</f>
         <v>Text back &gt; steun(nl), support(en)</v>
       </c>
-      <c r="C183" t="str">
+      <c r="C180" t="str">
         <f>'Import from RTC'!G182</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="str">
+      <c r="E180">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
         <f>'Import from RTC'!A172</f>
         <v>Task</v>
       </c>
-      <c r="B184" t="str">
+      <c r="B181" t="str">
         <f>'Import from RTC'!F190</f>
         <v>Search on more fields</v>
       </c>
-      <c r="C184" t="str">
+      <c r="C181" t="str">
         <f>'Import from RTC'!G190</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="str">
+      <c r="E181">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
         <f>'Import from RTC'!A177</f>
         <v>Task</v>
       </c>
-      <c r="B185" t="str">
+      <c r="B182" t="str">
         <f>'Import from RTC'!F195</f>
         <v>Show favicon</v>
       </c>
-      <c r="C185" t="str">
+      <c r="C182" t="str">
         <f>'Import from RTC'!G195</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="str">
+      <c r="E182">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
         <f>'Import from RTC'!A178</f>
         <v>Task</v>
       </c>
-      <c r="B186" t="str">
+      <c r="B183" t="str">
         <f>'Import from RTC'!F196</f>
         <v>Model Validation</v>
       </c>
-      <c r="C186" t="str">
+      <c r="C183" t="str">
         <f>'Import from RTC'!G196</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="str">
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
         <f>'Import from RTC'!A179</f>
         <v>Task</v>
       </c>
-      <c r="B187" t="str">
+      <c r="B184" t="str">
         <f>'Import from RTC'!F197</f>
         <v>Incorrect layout when adding items on new project page, especially on smaller screen sizes</v>
       </c>
-      <c r="C187" t="str">
+      <c r="C184" t="str">
         <f>'Import from RTC'!G197</f>
         <v>Arjen Schuurman</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="str">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
         <f>'Import from RTC'!A180</f>
         <v>Task</v>
       </c>
-      <c r="B188" t="str">
+      <c r="B185" t="str">
         <f>'Import from RTC'!F198</f>
         <v>Add error toast for delete constraint by categories</v>
       </c>
-      <c r="C188" t="str">
+      <c r="C185" t="str">
         <f>'Import from RTC'!G198</f>
         <v>Arjen Schuurman</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="str">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
         <f>'Import from RTC'!A181</f>
         <v>Task</v>
       </c>
-      <c r="B189" t="str">
+      <c r="B186" t="str">
         <f>'Import from RTC'!F199</f>
         <v>Add Javadoc</v>
       </c>
-      <c r="C189" t="str">
+      <c r="C186" t="str">
         <f>'Import from RTC'!G199</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="str">
+      <c r="E186">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
         <f>'Import from RTC'!A182</f>
         <v>Task</v>
       </c>
-      <c r="B190" t="str">
+      <c r="B187" t="str">
         <f>'Import from RTC'!F200</f>
         <v>Add duration options</v>
       </c>
-      <c r="C190" t="str">
+      <c r="C187" t="str">
         <f>'Import from RTC'!G200</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="str">
+      <c r="E187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
         <f>'Import from RTC'!A183</f>
         <v>Task</v>
       </c>
-      <c r="B191" t="str">
+      <c r="B188" t="str">
         <f>'Import from RTC'!F201</f>
         <v>Code convention adjustments</v>
       </c>
-      <c r="C191" t="str">
+      <c r="C188" t="str">
         <f>'Import from RTC'!G201</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="str">
+      <c r="E188">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
         <f>'Import from RTC'!A184</f>
         <v>Task</v>
       </c>
-      <c r="B192" t="str">
+      <c r="B189" t="str">
         <f>'Import from RTC'!F202</f>
         <v>Order projects on number of likes</v>
       </c>
-      <c r="C192" t="str">
+      <c r="C189" t="str">
         <f>'Import from RTC'!G202</f>
         <v>Jesse Vranken</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="E189">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D195" s="2">
-        <f>SUM(D67:D194)</f>
-        <v>130.1</v>
-      </c>
-      <c r="E195" s="2">
-        <f t="shared" ref="E195:H195" si="2">SUM(E67:E194)</f>
-        <v>100</v>
-      </c>
-      <c r="F195" s="2">
-        <f t="shared" si="2"/>
+      <c r="D192" s="2">
+        <f>SUM(D67:D191)</f>
+        <v>120.1</v>
+      </c>
+      <c r="E192" s="2">
+        <f>SUM(E67:E191)</f>
+        <v>126.25</v>
+      </c>
+      <c r="F192" s="2">
+        <f>SUM(F67:F191)</f>
+        <v>42</v>
+      </c>
+      <c r="G192" s="2">
+        <f>SUM(G67:G191)</f>
+        <v>48</v>
+      </c>
+      <c r="H192" s="2">
+        <f>SUM(H67:H191)</f>
+        <v>20</v>
+      </c>
+      <c r="I192" s="6">
+        <f>SUM(D192:H192)</f>
+        <v>356.35</v>
+      </c>
+    </row>
+    <row r="196" spans="4:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D196" s="2">
+        <f>D192+D65+D38</f>
+        <v>173.6</v>
+      </c>
+      <c r="E196" s="2">
+        <f>E192+E65+E38</f>
+        <v>190.75</v>
+      </c>
+      <c r="F196" s="2">
+        <f>F192+F65+F38</f>
         <v>44</v>
       </c>
-      <c r="G195" s="2">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="H195" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I195" s="6">
-        <f>SUM(D195:H195)</f>
-        <v>342.1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D199" s="2">
-        <f>D195+D65+D38</f>
-        <v>183.6</v>
-      </c>
-      <c r="E199" s="2">
-        <f t="shared" ref="E199:H199" si="3">E195+E65+E38</f>
-        <v>120</v>
-      </c>
-      <c r="F199" s="2">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="G199" s="2">
-        <f t="shared" si="3"/>
+      <c r="G196" s="2">
+        <f>G192+G65+G38</f>
         <v>55</v>
       </c>
-      <c r="H199" s="2">
-        <f t="shared" si="3"/>
+      <c r="H196" s="2">
+        <f>H192+H65+H38</f>
         <v>22</v>
       </c>
-      <c r="I199" s="6">
-        <f>SUM(D199:H199)</f>
-        <v>426.6</v>
+      <c r="I196" s="6">
+        <f>SUM(D196:H196)</f>
+        <v>485.35</v>
       </c>
     </row>
   </sheetData>
@@ -13952,23 +14134,23 @@
         <v>230</v>
       </c>
       <c r="B2" s="11">
-        <f>'Time spent by user'!D199</f>
-        <v>183.6</v>
+        <f>'Time spent by user'!D196</f>
+        <v>173.6</v>
       </c>
       <c r="C2" s="11">
-        <f>'Time spent by user'!E199</f>
-        <v>120</v>
+        <f>'Time spent by user'!E196</f>
+        <v>190.75</v>
       </c>
       <c r="D2" s="11">
-        <f>'Time spent by user'!F199</f>
-        <v>46</v>
+        <f>'Time spent by user'!F196</f>
+        <v>44</v>
       </c>
       <c r="E2" s="11">
-        <f>'Time spent by user'!G199</f>
+        <f>'Time spent by user'!G196</f>
         <v>55</v>
       </c>
       <c r="F2" s="11">
-        <f>'Time spent by user'!H199</f>
+        <f>'Time spent by user'!H196</f>
         <v>22</v>
       </c>
     </row>
@@ -14026,23 +14208,23 @@
         <v>233</v>
       </c>
       <c r="B2" s="11">
-        <f>'Time spent by user'!D195</f>
-        <v>130.1</v>
+        <f>'Time spent by user'!D192</f>
+        <v>120.1</v>
       </c>
       <c r="C2" s="11">
-        <f>'Time spent by user'!E195</f>
-        <v>100</v>
+        <f>'Time spent by user'!E192</f>
+        <v>126.25</v>
       </c>
       <c r="D2" s="11">
-        <f>'Time spent by user'!F195</f>
-        <v>44</v>
+        <f>'Time spent by user'!F192</f>
+        <v>42</v>
       </c>
       <c r="E2" s="11">
-        <f>'Time spent by user'!G195</f>
+        <f>'Time spent by user'!G192</f>
         <v>48</v>
       </c>
       <c r="F2" s="11">
-        <f>'Time spent by user'!H195</f>
+        <f>'Time spent by user'!H192</f>
         <v>20</v>
       </c>
     </row>
@@ -14105,7 +14287,7 @@
       </c>
       <c r="C2" s="11">
         <f>'Time spent by user'!E38</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D2" s="11">
         <f>'Time spent by user'!F38</f>
@@ -14179,7 +14361,7 @@
       </c>
       <c r="C2" s="11">
         <f>'Time spent by user'!E65</f>
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D2" s="11">
         <f>'Time spent by user'!F65</f>
@@ -14233,15 +14415,15 @@
       </c>
       <c r="B2" s="11">
         <f>'Time spent by user'!I38</f>
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11">
-        <f>'Time spent by user'!I195</f>
-        <v>342.1</v>
+        <f>'Time spent by user'!I192</f>
+        <v>356.35</v>
       </c>
       <c r="D2" s="11">
         <f>'Time spent by user'!I65</f>
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -14254,8 +14436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14297,15 +14479,15 @@
       </c>
       <c r="C4" s="11">
         <f>'Total time spent'!B2</f>
-        <v>183.6</v>
+        <v>173.6</v>
       </c>
       <c r="D4" s="11">
         <f>'Total time spent'!C2</f>
-        <v>120</v>
+        <v>190.75</v>
       </c>
       <c r="E4" s="11">
         <f>'Total time spent'!D2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="11">
         <f>'Total time spent'!E2</f>
@@ -14318,7 +14500,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C5" s="13">
         <v>50</v>
@@ -14346,19 +14528,19 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" s="9">
         <f>C5*C4</f>
-        <v>9180</v>
+        <v>8680</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ref="D7:G7" si="0">D5*D4</f>
-        <v>6000</v>
+        <v>9537.5</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
@@ -14387,11 +14569,11 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C10" s="11">
         <f>SUM(C7:G7)</f>
-        <v>21330</v>
+        <v>24267.5</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>

--- a/italent/documents/quality/TimeSpent.xlsx
+++ b/italent/documents/quality/TimeSpent.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\quality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Import from RTC" sheetId="1" r:id="rId1"/>
@@ -12,14 +17,13 @@
     <sheet name="Total time spent" sheetId="3" r:id="rId3"/>
     <sheet name="Time spend on tasks" sheetId="4" r:id="rId4"/>
     <sheet name="Time spend on defects" sheetId="5" r:id="rId5"/>
-    <sheet name="Time spent on stories" sheetId="7" r:id="rId6"/>
-    <sheet name="Time spend by type" sheetId="8" r:id="rId7"/>
-    <sheet name="Project cost" sheetId="9" r:id="rId8"/>
+    <sheet name="Time spend by type" sheetId="8" r:id="rId6"/>
+    <sheet name="Project cost" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="238">
   <si>
     <t>Type</t>
   </si>
@@ -725,9 +729,6 @@
   </si>
   <si>
     <t>Time spent on defects</t>
-  </si>
-  <si>
-    <t>Time spent on story defining</t>
   </si>
   <si>
     <t>Time spent on tasks</t>
@@ -752,7 +753,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$€-426]#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,13 +767,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -791,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,11 +798,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -860,29 +852,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -930,7 +918,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1205,7 +1193,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1371,19 +1359,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>120.1</c:v>
+                  <c:v>163.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.25</c:v>
+                  <c:v>181.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,7 +1468,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1755,276 +1743,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-BE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nl-BE"/>
-              <a:t>Time spent on stories</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Time spent on stories'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Niek Vandael</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jesse Vranken</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Arjen Schuurman</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Dennie Grondelars</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bart Hunerbein</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Time spent on stories'!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2115,52 +1834,31 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Time spend by type'!$B$1:$D$1</c:f>
+              <c:f>'Time spend by type'!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Defect</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Task</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Story</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Time spend by type'!$B$2:$D$2</c:f>
+              <c:f>'Time spend by type'!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>356.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>109</c:v>
+                  <c:v>465.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,46 +2073,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4530,525 +4188,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5158,55 +4297,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5479,7 +4583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10763,10 +9867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I196"/>
+  <dimension ref="A2:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10778,30 +9882,29 @@
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>235</v>
+      <c r="I2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -11382,2697 +10485,2645 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38">
         <f>SUM(D38:H38)</f>
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>'Import from RTC'!A23</f>
-        <v>Story</v>
+        <f>'Import from RTC'!A2</f>
+        <v>Task</v>
       </c>
       <c r="B41" t="str">
+        <f>'Import from RTC'!F2</f>
+        <v>Define a new build</v>
+      </c>
+      <c r="C41" t="str">
+        <f>'Import from RTC'!G2</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>'Import from RTC'!A3</f>
+        <v>Task</v>
+      </c>
+      <c r="B42" t="str">
+        <f>'Import from RTC'!F3</f>
+        <v>Share code with Jazz Source Control</v>
+      </c>
+      <c r="C42" t="str">
+        <f>'Import from RTC'!G3</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>'Import from RTC'!A4</f>
+        <v>Task</v>
+      </c>
+      <c r="B43" t="str">
+        <f>'Import from RTC'!F4</f>
+        <v>Define sprints/iterations</v>
+      </c>
+      <c r="C43" t="str">
+        <f>'Import from RTC'!G4</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>'Import from RTC'!A5</f>
+        <v>Task</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'Import from RTC'!F5</f>
+        <v>Define categories and releases for work items</v>
+      </c>
+      <c r="C44" t="str">
+        <f>'Import from RTC'!G5</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>'Import from RTC'!A6</f>
+        <v>Task</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'Import from RTC'!F6</f>
+        <v>Define team members</v>
+      </c>
+      <c r="C45" t="str">
+        <f>'Import from RTC'!G6</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>'Import from RTC'!A7</f>
+        <v>Task</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'Import from RTC'!F7</f>
+        <v>Define permissions</v>
+      </c>
+      <c r="C46" t="str">
+        <f>'Import from RTC'!G7</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>'Import from RTC'!A8</f>
+        <v>Task</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'Import from RTC'!F8</f>
+        <v>Setup RTC</v>
+      </c>
+      <c r="C47" t="str">
+        <f>'Import from RTC'!G8</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>'Import from RTC'!A10</f>
+        <v>Task</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'Import from RTC'!F10</f>
+        <v>Share initial code</v>
+      </c>
+      <c r="C48" t="str">
+        <f>'Import from RTC'!G10</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>'Import from RTC'!A11</f>
+        <v>Task</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'Import from RTC'!F11</f>
+        <v>Setup Openshift Server</v>
+      </c>
+      <c r="C49" t="str">
+        <f>'Import from RTC'!G11</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>'Import from RTC'!A12</f>
+        <v>Task</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'Import from RTC'!F12</f>
+        <v>RTC Testing</v>
+      </c>
+      <c r="C50" t="str">
+        <f>'Import from RTC'!G12</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>'Import from RTC'!A13</f>
+        <v>Task</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'Import from RTC'!F13</f>
+        <v>Enable Jenkins</v>
+      </c>
+      <c r="C51" t="str">
+        <f>'Import from RTC'!G13</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>'Import from RTC'!A14</f>
+        <v>Task</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'Import from RTC'!F23</f>
+        <v>Create Analisis</v>
+      </c>
+      <c r="C52" t="str">
+        <f>'Import from RTC'!G23</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>'Import from RTC'!A15</f>
+        <v>Task</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'Import from RTC'!F24</f>
+        <v>Analyse login</v>
+      </c>
+      <c r="C53" t="str">
+        <f>'Import from RTC'!G24</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>'Import from RTC'!A16</f>
+        <v>Task</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'Import from RTC'!F25</f>
+        <v>Analyse projects</v>
+      </c>
+      <c r="C54" t="str">
+        <f>'Import from RTC'!G25</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>'Import from RTC'!A17</f>
+        <v>Task</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'Import from RTC'!F26</f>
+        <v>Analyse subscribers</v>
+      </c>
+      <c r="C55" t="str">
+        <f>'Import from RTC'!G26</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>'Import from RTC'!A18</f>
+        <v>Task</v>
+      </c>
+      <c r="B56" t="str">
+        <f>'Import from RTC'!F27</f>
+        <v>Set Up Project Structure</v>
+      </c>
+      <c r="C56" t="str">
+        <f>'Import from RTC'!G27</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>'Import from RTC'!A20</f>
+        <v>Task</v>
+      </c>
+      <c r="B57" t="str">
+        <f>'Import from RTC'!F30</f>
+        <v>Vereisten verzamelen</v>
+      </c>
+      <c r="C57" t="str">
+        <f>'Import from RTC'!G30</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>'Import from RTC'!A21</f>
+        <v>Task</v>
+      </c>
+      <c r="B58" t="str">
+        <f>'Import from RTC'!F31</f>
+        <v>Plan van aanpak</v>
+      </c>
+      <c r="C58" t="str">
+        <f>'Import from RTC'!G31</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>'Import from RTC'!A22</f>
+        <v>Task</v>
+      </c>
+      <c r="B59" t="str">
+        <f>'Import from RTC'!F32</f>
+        <v>Create Use Cases Diagram</v>
+      </c>
+      <c r="C59" t="str">
+        <f>'Import from RTC'!G32</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>'Import from RTC'!A24</f>
+        <v>Task</v>
+      </c>
+      <c r="B60" t="str">
+        <f>'Import from RTC'!F34</f>
+        <v>RTC setup development environment documentje maken</v>
+      </c>
+      <c r="C60" t="str">
+        <f>'Import from RTC'!G34</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>'Import from RTC'!A25</f>
+        <v>Task</v>
+      </c>
+      <c r="B61" t="str">
+        <f>'Import from RTC'!F35</f>
+        <v>Setup development environment</v>
+      </c>
+      <c r="C61" t="str">
+        <f>'Import from RTC'!G35</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>'Import from RTC'!A26</f>
+        <v>Task</v>
+      </c>
+      <c r="B62" t="str">
+        <f>'Import from RTC'!F37</f>
+        <v>Requirements opstellen</v>
+      </c>
+      <c r="C62" t="str">
+        <f>'Import from RTC'!G37</f>
+        <v>Arjen Schuurman</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>'Import from RTC'!A27</f>
+        <v>Task</v>
+      </c>
+      <c r="B63" t="str">
+        <f>'Import from RTC'!F38</f>
+        <v>Studenten en docenten moeten inloggen alvorens de applicatie te kunnen gebruiken</v>
+      </c>
+      <c r="C63" t="str">
+        <f>'Import from RTC'!G38</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>'Import from RTC'!A29</f>
+        <v>Task</v>
+      </c>
+      <c r="B64" t="str">
+        <f>'Import from RTC'!F41</f>
+        <v>Studenten kunnen projecten liken</v>
+      </c>
+      <c r="C64" t="str">
+        <f>'Import from RTC'!G41</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>'Import from RTC'!A30</f>
+        <v>Task</v>
+      </c>
+      <c r="B65" t="str">
+        <f>'Import from RTC'!F42</f>
+        <v>Studenten kunnen op projecten inschrijven</v>
+      </c>
+      <c r="C65" t="str">
+        <f>'Import from RTC'!G42</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>'Import from RTC'!A31</f>
+        <v>Task</v>
+      </c>
+      <c r="B66" t="str">
+        <f>'Import from RTC'!F43</f>
+        <v>Docenten kunnen op projecten intekenen</v>
+      </c>
+      <c r="C66" t="str">
+        <f>'Import from RTC'!G43</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>'Import from RTC'!A33</f>
+        <v>Task</v>
+      </c>
+      <c r="B67" t="str">
+        <f>'Import from RTC'!F46</f>
+        <v>Technische details zoals video en foto-hosting uitzoeken</v>
+      </c>
+      <c r="C67" t="str">
+        <f>'Import from RTC'!G46</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>'Import from RTC'!A34</f>
+        <v>Task</v>
+      </c>
+      <c r="B68" t="str">
+        <f>'Import from RTC'!F47</f>
+        <v>Mockups maken</v>
+      </c>
+      <c r="C68" t="str">
+        <f>'Import from RTC'!G47</f>
+        <v>Bart Hunerbein</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>'Import from RTC'!A39</f>
+        <v>Task</v>
+      </c>
+      <c r="B69" t="str">
+        <f>'Import from RTC'!F54</f>
+        <v>Voorbereiding presentatie (engels)</v>
+      </c>
+      <c r="C69" t="str">
+        <f>'Import from RTC'!G54</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>'Import from RTC'!A40</f>
+        <v>Task</v>
+      </c>
+      <c r="B70" t="str">
+        <f>'Import from RTC'!F57</f>
+        <v>backend uitwerken</v>
+      </c>
+      <c r="C70" t="str">
+        <f>'Import from RTC'!G57</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>'Import from RTC'!A57</f>
+        <v>Task</v>
+      </c>
+      <c r="B71" t="str">
+        <f>'Import from RTC'!F75</f>
+        <v>Openshift does not build anymore</v>
+      </c>
+      <c r="C71" t="str">
+        <f>'Import from RTC'!G75</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>'Import from RTC'!A58</f>
+        <v>Task</v>
+      </c>
+      <c r="B72" t="str">
+        <f>'Import from RTC'!F76</f>
+        <v>Angular - Implement Likes</v>
+      </c>
+      <c r="C72" t="str">
+        <f>'Import from RTC'!G76</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>'Import from RTC'!A59</f>
+        <v>Task</v>
+      </c>
+      <c r="B73" t="str">
+        <f>'Import from RTC'!F77</f>
+        <v>Toggle likes for a project</v>
+      </c>
+      <c r="C73" t="str">
+        <f>'Import from RTC'!G77</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>'Import from RTC'!A61</f>
+        <v>Task</v>
+      </c>
+      <c r="B74" t="str">
+        <f>'Import from RTC'!F79</f>
+        <v>Angular - Implement Project Service</v>
+      </c>
+      <c r="C74" t="str">
+        <f>'Import from RTC'!G79</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>'Import from RTC'!A62</f>
+        <v>Task</v>
+      </c>
+      <c r="B75" t="str">
+        <f>'Import from RTC'!F80</f>
+        <v>English presentation</v>
+      </c>
+      <c r="C75" t="str">
+        <f>'Import from RTC'!G80</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>'Import from RTC'!A63</f>
+        <v>Task</v>
+      </c>
+      <c r="B76" t="str">
+        <f>'Import from RTC'!F81</f>
+        <v>Spring - Implement Subscriber Student Service</v>
+      </c>
+      <c r="C76" t="str">
+        <f>'Import from RTC'!G81</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>'Import from RTC'!A64</f>
+        <v>Task</v>
+      </c>
+      <c r="B77" t="str">
+        <f>'Import from RTC'!F82</f>
+        <v>Angular - Implement Subscriber Student Service</v>
+      </c>
+      <c r="C77" t="str">
+        <f>'Import from RTC'!G82</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>'Import from RTC'!A65</f>
+        <v>Task</v>
+      </c>
+      <c r="B78" t="str">
+        <f>'Import from RTC'!F83</f>
+        <v>Spring - Implement Subscriber Docent Service</v>
+      </c>
+      <c r="C78" t="str">
+        <f>'Import from RTC'!G83</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>'Import from RTC'!A66</f>
+        <v>Task</v>
+      </c>
+      <c r="B79" t="str">
+        <f>'Import from RTC'!F84</f>
+        <v>MySql timeout after 8 hours</v>
+      </c>
+      <c r="C79" t="str">
+        <f>'Import from RTC'!G84</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>'Import from RTC'!A67</f>
+        <v>Task</v>
+      </c>
+      <c r="B80" t="str">
+        <f>'Import from RTC'!F85</f>
+        <v>Security setup</v>
+      </c>
+      <c r="C80" t="str">
+        <f>'Import from RTC'!G85</f>
+        <v>Dennie Grondelaers</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>'Import from RTC'!A68</f>
+        <v>Task</v>
+      </c>
+      <c r="B81" t="str">
+        <f>'Import from RTC'!F86</f>
+        <v>Create category screen</v>
+      </c>
+      <c r="C81" t="str">
+        <f>'Import from RTC'!G86</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>'Import from RTC'!A69</f>
+        <v>Task</v>
+      </c>
+      <c r="B82" t="str">
+        <f>'Import from RTC'!F87</f>
+        <v>Security - Autowiring Error</v>
+      </c>
+      <c r="C82" t="str">
+        <f>'Import from RTC'!G87</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>'Import from RTC'!A70</f>
+        <v>Task</v>
+      </c>
+      <c r="B83" t="str">
+        <f>'Import from RTC'!F88</f>
+        <v>Save youtube videos on project</v>
+      </c>
+      <c r="C83" t="str">
+        <f>'Import from RTC'!G88</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>'Import from RTC'!A71</f>
+        <v>Task</v>
+      </c>
+      <c r="B84" t="str">
+        <f>'Import from RTC'!F89</f>
+        <v>Add pictures on project</v>
+      </c>
+      <c r="C84" t="str">
+        <f>'Import from RTC'!G89</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>'Import from RTC'!A72</f>
+        <v>Task</v>
+      </c>
+      <c r="B85" t="str">
+        <f>'Import from RTC'!F90</f>
+        <v>Enable update for projects</v>
+      </c>
+      <c r="C85" t="str">
+        <f>'Import from RTC'!G90</f>
+        <v>Arjen Schuurman</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>'Import from RTC'!A74</f>
+        <v>Task</v>
+      </c>
+      <c r="B86" t="str">
+        <f>'Import from RTC'!F92</f>
+        <v>Add milestones to project</v>
+      </c>
+      <c r="C86" t="str">
+        <f>'Import from RTC'!G92</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>'Import from RTC'!A76</f>
+        <v>Task</v>
+      </c>
+      <c r="B87" t="str">
+        <f>'Import from RTC'!F94</f>
+        <v xml:space="preserve">Create department list </v>
+      </c>
+      <c r="C87" t="str">
+        <f>'Import from RTC'!G94</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>'Import from RTC'!A77</f>
+        <v>Task</v>
+      </c>
+      <c r="B88" t="str">
+        <f>'Import from RTC'!F95</f>
+        <v>Add wanted-subscribers to project</v>
+      </c>
+      <c r="C88" t="str">
+        <f>'Import from RTC'!G95</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>'Import from RTC'!A78</f>
+        <v>Task</v>
+      </c>
+      <c r="B89" t="str">
+        <f>'Import from RTC'!F96</f>
+        <v>Angular - Implement Subscriber Docent Service</v>
+      </c>
+      <c r="C89" t="str">
+        <f>'Import from RTC'!G96</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>'Import from RTC'!A79</f>
+        <v>Task</v>
+      </c>
+      <c r="B90" t="str">
+        <f>'Import from RTC'!F97</f>
+        <v>Prezis toevoegen aan het project</v>
+      </c>
+      <c r="C90" t="str">
+        <f>'Import from RTC'!G97</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>'Import from RTC'!A80</f>
+        <v>Task</v>
+      </c>
+      <c r="B91" t="str">
+        <f>'Import from RTC'!F98</f>
+        <v>Search functionality (angular)</v>
+      </c>
+      <c r="C91" t="str">
+        <f>'Import from RTC'!G98</f>
+        <v>Bart Hunerbein</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>'Import from RTC'!A81</f>
+        <v>Task</v>
+      </c>
+      <c r="B92" t="str">
+        <f>'Import from RTC'!F99</f>
+        <v>Online bestanden toevoegen aan het project</v>
+      </c>
+      <c r="C92" t="str">
+        <f>'Import from RTC'!G99</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>'Import from RTC'!A82</f>
+        <v>Task</v>
+      </c>
+      <c r="B93" t="str">
+        <f>'Import from RTC'!F100</f>
+        <v>JSTD syntax error in eclipse</v>
+      </c>
+      <c r="C93" t="str">
+        <f>'Import from RTC'!G100</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>'Import from RTC'!A83</f>
+        <v>Task</v>
+      </c>
+      <c r="B94" t="str">
+        <f>'Import from RTC'!F101</f>
+        <v>Compress pictures</v>
+      </c>
+      <c r="C94" t="str">
+        <f>'Import from RTC'!G101</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>'Import from RTC'!A85</f>
+        <v>Task</v>
+      </c>
+      <c r="B95" t="str">
+        <f>'Import from RTC'!F103</f>
+        <v>Filter projects by category</v>
+      </c>
+      <c r="C95" t="str">
+        <f>'Import from RTC'!G103</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>'Import from RTC'!A86</f>
+        <v>Task</v>
+      </c>
+      <c r="B96" t="str">
+        <f>'Import from RTC'!F104</f>
+        <v>Form submits when not valid (new project)</v>
+      </c>
+      <c r="C96" t="str">
+        <f>'Import from RTC'!G104</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>'Import from RTC'!A88</f>
+        <v>Task</v>
+      </c>
+      <c r="B97" t="str">
+        <f>'Import from RTC'!F106</f>
+        <v>Deleting category does not show errormessage</v>
+      </c>
+      <c r="C97" t="str">
+        <f>'Import from RTC'!G106</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D97">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>'Import from RTC'!A89</f>
+        <v>Task</v>
+      </c>
+      <c r="B98" t="str">
+        <f>'Import from RTC'!F107</f>
+        <v>Missing menu item 'New project'</v>
+      </c>
+      <c r="C98" t="str">
+        <f>'Import from RTC'!G107</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D98">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>'Import from RTC'!A90</f>
+        <v>Task</v>
+      </c>
+      <c r="B99" t="str">
+        <f>'Import from RTC'!F108</f>
+        <v>Create domain model</v>
+      </c>
+      <c r="C99" t="str">
+        <f>'Import from RTC'!G108</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>'Import from RTC'!A91</f>
+        <v>Task</v>
+      </c>
+      <c r="B100" t="str">
+        <f>'Import from RTC'!F109</f>
+        <v>Disable like when not authenticated</v>
+      </c>
+      <c r="C100" t="str">
+        <f>'Import from RTC'!G109</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D100">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>'Import from RTC'!A92</f>
+        <v>Task</v>
+      </c>
+      <c r="B101" t="str">
+        <f>'Import from RTC'!F110</f>
+        <v>Layout myProject Page</v>
+      </c>
+      <c r="C101" t="str">
+        <f>'Import from RTC'!G110</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>'Import from RTC'!A93</f>
+        <v>Task</v>
+      </c>
+      <c r="B102" t="str">
+        <f>'Import from RTC'!F111</f>
+        <v>Add Background</v>
+      </c>
+      <c r="C102" t="str">
+        <f>'Import from RTC'!G111</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E102">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>'Import from RTC'!A94</f>
+        <v>Task</v>
+      </c>
+      <c r="B103" t="str">
+        <f>'Import from RTC'!F112</f>
+        <v>Layout home pagina</v>
+      </c>
+      <c r="C103" t="str">
+        <f>'Import from RTC'!G112</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>'Import from RTC'!A95</f>
+        <v>Task</v>
+      </c>
+      <c r="B104" t="str">
+        <f>'Import from RTC'!F113</f>
+        <v>Add domain to projects</v>
+      </c>
+      <c r="C104" t="str">
+        <f>'Import from RTC'!G113</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>'Import from RTC'!A96</f>
+        <v>Task</v>
+      </c>
+      <c r="B105" t="str">
+        <f>'Import from RTC'!F114</f>
+        <v>Remove comic sans font.</v>
+      </c>
+      <c r="C105" t="str">
+        <f>'Import from RTC'!G114</f>
+        <v>Arjen Schuurman</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>'Import from RTC'!A97</f>
+        <v>Task</v>
+      </c>
+      <c r="B106" t="str">
+        <f>'Import from RTC'!F115</f>
+        <v>Guests cannot view project details</v>
+      </c>
+      <c r="C106" t="str">
+        <f>'Import from RTC'!G115</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>'Import from RTC'!A98</f>
+        <v>Task</v>
+      </c>
+      <c r="B107" t="str">
+        <f>'Import from RTC'!F116</f>
+        <v>Align subscripe/backup row, move to detail project page.</v>
+      </c>
+      <c r="C107" t="str">
+        <f>'Import from RTC'!G116</f>
+        <v>Arjen Schuurman</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>'Import from RTC'!A99</f>
+        <v>Task</v>
+      </c>
+      <c r="B108" t="str">
+        <f>'Import from RTC'!F117</f>
+        <v>Plan van aanpak: Quality assurance</v>
+      </c>
+      <c r="C108" t="str">
+        <f>'Import from RTC'!G117</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>'Import from RTC'!A101</f>
+        <v>Task</v>
+      </c>
+      <c r="B109" t="str">
+        <f>'Import from RTC'!F119</f>
+        <v>Tag projects (multiple categories per project)</v>
+      </c>
+      <c r="C109" t="str">
+        <f>'Import from RTC'!G119</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>'Import from RTC'!A102</f>
+        <v>Task</v>
+      </c>
+      <c r="B110" t="str">
+        <f>'Import from RTC'!F120</f>
+        <v>Create FIT criteria</v>
+      </c>
+      <c r="C110" t="str">
+        <f>'Import from RTC'!G120</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>'Import from RTC'!A103</f>
+        <v>Task</v>
+      </c>
+      <c r="B111" t="str">
+        <f>'Import from RTC'!F121</f>
+        <v>Docenten kunnen filteren op niet-gebackte projecten</v>
+      </c>
+      <c r="C111" t="str">
+        <f>'Import from RTC'!G121</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>'Import from RTC'!A108</f>
+        <v>Task</v>
+      </c>
+      <c r="B112" t="str">
+        <f>'Import from RTC'!F126</f>
+        <v>Bugfix subscribe/back project</v>
+      </c>
+      <c r="C112" t="str">
+        <f>'Import from RTC'!G126</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>'Import from RTC'!A110</f>
+        <v>Task</v>
+      </c>
+      <c r="B113" t="str">
+        <f>'Import from RTC'!F128</f>
+        <v>Only show Student Subscribe when possible</v>
+      </c>
+      <c r="C113" t="str">
+        <f>'Import from RTC'!G128</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>'Import from RTC'!A111</f>
+        <v>Task</v>
+      </c>
+      <c r="B114" t="str">
+        <f>'Import from RTC'!F129</f>
+        <v>Layout Language Select</v>
+      </c>
+      <c r="C114" t="str">
+        <f>'Import from RTC'!G129</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E114">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>'Import from RTC'!A112</f>
+        <v>Task</v>
+      </c>
+      <c r="B115" t="str">
+        <f>'Import from RTC'!F130</f>
+        <v>Layout Login Button</v>
+      </c>
+      <c r="C115" t="str">
+        <f>'Import from RTC'!G130</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E115">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>'Import from RTC'!A113</f>
+        <v>Task</v>
+      </c>
+      <c r="B116" t="str">
+        <f>'Import from RTC'!F131</f>
+        <v>Layout - Adding All Caps for titles and subtitles</v>
+      </c>
+      <c r="C116" t="str">
+        <f>'Import from RTC'!G131</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E116">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>'Import from RTC'!A114</f>
+        <v>Task</v>
+      </c>
+      <c r="B117" t="str">
+        <f>'Import from RTC'!F132</f>
+        <v>Bugfix - Title not showing in public list</v>
+      </c>
+      <c r="C117" t="str">
+        <f>'Import from RTC'!G132</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E117">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>'Import from RTC'!A116</f>
+        <v>Task</v>
+      </c>
+      <c r="B118" t="str">
+        <f>'Import from RTC'!F134</f>
+        <v>Session lost after refresh</v>
+      </c>
+      <c r="C118" t="str">
+        <f>'Import from RTC'!G134</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>'Import from RTC'!A117</f>
+        <v>Task</v>
+      </c>
+      <c r="B119" t="str">
+        <f>'Import from RTC'!F135</f>
+        <v>Bugfix Delete Media</v>
+      </c>
+      <c r="C119" t="str">
+        <f>'Import from RTC'!G135</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E119">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>'Import from RTC'!A118</f>
+        <v>Task</v>
+      </c>
+      <c r="B120" t="str">
+        <f>'Import from RTC'!F136</f>
+        <v>Only show docent back when possible</v>
+      </c>
+      <c r="C120" t="str">
+        <f>'Import from RTC'!G136</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E120">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>'Import from RTC'!A119</f>
+        <v>Task</v>
+      </c>
+      <c r="B121" t="str">
+        <f>'Import from RTC'!F137</f>
+        <v>Bugfix - import sql</v>
+      </c>
+      <c r="C121" t="str">
+        <f>'Import from RTC'!G137</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E121">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>'Import from RTC'!A120</f>
+        <v>Task</v>
+      </c>
+      <c r="B122" t="str">
+        <f>'Import from RTC'!F138</f>
+        <v>Show Docent backed projects in myprojects</v>
+      </c>
+      <c r="C122" t="str">
+        <f>'Import from RTC'!G138</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E122">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>'Import from RTC'!A121</f>
+        <v>Task</v>
+      </c>
+      <c r="B123" t="str">
+        <f>'Import from RTC'!F139</f>
+        <v>Change max number of media to 100</v>
+      </c>
+      <c r="C123" t="str">
+        <f>'Import from RTC'!G139</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E123">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>'Import from RTC'!A122</f>
+        <v>Task</v>
+      </c>
+      <c r="B124" t="str">
+        <f>'Import from RTC'!F140</f>
+        <v>Add social media buttons</v>
+      </c>
+      <c r="C124" t="str">
+        <f>'Import from RTC'!G140</f>
+        <v>Niek Vandael</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>'Import from RTC'!A123</f>
+        <v>Task</v>
+      </c>
+      <c r="B125" t="str">
+        <f>'Import from RTC'!F141</f>
+        <v>Enable student subscribe when project is fully backed</v>
+      </c>
+      <c r="C125" t="str">
+        <f>'Import from RTC'!G141</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E125">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>'Import from RTC'!A124</f>
+        <v>Task</v>
+      </c>
+      <c r="B126" t="str">
+        <f>'Import from RTC'!F142</f>
+        <v>Bugfix - filter for student home page</v>
+      </c>
+      <c r="C126" t="str">
+        <f>'Import from RTC'!G142</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E126">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>'Import from RTC'!A125</f>
+        <v>Task</v>
+      </c>
+      <c r="B127" t="str">
+        <f>'Import from RTC'!F143</f>
+        <v>Add comments to projects</v>
+      </c>
+      <c r="C127" t="str">
+        <f>'Import from RTC'!G143</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>'Import from RTC'!A128</f>
+        <v>Task</v>
+      </c>
+      <c r="B128" t="str">
+        <f>'Import from RTC'!F146</f>
+        <v>Create popup messages for result while saving/creating projects.</v>
+      </c>
+      <c r="C128" t="str">
+        <f>'Import from RTC'!G146</f>
+        <v>Arjen Schuurman</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>'Import from RTC'!A129</f>
+        <v>Task</v>
+      </c>
+      <c r="B129" t="str">
+        <f>'Import from RTC'!F147</f>
+        <v>Bugfix - error updating projects</v>
+      </c>
+      <c r="C129" t="str">
+        <f>'Import from RTC'!G147</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>'Import from RTC'!A130</f>
+        <v>Task</v>
+      </c>
+      <c r="B130" t="str">
+        <f>'Import from RTC'!F148</f>
+        <v>Only docents can make projects public</v>
+      </c>
+      <c r="C130" t="str">
+        <f>'Import from RTC'!G148</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E130">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>'Import from RTC'!A131</f>
+        <v>Task</v>
+      </c>
+      <c r="B131" t="str">
+        <f>'Import from RTC'!F149</f>
+        <v>Picture carousel on detail page</v>
+      </c>
+      <c r="C131" t="str">
+        <f>'Import from RTC'!G149</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>'Import from RTC'!A133</f>
+        <v>Task</v>
+      </c>
+      <c r="B132" t="str">
+        <f>'Import from RTC'!F151</f>
+        <v>Disable student edit for backed projects</v>
+      </c>
+      <c r="C132" t="str">
+        <f>'Import from RTC'!G151</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E132">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>'Import from RTC'!A136</f>
+        <v>Task</v>
+      </c>
+      <c r="B133" t="str">
+        <f>'Import from RTC'!F154</f>
+        <v>Set start date when 100%  subscribed</v>
+      </c>
+      <c r="C133" t="str">
+        <f>'Import from RTC'!G154</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>'Import from RTC'!A138</f>
+        <v>Task</v>
+      </c>
+      <c r="B134" t="str">
+        <f>'Import from RTC'!F156</f>
+        <v>Allow Docents to edit all projects</v>
+      </c>
+      <c r="C134" t="str">
+        <f>'Import from RTC'!G156</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E134">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>'Import from RTC'!A139</f>
+        <v>Task</v>
+      </c>
+      <c r="B135" t="str">
+        <f>'Import from RTC'!F157</f>
+        <v>Allow Docents do delete all projects</v>
+      </c>
+      <c r="C135" t="str">
+        <f>'Import from RTC'!G157</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>'Import from RTC'!A140</f>
+        <v>Task</v>
+      </c>
+      <c r="B136" t="str">
+        <f>'Import from RTC'!F158</f>
+        <v>Display end date &amp; duration</v>
+      </c>
+      <c r="C136" t="str">
+        <f>'Import from RTC'!G158</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>'Import from RTC'!A141</f>
+        <v>Task</v>
+      </c>
+      <c r="B137" t="str">
+        <f>'Import from RTC'!F159</f>
+        <v>No text on full progressbar</v>
+      </c>
+      <c r="C137" t="str">
+        <f>'Import from RTC'!G159</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E137">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>'Import from RTC'!A143</f>
+        <v>Task</v>
+      </c>
+      <c r="B138" t="str">
+        <f>'Import from RTC'!F161</f>
+        <v>Get archived projects</v>
+      </c>
+      <c r="C138" t="str">
+        <f>'Import from RTC'!G161</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D138">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>'Import from RTC'!A145</f>
+        <v>Task</v>
+      </c>
+      <c r="B139" t="str">
+        <f>'Import from RTC'!F163</f>
+        <v>Add Scrollbar for long description</v>
+      </c>
+      <c r="C139" t="str">
+        <f>'Import from RTC'!G163</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E139">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>'Import from RTC'!A146</f>
+        <v>Task</v>
+      </c>
+      <c r="B140" t="str">
+        <f>'Import from RTC'!F164</f>
+        <v>Docents can delete subscribers</v>
+      </c>
+      <c r="C140" t="str">
+        <f>'Import from RTC'!G164</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>'Import from RTC'!A148</f>
+        <v>Task</v>
+      </c>
+      <c r="B141" t="str">
+        <f>'Import from RTC'!F166</f>
+        <v>Disable animation on progress bar</v>
+      </c>
+      <c r="C141" t="str">
+        <f>'Import from RTC'!G166</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D141">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>'Import from RTC'!A149</f>
+        <v>Task</v>
+      </c>
+      <c r="B142" t="str">
+        <f>'Import from RTC'!F167</f>
+        <v>Show full project description without scroller</v>
+      </c>
+      <c r="C142" t="str">
+        <f>'Import from RTC'!G167</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D142">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>'Import from RTC'!A150</f>
+        <v>Task</v>
+      </c>
+      <c r="B143" t="str">
+        <f>'Import from RTC'!F168</f>
+        <v>BackingPct not centered when &gt; 100</v>
+      </c>
+      <c r="C143" t="str">
+        <f>'Import from RTC'!G168</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D143">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>'Import from RTC'!A151</f>
+        <v>Task</v>
+      </c>
+      <c r="B144" t="str">
+        <f>'Import from RTC'!F169</f>
+        <v>Change background color to match selected menu item</v>
+      </c>
+      <c r="C144" t="str">
+        <f>'Import from RTC'!G169</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D144">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>'Import from RTC'!A153</f>
+        <v>Task</v>
+      </c>
+      <c r="B145" t="str">
+        <f>'Import from RTC'!F171</f>
+        <v>Left title should navigate to home page</v>
+      </c>
+      <c r="C145" t="str">
+        <f>'Import from RTC'!G171</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D145">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>'Import from RTC'!A154</f>
+        <v>Task</v>
+      </c>
+      <c r="B146" t="str">
+        <f>'Import from RTC'!F172</f>
+        <v>Possibility to delete a project comment</v>
+      </c>
+      <c r="C146" t="str">
+        <f>'Import from RTC'!G172</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D146">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>'Import from RTC'!A156</f>
+        <v>Task</v>
+      </c>
+      <c r="B147" t="str">
+        <f>'Import from RTC'!F174</f>
+        <v>About page not presentable</v>
+      </c>
+      <c r="C147" t="str">
+        <f>'Import from RTC'!G174</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D147">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>'Import from RTC'!A157</f>
+        <v>Task</v>
+      </c>
+      <c r="B148" t="str">
+        <f>'Import from RTC'!F175</f>
+        <v>Search by tag or keyword in one search box</v>
+      </c>
+      <c r="C148" t="str">
+        <f>'Import from RTC'!G175</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>'Import from RTC'!A158</f>
+        <v>Task</v>
+      </c>
+      <c r="B149" t="str">
+        <f>'Import from RTC'!F176</f>
+        <v>Category menuitem not showing 'active'</v>
+      </c>
+      <c r="C149" t="str">
+        <f>'Import from RTC'!G176</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>'Import from RTC'!A160</f>
+        <v>Task</v>
+      </c>
+      <c r="B150" t="str">
+        <f>'Import from RTC'!F178</f>
+        <v>Make project title bold</v>
+      </c>
+      <c r="C150" t="str">
+        <f>'Import from RTC'!G178</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E150">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>'Import from RTC'!A161</f>
+        <v>Task</v>
+      </c>
+      <c r="B151" t="str">
+        <f>'Import from RTC'!F179</f>
+        <v>Allow Back after 100%</v>
+      </c>
+      <c r="C151" t="str">
+        <f>'Import from RTC'!G179</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E151">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>'Import from RTC'!A162</f>
+        <v>Task</v>
+      </c>
+      <c r="B152" t="str">
+        <f>'Import from RTC'!F180</f>
+        <v>make public only when 100% backed</v>
+      </c>
+      <c r="C152" t="str">
+        <f>'Import from RTC'!G180</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E152">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>'Import from RTC'!A163</f>
+        <v>Task</v>
+      </c>
+      <c r="B153" t="str">
+        <f>'Import from RTC'!F181</f>
+        <v>Navigate to details on title click</v>
+      </c>
+      <c r="C153" t="str">
+        <f>'Import from RTC'!G181</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E153">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>'Import from RTC'!A164</f>
+        <v>Task</v>
+      </c>
+      <c r="B154" t="str">
+        <f>'Import from RTC'!F182</f>
+        <v>Text back &gt; steun(nl), support(en)</v>
+      </c>
+      <c r="C154" t="str">
+        <f>'Import from RTC'!G182</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E154">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>'Import from RTC'!A172</f>
+        <v>Task</v>
+      </c>
+      <c r="B155" t="str">
+        <f>'Import from RTC'!F190</f>
+        <v>Search on more fields</v>
+      </c>
+      <c r="C155" t="str">
+        <f>'Import from RTC'!G190</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E155">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>'Import from RTC'!A177</f>
+        <v>Task</v>
+      </c>
+      <c r="B156" t="str">
+        <f>'Import from RTC'!F195</f>
+        <v>Show favicon</v>
+      </c>
+      <c r="C156" t="str">
+        <f>'Import from RTC'!G195</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E156">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>'Import from RTC'!A178</f>
+        <v>Task</v>
+      </c>
+      <c r="B157" t="str">
+        <f>'Import from RTC'!F196</f>
+        <v>Model Validation</v>
+      </c>
+      <c r="C157" t="str">
+        <f>'Import from RTC'!G196</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>'Import from RTC'!A179</f>
+        <v>Task</v>
+      </c>
+      <c r="B158" t="str">
+        <f>'Import from RTC'!F197</f>
+        <v>Incorrect layout when adding items on new project page, especially on smaller screen sizes</v>
+      </c>
+      <c r="C158" t="str">
+        <f>'Import from RTC'!G197</f>
+        <v>Arjen Schuurman</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>'Import from RTC'!A180</f>
+        <v>Task</v>
+      </c>
+      <c r="B159" t="str">
+        <f>'Import from RTC'!F198</f>
+        <v>Add error toast for delete constraint by categories</v>
+      </c>
+      <c r="C159" t="str">
+        <f>'Import from RTC'!G198</f>
+        <v>Arjen Schuurman</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f>'Import from RTC'!A181</f>
+        <v>Task</v>
+      </c>
+      <c r="B160" t="str">
+        <f>'Import from RTC'!F199</f>
+        <v>Add Javadoc</v>
+      </c>
+      <c r="C160" t="str">
+        <f>'Import from RTC'!G199</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E160">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f>'Import from RTC'!A182</f>
+        <v>Task</v>
+      </c>
+      <c r="B161" t="str">
+        <f>'Import from RTC'!F200</f>
+        <v>Add duration options</v>
+      </c>
+      <c r="C161" t="str">
+        <f>'Import from RTC'!G200</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f>'Import from RTC'!A183</f>
+        <v>Task</v>
+      </c>
+      <c r="B162" t="str">
+        <f>'Import from RTC'!F201</f>
+        <v>Code convention adjustments</v>
+      </c>
+      <c r="C162" t="str">
+        <f>'Import from RTC'!G201</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E162">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f>'Import from RTC'!A184</f>
+        <v>Task</v>
+      </c>
+      <c r="B163" t="str">
+        <f>'Import from RTC'!F202</f>
+        <v>Order projects on number of likes</v>
+      </c>
+      <c r="C163" t="str">
+        <f>'Import from RTC'!G202</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E163">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="str">
+        <f>'Import from RTC'!F40</f>
+        <v>setup Eclipse with RTC</v>
+      </c>
+      <c r="C164" t="str">
+        <f>'Import from RTC'!G40</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="str">
+        <f>'Import from RTC'!F48</f>
+        <v>Docenten/studenten kunnen de pagina sorteren op basis van tags/likes</v>
+      </c>
+      <c r="C165" t="str">
+        <f>'Import from RTC'!G48</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="str">
+        <f>'Import from RTC'!F49</f>
+        <v>Studenten moeten projecten kunnen maken gerelateerd aan bepaalde categorieen</v>
+      </c>
+      <c r="C166" t="str">
+        <f>'Import from RTC'!G49</f>
+        <v>Unassigned</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="str">
+        <f>'Import from RTC'!F51</f>
+        <v>Klassediagrammen maken</v>
+      </c>
+      <c r="C167" t="str">
+        <f>'Import from RTC'!G51</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="str">
+        <f>'Import from RTC'!F53</f>
+        <v>Voorbereiding verdediging eindversie</v>
+      </c>
+      <c r="C168" t="str">
+        <f>'Import from RTC'!G53</f>
+        <v>Unassigned</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="str">
+        <f>'Import from RTC'!F58</f>
+        <v>ERD maken</v>
+      </c>
+      <c r="C169" t="str">
+        <f>'Import from RTC'!G58</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="str">
+        <f>'Import from RTC'!F59</f>
+        <v>Use case diagram studenten</v>
+      </c>
+      <c r="C170" t="str">
+        <f>'Import from RTC'!G59</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="str">
+        <f>'Import from RTC'!F60</f>
+        <v>Departement per student/docent toevoegen</v>
+      </c>
+      <c r="C171" t="str">
+        <f>'Import from RTC'!G60</f>
+        <v>Bart Hunerbein</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="str">
+        <f>'Import from RTC'!F61</f>
+        <v>Create DFDs</v>
+      </c>
+      <c r="C172" t="str">
+        <f>'Import from RTC'!G61</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="str">
+        <f>'Import from RTC'!F63</f>
+        <v>Create Domain Model</v>
+      </c>
+      <c r="C173" t="str">
+        <f>'Import from RTC'!G63</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="str">
+        <f>'Import from RTC'!F64</f>
+        <v>Create Activity Diagram</v>
+      </c>
+      <c r="C174" t="str">
+        <f>'Import from RTC'!G64</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="str">
+        <f>'Import from RTC'!F65</f>
+        <v>Create Class Diagram Domain</v>
+      </c>
+      <c r="C175" t="str">
+        <f>'Import from RTC'!G65</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="str">
+        <f>'Import from RTC'!F66</f>
+        <v>First project setup (Angular)</v>
+      </c>
+      <c r="C176" t="str">
+        <f>'Import from RTC'!G66</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="str">
+        <f>'Import from RTC'!F67</f>
+        <v>Testing Angular</v>
+      </c>
+      <c r="C177" t="str">
+        <f>'Import from RTC'!G67</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="str">
+        <f>'Import from RTC'!F68</f>
+        <v>Implement model</v>
+      </c>
+      <c r="C178" t="str">
+        <f>'Import from RTC'!G68</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="str">
+        <f>'Import from RTC'!F69</f>
+        <v>Test Model</v>
+      </c>
+      <c r="C179" t="str">
+        <f>'Import from RTC'!G69</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="str">
+        <f>'Import from RTC'!F70</f>
+        <v>Implement Services</v>
+      </c>
+      <c r="C180" t="str">
+        <f>'Import from RTC'!G70</f>
+        <v>Jesse Vranken</v>
+      </c>
+      <c r="E180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="str">
+        <f>'Import from RTC'!F71</f>
+        <v>Create Project list</v>
+      </c>
+      <c r="C181" t="str">
+        <f>'Import from RTC'!G71</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="str">
+        <f>'Import from RTC'!F72</f>
+        <v>Automate MySQL entries on table-creation</v>
+      </c>
+      <c r="C182" t="str">
+        <f>'Import from RTC'!G72</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="str">
+        <f>'Import from RTC'!F73</f>
+        <v>RestControllers unavailable after implementing JpaRepository</v>
+      </c>
+      <c r="C183" t="str">
+        <f>'Import from RTC'!G73</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="str">
+        <f>'Import from RTC'!F74</f>
+        <v>Configure MySQL Database</v>
+      </c>
+      <c r="C184" t="str">
+        <f>'Import from RTC'!G74</f>
+        <v>Niek Vandael</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="str">
+        <f>'Import from RTC'!F78</f>
+        <v>Spring-boot setup and configuration</v>
+      </c>
+      <c r="C185" t="str">
+        <f>'Import from RTC'!G78</f>
+        <v>Dennie Grondelaers</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="str">
         <f>'Import from RTC'!F33</f>
         <v>Testen van de deliveries</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C186" t="str">
         <f>'Import from RTC'!G33</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D41">
+      <c r="D186">
         <v>5</v>
       </c>
-      <c r="E41">
+      <c r="E186">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>'Import from RTC'!A28</f>
-        <v>Story</v>
-      </c>
-      <c r="B42" t="str">
-        <f>'Import from RTC'!F40</f>
-        <v>setup Eclipse with RTC</v>
-      </c>
-      <c r="C42" t="str">
-        <f>'Import from RTC'!G40</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>'Import from RTC'!A35</f>
-        <v>Story</v>
-      </c>
-      <c r="B43" t="str">
-        <f>'Import from RTC'!F48</f>
-        <v>Docenten/studenten kunnen de pagina sorteren op basis van tags/likes</v>
-      </c>
-      <c r="C43" t="str">
-        <f>'Import from RTC'!G48</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>'Import from RTC'!A36</f>
-        <v>Story</v>
-      </c>
-      <c r="B44" t="str">
-        <f>'Import from RTC'!F49</f>
-        <v>Studenten moeten projecten kunnen maken gerelateerd aan bepaalde categorieen</v>
-      </c>
-      <c r="C44" t="str">
-        <f>'Import from RTC'!G49</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>'Import from RTC'!A37</f>
-        <v>Story</v>
-      </c>
-      <c r="B45" t="str">
-        <f>'Import from RTC'!F51</f>
-        <v>Klassediagrammen maken</v>
-      </c>
-      <c r="C45" t="str">
-        <f>'Import from RTC'!G51</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>'Import from RTC'!A38</f>
-        <v>Story</v>
-      </c>
-      <c r="B46" t="str">
-        <f>'Import from RTC'!F53</f>
-        <v>Voorbereiding verdediging eindversie</v>
-      </c>
-      <c r="C46" t="str">
-        <f>'Import from RTC'!G53</f>
-        <v>Unassigned</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>'Import from RTC'!A41</f>
-        <v>Story</v>
-      </c>
-      <c r="B47" t="str">
-        <f>'Import from RTC'!F58</f>
-        <v>ERD maken</v>
-      </c>
-      <c r="C47" t="str">
-        <f>'Import from RTC'!G58</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>'Import from RTC'!A42</f>
-        <v>Story</v>
-      </c>
-      <c r="B48" t="str">
-        <f>'Import from RTC'!F59</f>
-        <v>Use case diagram studenten</v>
-      </c>
-      <c r="C48" t="str">
-        <f>'Import from RTC'!G59</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>'Import from RTC'!A43</f>
-        <v>Story</v>
-      </c>
-      <c r="B49" t="str">
-        <f>'Import from RTC'!F60</f>
-        <v>Departement per student/docent toevoegen</v>
-      </c>
-      <c r="C49" t="str">
-        <f>'Import from RTC'!G60</f>
-        <v>Bart Hunerbein</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>'Import from RTC'!A44</f>
-        <v>Story</v>
-      </c>
-      <c r="B50" t="str">
-        <f>'Import from RTC'!F61</f>
-        <v>Create DFDs</v>
-      </c>
-      <c r="C50" t="str">
-        <f>'Import from RTC'!G61</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>'Import from RTC'!A45</f>
-        <v>Story</v>
-      </c>
-      <c r="B51" t="str">
-        <f>'Import from RTC'!F63</f>
-        <v>Create Domain Model</v>
-      </c>
-      <c r="C51" t="str">
-        <f>'Import from RTC'!G63</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>'Import from RTC'!A46</f>
-        <v>Story</v>
-      </c>
-      <c r="B52" t="str">
-        <f>'Import from RTC'!F64</f>
-        <v>Create Activity Diagram</v>
-      </c>
-      <c r="C52" t="str">
-        <f>'Import from RTC'!G64</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>'Import from RTC'!A47</f>
-        <v>Story</v>
-      </c>
-      <c r="B53" t="str">
-        <f>'Import from RTC'!F65</f>
-        <v>Create Class Diagram Domain</v>
-      </c>
-      <c r="C53" t="str">
-        <f>'Import from RTC'!G65</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>'Import from RTC'!A48</f>
-        <v>Story</v>
-      </c>
-      <c r="B54" t="str">
-        <f>'Import from RTC'!F66</f>
-        <v>First project setup (Angular)</v>
-      </c>
-      <c r="C54" t="str">
-        <f>'Import from RTC'!G66</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>'Import from RTC'!A49</f>
-        <v>Story</v>
-      </c>
-      <c r="B55" t="str">
-        <f>'Import from RTC'!F67</f>
-        <v>Testing Angular</v>
-      </c>
-      <c r="C55" t="str">
-        <f>'Import from RTC'!G67</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f>'Import from RTC'!A50</f>
-        <v>Story</v>
-      </c>
-      <c r="B56" t="str">
-        <f>'Import from RTC'!F68</f>
-        <v>Implement model</v>
-      </c>
-      <c r="C56" t="str">
-        <f>'Import from RTC'!G68</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f>'Import from RTC'!A51</f>
-        <v>Story</v>
-      </c>
-      <c r="B57" t="str">
-        <f>'Import from RTC'!F69</f>
-        <v>Test Model</v>
-      </c>
-      <c r="C57" t="str">
-        <f>'Import from RTC'!G69</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f>'Import from RTC'!A52</f>
-        <v>Story</v>
-      </c>
-      <c r="B58" t="str">
-        <f>'Import from RTC'!F70</f>
-        <v>Implement Services</v>
-      </c>
-      <c r="C58" t="str">
-        <f>'Import from RTC'!G70</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f>'Import from RTC'!A53</f>
-        <v>Story</v>
-      </c>
-      <c r="B59" t="str">
-        <f>'Import from RTC'!F71</f>
-        <v>Create Project list</v>
-      </c>
-      <c r="C59" t="str">
-        <f>'Import from RTC'!G71</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f>'Import from RTC'!A54</f>
-        <v>Story</v>
-      </c>
-      <c r="B60" t="str">
-        <f>'Import from RTC'!F72</f>
-        <v>Automate MySQL entries on table-creation</v>
-      </c>
-      <c r="C60" t="str">
-        <f>'Import from RTC'!G72</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f>'Import from RTC'!A55</f>
-        <v>Story</v>
-      </c>
-      <c r="B61" t="str">
-        <f>'Import from RTC'!F73</f>
-        <v>RestControllers unavailable after implementing JpaRepository</v>
-      </c>
-      <c r="C61" t="str">
-        <f>'Import from RTC'!G73</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f>'Import from RTC'!A56</f>
-        <v>Story</v>
-      </c>
-      <c r="B62" t="str">
-        <f>'Import from RTC'!F74</f>
-        <v>Configure MySQL Database</v>
-      </c>
-      <c r="C62" t="str">
-        <f>'Import from RTC'!G74</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f>'Import from RTC'!A60</f>
-        <v>Story</v>
-      </c>
-      <c r="B63" t="str">
-        <f>'Import from RTC'!F78</f>
-        <v>Spring-boot setup and configuration</v>
-      </c>
-      <c r="C63" t="str">
-        <f>'Import from RTC'!G78</f>
-        <v>Dennie Grondelaers</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="190" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="2">
-        <f>SUM(D41:D63)</f>
-        <v>43</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" ref="E65:H65" si="1">SUM(E41:E63)</f>
+      <c r="D190" s="2">
+        <f>SUM(D41:D189)</f>
+        <v>163.1</v>
+      </c>
+      <c r="E190" s="2">
+        <f>SUM(E41:E189)</f>
+        <v>181.25</v>
+      </c>
+      <c r="F190" s="2">
+        <f>SUM(F41:F189)</f>
+        <v>44</v>
+      </c>
+      <c r="G190" s="2">
+        <f>SUM(G41:G189)</f>
         <v>55</v>
       </c>
-      <c r="F65" s="2">
+      <c r="H190" s="2">
+        <f>SUM(H41:H189)</f>
+        <v>22</v>
+      </c>
+      <c r="I190">
+        <f>SUM(D190:H190)</f>
+        <v>465.35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D194" s="2">
+        <f>D190+D38</f>
+        <v>173.6</v>
+      </c>
+      <c r="E194" s="2">
+        <f t="shared" ref="E194:I194" si="1">E190+E38</f>
+        <v>190.75</v>
+      </c>
+      <c r="F194" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G65" s="2">
+        <v>44</v>
+      </c>
+      <c r="G194" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H65" s="2">
+        <v>55</v>
+      </c>
+      <c r="H194" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I65" s="6">
-        <f>SUM(D65:H65)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f>'Import from RTC'!A2</f>
-        <v>Task</v>
-      </c>
-      <c r="B67" t="str">
-        <f>'Import from RTC'!F2</f>
-        <v>Define a new build</v>
-      </c>
-      <c r="C67" t="str">
-        <f>'Import from RTC'!G2</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f>'Import from RTC'!A3</f>
-        <v>Task</v>
-      </c>
-      <c r="B68" t="str">
-        <f>'Import from RTC'!F3</f>
-        <v>Share code with Jazz Source Control</v>
-      </c>
-      <c r="C68" t="str">
-        <f>'Import from RTC'!G3</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f>'Import from RTC'!A4</f>
-        <v>Task</v>
-      </c>
-      <c r="B69" t="str">
-        <f>'Import from RTC'!F4</f>
-        <v>Define sprints/iterations</v>
-      </c>
-      <c r="C69" t="str">
-        <f>'Import from RTC'!G4</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f>'Import from RTC'!A5</f>
-        <v>Task</v>
-      </c>
-      <c r="B70" t="str">
-        <f>'Import from RTC'!F5</f>
-        <v>Define categories and releases for work items</v>
-      </c>
-      <c r="C70" t="str">
-        <f>'Import from RTC'!G5</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f>'Import from RTC'!A6</f>
-        <v>Task</v>
-      </c>
-      <c r="B71" t="str">
-        <f>'Import from RTC'!F6</f>
-        <v>Define team members</v>
-      </c>
-      <c r="C71" t="str">
-        <f>'Import from RTC'!G6</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D71">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f>'Import from RTC'!A7</f>
-        <v>Task</v>
-      </c>
-      <c r="B72" t="str">
-        <f>'Import from RTC'!F7</f>
-        <v>Define permissions</v>
-      </c>
-      <c r="C72" t="str">
-        <f>'Import from RTC'!G7</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f>'Import from RTC'!A8</f>
-        <v>Task</v>
-      </c>
-      <c r="B73" t="str">
-        <f>'Import from RTC'!F8</f>
-        <v>Setup RTC</v>
-      </c>
-      <c r="C73" t="str">
-        <f>'Import from RTC'!G8</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f>'Import from RTC'!A10</f>
-        <v>Task</v>
-      </c>
-      <c r="B74" t="str">
-        <f>'Import from RTC'!F10</f>
-        <v>Share initial code</v>
-      </c>
-      <c r="C74" t="str">
-        <f>'Import from RTC'!G10</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f>'Import from RTC'!A11</f>
-        <v>Task</v>
-      </c>
-      <c r="B75" t="str">
-        <f>'Import from RTC'!F11</f>
-        <v>Setup Openshift Server</v>
-      </c>
-      <c r="C75" t="str">
-        <f>'Import from RTC'!G11</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="E75">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
-        <f>'Import from RTC'!A12</f>
-        <v>Task</v>
-      </c>
-      <c r="B76" t="str">
-        <f>'Import from RTC'!F12</f>
-        <v>RTC Testing</v>
-      </c>
-      <c r="C76" t="str">
-        <f>'Import from RTC'!G12</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
-        <f>'Import from RTC'!A13</f>
-        <v>Task</v>
-      </c>
-      <c r="B77" t="str">
-        <f>'Import from RTC'!F13</f>
-        <v>Enable Jenkins</v>
-      </c>
-      <c r="C77" t="str">
-        <f>'Import from RTC'!G13</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
-        <f>'Import from RTC'!A14</f>
-        <v>Task</v>
-      </c>
-      <c r="B78" t="str">
-        <f>'Import from RTC'!F23</f>
-        <v>Create Analisis</v>
-      </c>
-      <c r="C78" t="str">
-        <f>'Import from RTC'!G23</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78">
-        <v>10</v>
-      </c>
-      <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-      <c r="H78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f>'Import from RTC'!A15</f>
-        <v>Task</v>
-      </c>
-      <c r="B79" t="str">
-        <f>'Import from RTC'!F24</f>
-        <v>Analyse login</v>
-      </c>
-      <c r="C79" t="str">
-        <f>'Import from RTC'!G24</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="F79">
-        <v>5</v>
-      </c>
-      <c r="G79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
-        <f>'Import from RTC'!A16</f>
-        <v>Task</v>
-      </c>
-      <c r="B80" t="str">
-        <f>'Import from RTC'!F25</f>
-        <v>Analyse projects</v>
-      </c>
-      <c r="C80" t="str">
-        <f>'Import from RTC'!G25</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f>'Import from RTC'!A17</f>
-        <v>Task</v>
-      </c>
-      <c r="B81" t="str">
-        <f>'Import from RTC'!F26</f>
-        <v>Analyse subscribers</v>
-      </c>
-      <c r="C81" t="str">
-        <f>'Import from RTC'!G26</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="E81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f>'Import from RTC'!A18</f>
-        <v>Task</v>
-      </c>
-      <c r="B82" t="str">
-        <f>'Import from RTC'!F27</f>
-        <v>Set Up Project Structure</v>
-      </c>
-      <c r="C82" t="str">
-        <f>'Import from RTC'!G27</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E82">
-        <v>3</v>
-      </c>
-      <c r="F82">
-        <v>5</v>
-      </c>
-      <c r="G82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
-        <f>'Import from RTC'!A20</f>
-        <v>Task</v>
-      </c>
-      <c r="B83" t="str">
-        <f>'Import from RTC'!F30</f>
-        <v>Vereisten verzamelen</v>
-      </c>
-      <c r="C83" t="str">
-        <f>'Import from RTC'!G30</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f>'Import from RTC'!A21</f>
-        <v>Task</v>
-      </c>
-      <c r="B84" t="str">
-        <f>'Import from RTC'!F31</f>
-        <v>Plan van aanpak</v>
-      </c>
-      <c r="C84" t="str">
-        <f>'Import from RTC'!G31</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="E84">
-        <v>5</v>
-      </c>
-      <c r="F84">
-        <v>8</v>
-      </c>
-      <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f>'Import from RTC'!A22</f>
-        <v>Task</v>
-      </c>
-      <c r="B85" t="str">
-        <f>'Import from RTC'!F32</f>
-        <v>Create Use Cases Diagram</v>
-      </c>
-      <c r="C85" t="str">
-        <f>'Import from RTC'!G32</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D85">
-        <v>10</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f>'Import from RTC'!A24</f>
-        <v>Task</v>
-      </c>
-      <c r="B86" t="str">
-        <f>'Import from RTC'!F34</f>
-        <v>RTC setup development environment documentje maken</v>
-      </c>
-      <c r="C86" t="str">
-        <f>'Import from RTC'!G34</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f>'Import from RTC'!A25</f>
-        <v>Task</v>
-      </c>
-      <c r="B87" t="str">
-        <f>'Import from RTC'!F35</f>
-        <v>Setup development environment</v>
-      </c>
-      <c r="C87" t="str">
-        <f>'Import from RTC'!G35</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f>'Import from RTC'!A26</f>
-        <v>Task</v>
-      </c>
-      <c r="B88" t="str">
-        <f>'Import from RTC'!F37</f>
-        <v>Requirements opstellen</v>
-      </c>
-      <c r="C88" t="str">
-        <f>'Import from RTC'!G37</f>
-        <v>Arjen Schuurman</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
-        <f>'Import from RTC'!A27</f>
-        <v>Task</v>
-      </c>
-      <c r="B89" t="str">
-        <f>'Import from RTC'!F38</f>
-        <v>Studenten en docenten moeten inloggen alvorens de applicatie te kunnen gebruiken</v>
-      </c>
-      <c r="C89" t="str">
-        <f>'Import from RTC'!G38</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f>'Import from RTC'!A29</f>
-        <v>Task</v>
-      </c>
-      <c r="B90" t="str">
-        <f>'Import from RTC'!F41</f>
-        <v>Studenten kunnen projecten liken</v>
-      </c>
-      <c r="C90" t="str">
-        <f>'Import from RTC'!G41</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
-        <f>'Import from RTC'!A30</f>
-        <v>Task</v>
-      </c>
-      <c r="B91" t="str">
-        <f>'Import from RTC'!F42</f>
-        <v>Studenten kunnen op projecten inschrijven</v>
-      </c>
-      <c r="C91" t="str">
-        <f>'Import from RTC'!G42</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="E91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
-        <f>'Import from RTC'!A31</f>
-        <v>Task</v>
-      </c>
-      <c r="B92" t="str">
-        <f>'Import from RTC'!F43</f>
-        <v>Docenten kunnen op projecten intekenen</v>
-      </c>
-      <c r="C92" t="str">
-        <f>'Import from RTC'!G43</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
-        <f>'Import from RTC'!A33</f>
-        <v>Task</v>
-      </c>
-      <c r="B93" t="str">
-        <f>'Import from RTC'!F46</f>
-        <v>Technische details zoals video en foto-hosting uitzoeken</v>
-      </c>
-      <c r="C93" t="str">
-        <f>'Import from RTC'!G46</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
-        <f>'Import from RTC'!A34</f>
-        <v>Task</v>
-      </c>
-      <c r="B94" t="str">
-        <f>'Import from RTC'!F47</f>
-        <v>Mockups maken</v>
-      </c>
-      <c r="C94" t="str">
-        <f>'Import from RTC'!G47</f>
-        <v>Bart Hunerbein</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
-        <f>'Import from RTC'!A39</f>
-        <v>Task</v>
-      </c>
-      <c r="B95" t="str">
-        <f>'Import from RTC'!F54</f>
-        <v>Voorbereiding presentatie (engels)</v>
-      </c>
-      <c r="C95" t="str">
-        <f>'Import from RTC'!G54</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
-        <f>'Import from RTC'!A40</f>
-        <v>Task</v>
-      </c>
-      <c r="B96" t="str">
-        <f>'Import from RTC'!F57</f>
-        <v>backend uitwerken</v>
-      </c>
-      <c r="C96" t="str">
-        <f>'Import from RTC'!G57</f>
-        <v>Unassigned</v>
-      </c>
-      <c r="E96">
-        <v>10</v>
-      </c>
-      <c r="G96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
-        <f>'Import from RTC'!A57</f>
-        <v>Task</v>
-      </c>
-      <c r="B97" t="str">
-        <f>'Import from RTC'!F75</f>
-        <v>Openshift does not build anymore</v>
-      </c>
-      <c r="C97" t="str">
-        <f>'Import from RTC'!G75</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
-        <f>'Import from RTC'!A58</f>
-        <v>Task</v>
-      </c>
-      <c r="B98" t="str">
-        <f>'Import from RTC'!F76</f>
-        <v>Angular - Implement Likes</v>
-      </c>
-      <c r="C98" t="str">
-        <f>'Import from RTC'!G76</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
-        <f>'Import from RTC'!A59</f>
-        <v>Task</v>
-      </c>
-      <c r="B99" t="str">
-        <f>'Import from RTC'!F77</f>
-        <v>Toggle likes for a project</v>
-      </c>
-      <c r="C99" t="str">
-        <f>'Import from RTC'!G77</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
-        <f>'Import from RTC'!A61</f>
-        <v>Task</v>
-      </c>
-      <c r="B100" t="str">
-        <f>'Import from RTC'!F79</f>
-        <v>Angular - Implement Project Service</v>
-      </c>
-      <c r="C100" t="str">
-        <f>'Import from RTC'!G79</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
-        <f>'Import from RTC'!A62</f>
-        <v>Task</v>
-      </c>
-      <c r="B101" t="str">
-        <f>'Import from RTC'!F80</f>
-        <v>English presentation</v>
-      </c>
-      <c r="C101" t="str">
-        <f>'Import from RTC'!G80</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
-        <f>'Import from RTC'!A63</f>
-        <v>Task</v>
-      </c>
-      <c r="B102" t="str">
-        <f>'Import from RTC'!F81</f>
-        <v>Spring - Implement Subscriber Student Service</v>
-      </c>
-      <c r="C102" t="str">
-        <f>'Import from RTC'!G81</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
-        <f>'Import from RTC'!A64</f>
-        <v>Task</v>
-      </c>
-      <c r="B103" t="str">
-        <f>'Import from RTC'!F82</f>
-        <v>Angular - Implement Subscriber Student Service</v>
-      </c>
-      <c r="C103" t="str">
-        <f>'Import from RTC'!G82</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
-        <f>'Import from RTC'!A65</f>
-        <v>Task</v>
-      </c>
-      <c r="B104" t="str">
-        <f>'Import from RTC'!F83</f>
-        <v>Spring - Implement Subscriber Docent Service</v>
-      </c>
-      <c r="C104" t="str">
-        <f>'Import from RTC'!G83</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
-        <f>'Import from RTC'!A66</f>
-        <v>Task</v>
-      </c>
-      <c r="B105" t="str">
-        <f>'Import from RTC'!F84</f>
-        <v>MySql timeout after 8 hours</v>
-      </c>
-      <c r="C105" t="str">
-        <f>'Import from RTC'!G84</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
-        <f>'Import from RTC'!A67</f>
-        <v>Task</v>
-      </c>
-      <c r="B106" t="str">
-        <f>'Import from RTC'!F85</f>
-        <v>Security setup</v>
-      </c>
-      <c r="C106" t="str">
-        <f>'Import from RTC'!G85</f>
-        <v>Dennie Grondelaers</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
-        <f>'Import from RTC'!A68</f>
-        <v>Task</v>
-      </c>
-      <c r="B107" t="str">
-        <f>'Import from RTC'!F86</f>
-        <v>Create category screen</v>
-      </c>
-      <c r="C107" t="str">
-        <f>'Import from RTC'!G86</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
-        <f>'Import from RTC'!A69</f>
-        <v>Task</v>
-      </c>
-      <c r="B108" t="str">
-        <f>'Import from RTC'!F87</f>
-        <v>Security - Autowiring Error</v>
-      </c>
-      <c r="C108" t="str">
-        <f>'Import from RTC'!G87</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E108">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
-        <f>'Import from RTC'!A70</f>
-        <v>Task</v>
-      </c>
-      <c r="B109" t="str">
-        <f>'Import from RTC'!F88</f>
-        <v>Save youtube videos on project</v>
-      </c>
-      <c r="C109" t="str">
-        <f>'Import from RTC'!G88</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
-        <f>'Import from RTC'!A71</f>
-        <v>Task</v>
-      </c>
-      <c r="B110" t="str">
-        <f>'Import from RTC'!F89</f>
-        <v>Add pictures on project</v>
-      </c>
-      <c r="C110" t="str">
-        <f>'Import from RTC'!G89</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
-        <f>'Import from RTC'!A72</f>
-        <v>Task</v>
-      </c>
-      <c r="B111" t="str">
-        <f>'Import from RTC'!F90</f>
-        <v>Enable update for projects</v>
-      </c>
-      <c r="C111" t="str">
-        <f>'Import from RTC'!G90</f>
-        <v>Arjen Schuurman</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
-        <f>'Import from RTC'!A74</f>
-        <v>Task</v>
-      </c>
-      <c r="B112" t="str">
-        <f>'Import from RTC'!F92</f>
-        <v>Add milestones to project</v>
-      </c>
-      <c r="C112" t="str">
-        <f>'Import from RTC'!G92</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
-        <f>'Import from RTC'!A76</f>
-        <v>Task</v>
-      </c>
-      <c r="B113" t="str">
-        <f>'Import from RTC'!F94</f>
-        <v xml:space="preserve">Create department list </v>
-      </c>
-      <c r="C113" t="str">
-        <f>'Import from RTC'!G94</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
-        <f>'Import from RTC'!A77</f>
-        <v>Task</v>
-      </c>
-      <c r="B114" t="str">
-        <f>'Import from RTC'!F95</f>
-        <v>Add wanted-subscribers to project</v>
-      </c>
-      <c r="C114" t="str">
-        <f>'Import from RTC'!G95</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
-        <f>'Import from RTC'!A78</f>
-        <v>Task</v>
-      </c>
-      <c r="B115" t="str">
-        <f>'Import from RTC'!F96</f>
-        <v>Angular - Implement Subscriber Docent Service</v>
-      </c>
-      <c r="C115" t="str">
-        <f>'Import from RTC'!G96</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
-        <f>'Import from RTC'!A79</f>
-        <v>Task</v>
-      </c>
-      <c r="B116" t="str">
-        <f>'Import from RTC'!F97</f>
-        <v>Prezis toevoegen aan het project</v>
-      </c>
-      <c r="C116" t="str">
-        <f>'Import from RTC'!G97</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E116">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
-        <f>'Import from RTC'!A80</f>
-        <v>Task</v>
-      </c>
-      <c r="B117" t="str">
-        <f>'Import from RTC'!F98</f>
-        <v>Search functionality (angular)</v>
-      </c>
-      <c r="C117" t="str">
-        <f>'Import from RTC'!G98</f>
-        <v>Bart Hunerbein</v>
-      </c>
-      <c r="H117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
-        <f>'Import from RTC'!A81</f>
-        <v>Task</v>
-      </c>
-      <c r="B118" t="str">
-        <f>'Import from RTC'!F99</f>
-        <v>Online bestanden toevoegen aan het project</v>
-      </c>
-      <c r="C118" t="str">
-        <f>'Import from RTC'!G99</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
-        <f>'Import from RTC'!A82</f>
-        <v>Task</v>
-      </c>
-      <c r="B119" t="str">
-        <f>'Import from RTC'!F100</f>
-        <v>JSTD syntax error in eclipse</v>
-      </c>
-      <c r="C119" t="str">
-        <f>'Import from RTC'!G100</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D119">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
-        <f>'Import from RTC'!A83</f>
-        <v>Task</v>
-      </c>
-      <c r="B120" t="str">
-        <f>'Import from RTC'!F101</f>
-        <v>Compress pictures</v>
-      </c>
-      <c r="C120" t="str">
-        <f>'Import from RTC'!G101</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
-        <f>'Import from RTC'!A85</f>
-        <v>Task</v>
-      </c>
-      <c r="B121" t="str">
-        <f>'Import from RTC'!F103</f>
-        <v>Filter projects by category</v>
-      </c>
-      <c r="C121" t="str">
-        <f>'Import from RTC'!G103</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
-        <f>'Import from RTC'!A86</f>
-        <v>Task</v>
-      </c>
-      <c r="B122" t="str">
-        <f>'Import from RTC'!F104</f>
-        <v>Form submits when not valid (new project)</v>
-      </c>
-      <c r="C122" t="str">
-        <f>'Import from RTC'!G104</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
-        <f>'Import from RTC'!A88</f>
-        <v>Task</v>
-      </c>
-      <c r="B123" t="str">
-        <f>'Import from RTC'!F106</f>
-        <v>Deleting category does not show errormessage</v>
-      </c>
-      <c r="C123" t="str">
-        <f>'Import from RTC'!G106</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D123">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
-        <f>'Import from RTC'!A89</f>
-        <v>Task</v>
-      </c>
-      <c r="B124" t="str">
-        <f>'Import from RTC'!F107</f>
-        <v>Missing menu item 'New project'</v>
-      </c>
-      <c r="C124" t="str">
-        <f>'Import from RTC'!G107</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D124">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
-        <f>'Import from RTC'!A90</f>
-        <v>Task</v>
-      </c>
-      <c r="B125" t="str">
-        <f>'Import from RTC'!F108</f>
-        <v>Create domain model</v>
-      </c>
-      <c r="C125" t="str">
-        <f>'Import from RTC'!G108</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f>'Import from RTC'!A91</f>
-        <v>Task</v>
-      </c>
-      <c r="B126" t="str">
-        <f>'Import from RTC'!F109</f>
-        <v>Disable like when not authenticated</v>
-      </c>
-      <c r="C126" t="str">
-        <f>'Import from RTC'!G109</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D126">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
-        <f>'Import from RTC'!A92</f>
-        <v>Task</v>
-      </c>
-      <c r="B127" t="str">
-        <f>'Import from RTC'!F110</f>
-        <v>Layout myProject Page</v>
-      </c>
-      <c r="C127" t="str">
-        <f>'Import from RTC'!G110</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
-        <f>'Import from RTC'!A93</f>
-        <v>Task</v>
-      </c>
-      <c r="B128" t="str">
-        <f>'Import from RTC'!F111</f>
-        <v>Add Background</v>
-      </c>
-      <c r="C128" t="str">
-        <f>'Import from RTC'!G111</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E128">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f>'Import from RTC'!A94</f>
-        <v>Task</v>
-      </c>
-      <c r="B129" t="str">
-        <f>'Import from RTC'!F112</f>
-        <v>Layout home pagina</v>
-      </c>
-      <c r="C129" t="str">
-        <f>'Import from RTC'!G112</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E129">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
-        <f>'Import from RTC'!A95</f>
-        <v>Task</v>
-      </c>
-      <c r="B130" t="str">
-        <f>'Import from RTC'!F113</f>
-        <v>Add domain to projects</v>
-      </c>
-      <c r="C130" t="str">
-        <f>'Import from RTC'!G113</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f>'Import from RTC'!A96</f>
-        <v>Task</v>
-      </c>
-      <c r="B131" t="str">
-        <f>'Import from RTC'!F114</f>
-        <v>Remove comic sans font.</v>
-      </c>
-      <c r="C131" t="str">
-        <f>'Import from RTC'!G114</f>
-        <v>Arjen Schuurman</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f>'Import from RTC'!A97</f>
-        <v>Task</v>
-      </c>
-      <c r="B132" t="str">
-        <f>'Import from RTC'!F115</f>
-        <v>Guests cannot view project details</v>
-      </c>
-      <c r="C132" t="str">
-        <f>'Import from RTC'!G115</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
-        <f>'Import from RTC'!A98</f>
-        <v>Task</v>
-      </c>
-      <c r="B133" t="str">
-        <f>'Import from RTC'!F116</f>
-        <v>Align subscripe/backup row, move to detail project page.</v>
-      </c>
-      <c r="C133" t="str">
-        <f>'Import from RTC'!G116</f>
-        <v>Arjen Schuurman</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
-        <f>'Import from RTC'!A99</f>
-        <v>Task</v>
-      </c>
-      <c r="B134" s="5" t="str">
-        <f>'Import from RTC'!F117</f>
-        <v>Plan van aanpak: Quality assurance</v>
-      </c>
-      <c r="C134" s="5" t="str">
-        <f>'Import from RTC'!G117</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D134" s="5">
-        <v>5</v>
-      </c>
-      <c r="E134" s="5">
-        <v>3</v>
-      </c>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
-        <f>'Import from RTC'!A101</f>
-        <v>Task</v>
-      </c>
-      <c r="B135" t="str">
-        <f>'Import from RTC'!F119</f>
-        <v>Tag projects (multiple categories per project)</v>
-      </c>
-      <c r="C135" t="str">
-        <f>'Import from RTC'!G119</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="str">
-        <f>'Import from RTC'!A102</f>
-        <v>Task</v>
-      </c>
-      <c r="B136" t="str">
-        <f>'Import from RTC'!F120</f>
-        <v>Create FIT criteria</v>
-      </c>
-      <c r="C136" t="str">
-        <f>'Import from RTC'!G120</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="str">
-        <f>'Import from RTC'!A103</f>
-        <v>Task</v>
-      </c>
-      <c r="B137" t="str">
-        <f>'Import from RTC'!F121</f>
-        <v>Docenten kunnen filteren op niet-gebackte projecten</v>
-      </c>
-      <c r="C137" t="str">
-        <f>'Import from RTC'!G121</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
-        <f>'Import from RTC'!A108</f>
-        <v>Task</v>
-      </c>
-      <c r="B138" t="str">
-        <f>'Import from RTC'!F126</f>
-        <v>Bugfix subscribe/back project</v>
-      </c>
-      <c r="C138" t="str">
-        <f>'Import from RTC'!G126</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
-        <f>'Import from RTC'!A110</f>
-        <v>Task</v>
-      </c>
-      <c r="B139" t="str">
-        <f>'Import from RTC'!F128</f>
-        <v>Only show Student Subscribe when possible</v>
-      </c>
-      <c r="C139" t="str">
-        <f>'Import from RTC'!G128</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E139">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
-        <f>'Import from RTC'!A111</f>
-        <v>Task</v>
-      </c>
-      <c r="B140" t="str">
-        <f>'Import from RTC'!F129</f>
-        <v>Layout Language Select</v>
-      </c>
-      <c r="C140" t="str">
-        <f>'Import from RTC'!G129</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E140">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
-        <f>'Import from RTC'!A112</f>
-        <v>Task</v>
-      </c>
-      <c r="B141" t="str">
-        <f>'Import from RTC'!F130</f>
-        <v>Layout Login Button</v>
-      </c>
-      <c r="C141" t="str">
-        <f>'Import from RTC'!G130</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E141">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
-        <f>'Import from RTC'!A113</f>
-        <v>Task</v>
-      </c>
-      <c r="B142" t="str">
-        <f>'Import from RTC'!F131</f>
-        <v>Layout - Adding All Caps for titles and subtitles</v>
-      </c>
-      <c r="C142" t="str">
-        <f>'Import from RTC'!G131</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E142">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
-        <f>'Import from RTC'!A114</f>
-        <v>Task</v>
-      </c>
-      <c r="B143" t="str">
-        <f>'Import from RTC'!F132</f>
-        <v>Bugfix - Title not showing in public list</v>
-      </c>
-      <c r="C143" t="str">
-        <f>'Import from RTC'!G132</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E143">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
-        <f>'Import from RTC'!A116</f>
-        <v>Task</v>
-      </c>
-      <c r="B144" t="str">
-        <f>'Import from RTC'!F134</f>
-        <v>Session lost after refresh</v>
-      </c>
-      <c r="C144" t="str">
-        <f>'Import from RTC'!G134</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
-        <f>'Import from RTC'!A117</f>
-        <v>Task</v>
-      </c>
-      <c r="B145" t="str">
-        <f>'Import from RTC'!F135</f>
-        <v>Bugfix Delete Media</v>
-      </c>
-      <c r="C145" t="str">
-        <f>'Import from RTC'!G135</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E145">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
-        <f>'Import from RTC'!A118</f>
-        <v>Task</v>
-      </c>
-      <c r="B146" t="str">
-        <f>'Import from RTC'!F136</f>
-        <v>Only show docent back when possible</v>
-      </c>
-      <c r="C146" t="str">
-        <f>'Import from RTC'!G136</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E146">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
-        <f>'Import from RTC'!A119</f>
-        <v>Task</v>
-      </c>
-      <c r="B147" t="str">
-        <f>'Import from RTC'!F137</f>
-        <v>Bugfix - import sql</v>
-      </c>
-      <c r="C147" t="str">
-        <f>'Import from RTC'!G137</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E147">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
-        <f>'Import from RTC'!A120</f>
-        <v>Task</v>
-      </c>
-      <c r="B148" t="str">
-        <f>'Import from RTC'!F138</f>
-        <v>Show Docent backed projects in myprojects</v>
-      </c>
-      <c r="C148" t="str">
-        <f>'Import from RTC'!G138</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E148">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
-        <f>'Import from RTC'!A121</f>
-        <v>Task</v>
-      </c>
-      <c r="B149" t="str">
-        <f>'Import from RTC'!F139</f>
-        <v>Change max number of media to 100</v>
-      </c>
-      <c r="C149" t="str">
-        <f>'Import from RTC'!G139</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E149">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
-        <f>'Import from RTC'!A122</f>
-        <v>Task</v>
-      </c>
-      <c r="B150" t="str">
-        <f>'Import from RTC'!F140</f>
-        <v>Add social media buttons</v>
-      </c>
-      <c r="C150" t="str">
-        <f>'Import from RTC'!G140</f>
-        <v>Niek Vandael</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
-        <f>'Import from RTC'!A123</f>
-        <v>Task</v>
-      </c>
-      <c r="B151" t="str">
-        <f>'Import from RTC'!F141</f>
-        <v>Enable student subscribe when project is fully backed</v>
-      </c>
-      <c r="C151" t="str">
-        <f>'Import from RTC'!G141</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E151">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
-        <f>'Import from RTC'!A124</f>
-        <v>Task</v>
-      </c>
-      <c r="B152" t="str">
-        <f>'Import from RTC'!F142</f>
-        <v>Bugfix - filter for student home page</v>
-      </c>
-      <c r="C152" t="str">
-        <f>'Import from RTC'!G142</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E152">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
-        <f>'Import from RTC'!A125</f>
-        <v>Task</v>
-      </c>
-      <c r="B153" t="str">
-        <f>'Import from RTC'!F143</f>
-        <v>Add comments to projects</v>
-      </c>
-      <c r="C153" t="str">
-        <f>'Import from RTC'!G143</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
-        <f>'Import from RTC'!A128</f>
-        <v>Task</v>
-      </c>
-      <c r="B154" t="str">
-        <f>'Import from RTC'!F146</f>
-        <v>Create popup messages for result while saving/creating projects.</v>
-      </c>
-      <c r="C154" t="str">
-        <f>'Import from RTC'!G146</f>
-        <v>Arjen Schuurman</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
-        <f>'Import from RTC'!A129</f>
-        <v>Task</v>
-      </c>
-      <c r="B155" t="str">
-        <f>'Import from RTC'!F147</f>
-        <v>Bugfix - error updating projects</v>
-      </c>
-      <c r="C155" t="str">
-        <f>'Import from RTC'!G147</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E155">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
-        <f>'Import from RTC'!A130</f>
-        <v>Task</v>
-      </c>
-      <c r="B156" t="str">
-        <f>'Import from RTC'!F148</f>
-        <v>Only docents can make projects public</v>
-      </c>
-      <c r="C156" t="str">
-        <f>'Import from RTC'!G148</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E156">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
-        <f>'Import from RTC'!A131</f>
-        <v>Task</v>
-      </c>
-      <c r="B157" t="str">
-        <f>'Import from RTC'!F149</f>
-        <v>Picture carousel on detail page</v>
-      </c>
-      <c r="C157" t="str">
-        <f>'Import from RTC'!G149</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
-        <f>'Import from RTC'!A133</f>
-        <v>Task</v>
-      </c>
-      <c r="B158" t="str">
-        <f>'Import from RTC'!F151</f>
-        <v>Disable student edit for backed projects</v>
-      </c>
-      <c r="C158" t="str">
-        <f>'Import from RTC'!G151</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E158">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
-        <f>'Import from RTC'!A136</f>
-        <v>Task</v>
-      </c>
-      <c r="B159" t="str">
-        <f>'Import from RTC'!F154</f>
-        <v>Set start date when 100%  subscribed</v>
-      </c>
-      <c r="C159" t="str">
-        <f>'Import from RTC'!G154</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
-        <f>'Import from RTC'!A138</f>
-        <v>Task</v>
-      </c>
-      <c r="B160" t="str">
-        <f>'Import from RTC'!F156</f>
-        <v>Allow Docents to edit all projects</v>
-      </c>
-      <c r="C160" t="str">
-        <f>'Import from RTC'!G156</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E160">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
-        <f>'Import from RTC'!A139</f>
-        <v>Task</v>
-      </c>
-      <c r="B161" t="str">
-        <f>'Import from RTC'!F157</f>
-        <v>Allow Docents do delete all projects</v>
-      </c>
-      <c r="C161" t="str">
-        <f>'Import from RTC'!G157</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
-        <f>'Import from RTC'!A140</f>
-        <v>Task</v>
-      </c>
-      <c r="B162" t="str">
-        <f>'Import from RTC'!F158</f>
-        <v>Display end date &amp; duration</v>
-      </c>
-      <c r="C162" t="str">
-        <f>'Import from RTC'!G158</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E162">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
-        <f>'Import from RTC'!A141</f>
-        <v>Task</v>
-      </c>
-      <c r="B163" t="str">
-        <f>'Import from RTC'!F159</f>
-        <v>No text on full progressbar</v>
-      </c>
-      <c r="C163" t="str">
-        <f>'Import from RTC'!G159</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E163">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="str">
-        <f>'Import from RTC'!A143</f>
-        <v>Task</v>
-      </c>
-      <c r="B164" t="str">
-        <f>'Import from RTC'!F161</f>
-        <v>Get archived projects</v>
-      </c>
-      <c r="C164" t="str">
-        <f>'Import from RTC'!G161</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D164">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="str">
-        <f>'Import from RTC'!A145</f>
-        <v>Task</v>
-      </c>
-      <c r="B165" t="str">
-        <f>'Import from RTC'!F163</f>
-        <v>Add Scrollbar for long description</v>
-      </c>
-      <c r="C165" t="str">
-        <f>'Import from RTC'!G163</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E165">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="str">
-        <f>'Import from RTC'!A146</f>
-        <v>Task</v>
-      </c>
-      <c r="B166" t="str">
-        <f>'Import from RTC'!F164</f>
-        <v>Docents can delete subscribers</v>
-      </c>
-      <c r="C166" t="str">
-        <f>'Import from RTC'!G164</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="str">
-        <f>'Import from RTC'!A148</f>
-        <v>Task</v>
-      </c>
-      <c r="B167" t="str">
-        <f>'Import from RTC'!F166</f>
-        <v>Disable animation on progress bar</v>
-      </c>
-      <c r="C167" t="str">
-        <f>'Import from RTC'!G166</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D167">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="str">
-        <f>'Import from RTC'!A149</f>
-        <v>Task</v>
-      </c>
-      <c r="B168" t="str">
-        <f>'Import from RTC'!F167</f>
-        <v>Show full project description without scroller</v>
-      </c>
-      <c r="C168" t="str">
-        <f>'Import from RTC'!G167</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D168">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="str">
-        <f>'Import from RTC'!A150</f>
-        <v>Task</v>
-      </c>
-      <c r="B169" t="str">
-        <f>'Import from RTC'!F168</f>
-        <v>BackingPct not centered when &gt; 100</v>
-      </c>
-      <c r="C169" t="str">
-        <f>'Import from RTC'!G168</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D169">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="str">
-        <f>'Import from RTC'!A151</f>
-        <v>Task</v>
-      </c>
-      <c r="B170" t="str">
-        <f>'Import from RTC'!F169</f>
-        <v>Change background color to match selected menu item</v>
-      </c>
-      <c r="C170" t="str">
-        <f>'Import from RTC'!G169</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D170">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="str">
-        <f>'Import from RTC'!A153</f>
-        <v>Task</v>
-      </c>
-      <c r="B171" t="str">
-        <f>'Import from RTC'!F171</f>
-        <v>Left title should navigate to home page</v>
-      </c>
-      <c r="C171" t="str">
-        <f>'Import from RTC'!G171</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D171">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="str">
-        <f>'Import from RTC'!A154</f>
-        <v>Task</v>
-      </c>
-      <c r="B172" t="str">
-        <f>'Import from RTC'!F172</f>
-        <v>Possibility to delete a project comment</v>
-      </c>
-      <c r="C172" t="str">
-        <f>'Import from RTC'!G172</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D172">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="str">
-        <f>'Import from RTC'!A156</f>
-        <v>Task</v>
-      </c>
-      <c r="B173" t="str">
-        <f>'Import from RTC'!F174</f>
-        <v>About page not presentable</v>
-      </c>
-      <c r="C173" t="str">
-        <f>'Import from RTC'!G174</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D173">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="str">
-        <f>'Import from RTC'!A157</f>
-        <v>Task</v>
-      </c>
-      <c r="B174" t="str">
-        <f>'Import from RTC'!F175</f>
-        <v>Search by tag or keyword in one search box</v>
-      </c>
-      <c r="C174" t="str">
-        <f>'Import from RTC'!G175</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="str">
-        <f>'Import from RTC'!A158</f>
-        <v>Task</v>
-      </c>
-      <c r="B175" t="str">
-        <f>'Import from RTC'!F176</f>
-        <v>Category menuitem not showing 'active'</v>
-      </c>
-      <c r="C175" t="str">
-        <f>'Import from RTC'!G176</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="str">
-        <f>'Import from RTC'!A160</f>
-        <v>Task</v>
-      </c>
-      <c r="B176" t="str">
-        <f>'Import from RTC'!F178</f>
-        <v>Make project title bold</v>
-      </c>
-      <c r="C176" t="str">
-        <f>'Import from RTC'!G178</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E176">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="str">
-        <f>'Import from RTC'!A161</f>
-        <v>Task</v>
-      </c>
-      <c r="B177" t="str">
-        <f>'Import from RTC'!F179</f>
-        <v>Allow Back after 100%</v>
-      </c>
-      <c r="C177" t="str">
-        <f>'Import from RTC'!G179</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E177">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="str">
-        <f>'Import from RTC'!A162</f>
-        <v>Task</v>
-      </c>
-      <c r="B178" t="str">
-        <f>'Import from RTC'!F180</f>
-        <v>make public only when 100% backed</v>
-      </c>
-      <c r="C178" t="str">
-        <f>'Import from RTC'!G180</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E178">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="str">
-        <f>'Import from RTC'!A163</f>
-        <v>Task</v>
-      </c>
-      <c r="B179" t="str">
-        <f>'Import from RTC'!F181</f>
-        <v>Navigate to details on title click</v>
-      </c>
-      <c r="C179" t="str">
-        <f>'Import from RTC'!G181</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E179">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="str">
-        <f>'Import from RTC'!A164</f>
-        <v>Task</v>
-      </c>
-      <c r="B180" t="str">
-        <f>'Import from RTC'!F182</f>
-        <v>Text back &gt; steun(nl), support(en)</v>
-      </c>
-      <c r="C180" t="str">
-        <f>'Import from RTC'!G182</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E180">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="str">
-        <f>'Import from RTC'!A172</f>
-        <v>Task</v>
-      </c>
-      <c r="B181" t="str">
-        <f>'Import from RTC'!F190</f>
-        <v>Search on more fields</v>
-      </c>
-      <c r="C181" t="str">
-        <f>'Import from RTC'!G190</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E181">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="str">
-        <f>'Import from RTC'!A177</f>
-        <v>Task</v>
-      </c>
-      <c r="B182" t="str">
-        <f>'Import from RTC'!F195</f>
-        <v>Show favicon</v>
-      </c>
-      <c r="C182" t="str">
-        <f>'Import from RTC'!G195</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E182">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="str">
-        <f>'Import from RTC'!A178</f>
-        <v>Task</v>
-      </c>
-      <c r="B183" t="str">
-        <f>'Import from RTC'!F196</f>
-        <v>Model Validation</v>
-      </c>
-      <c r="C183" t="str">
-        <f>'Import from RTC'!G196</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="str">
-        <f>'Import from RTC'!A179</f>
-        <v>Task</v>
-      </c>
-      <c r="B184" t="str">
-        <f>'Import from RTC'!F197</f>
-        <v>Incorrect layout when adding items on new project page, especially on smaller screen sizes</v>
-      </c>
-      <c r="C184" t="str">
-        <f>'Import from RTC'!G197</f>
-        <v>Arjen Schuurman</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="str">
-        <f>'Import from RTC'!A180</f>
-        <v>Task</v>
-      </c>
-      <c r="B185" t="str">
-        <f>'Import from RTC'!F198</f>
-        <v>Add error toast for delete constraint by categories</v>
-      </c>
-      <c r="C185" t="str">
-        <f>'Import from RTC'!G198</f>
-        <v>Arjen Schuurman</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="str">
-        <f>'Import from RTC'!A181</f>
-        <v>Task</v>
-      </c>
-      <c r="B186" t="str">
-        <f>'Import from RTC'!F199</f>
-        <v>Add Javadoc</v>
-      </c>
-      <c r="C186" t="str">
-        <f>'Import from RTC'!G199</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E186">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="str">
-        <f>'Import from RTC'!A182</f>
-        <v>Task</v>
-      </c>
-      <c r="B187" t="str">
-        <f>'Import from RTC'!F200</f>
-        <v>Add duration options</v>
-      </c>
-      <c r="C187" t="str">
-        <f>'Import from RTC'!G200</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="str">
-        <f>'Import from RTC'!A183</f>
-        <v>Task</v>
-      </c>
-      <c r="B188" t="str">
-        <f>'Import from RTC'!F201</f>
-        <v>Code convention adjustments</v>
-      </c>
-      <c r="C188" t="str">
-        <f>'Import from RTC'!G201</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E188">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" t="str">
-        <f>'Import from RTC'!A184</f>
-        <v>Task</v>
-      </c>
-      <c r="B189" t="str">
-        <f>'Import from RTC'!F202</f>
-        <v>Order projects on number of likes</v>
-      </c>
-      <c r="C189" t="str">
-        <f>'Import from RTC'!G202</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E189">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D192" s="2">
-        <f>SUM(D67:D191)</f>
-        <v>120.1</v>
-      </c>
-      <c r="E192" s="2">
-        <f>SUM(E67:E191)</f>
-        <v>126.25</v>
-      </c>
-      <c r="F192" s="2">
-        <f>SUM(F67:F191)</f>
-        <v>42</v>
-      </c>
-      <c r="G192" s="2">
-        <f>SUM(G67:G191)</f>
-        <v>48</v>
-      </c>
-      <c r="H192" s="2">
-        <f>SUM(H67:H191)</f>
-        <v>20</v>
-      </c>
-      <c r="I192" s="6">
-        <f>SUM(D192:H192)</f>
-        <v>356.35</v>
-      </c>
-    </row>
-    <row r="196" spans="4:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D196" s="2">
-        <f>D192+D65+D38</f>
-        <v>173.6</v>
-      </c>
-      <c r="E196" s="2">
-        <f>E192+E65+E38</f>
-        <v>190.75</v>
-      </c>
-      <c r="F196" s="2">
-        <f>F192+F65+F38</f>
-        <v>44</v>
-      </c>
-      <c r="G196" s="2">
-        <f>G192+G65+G38</f>
-        <v>55</v>
-      </c>
-      <c r="H196" s="2">
-        <f>H192+H65+H38</f>
         <v>22</v>
       </c>
-      <c r="I196" s="6">
-        <f>SUM(D196:H196)</f>
+      <c r="I194">
+        <f t="shared" si="1"/>
         <v>485.35</v>
       </c>
     </row>
@@ -14090,7 +13141,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14104,53 +13155,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="6" t="str">
         <f>'Time spent by user'!D2</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="6" t="str">
         <f>'Time spent by user'!E2</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="6" t="str">
         <f>'Time spent by user'!F2</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="E1" s="9" t="str">
+      <c r="E1" s="6" t="str">
         <f>'Time spent by user'!G2</f>
         <v>Dennie Grondelars</v>
       </c>
-      <c r="F1" s="9" t="str">
+      <c r="F1" s="6" t="str">
         <f>'Time spent by user'!H2</f>
         <v>Bart Hunerbein</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="11">
-        <f>'Time spent by user'!D196</f>
+      <c r="B2" s="8">
+        <f>'Time spent by user'!D194</f>
         <v>173.6</v>
       </c>
-      <c r="C2" s="11">
-        <f>'Time spent by user'!E196</f>
+      <c r="C2" s="8">
+        <f>'Time spent by user'!E194</f>
         <v>190.75</v>
       </c>
-      <c r="D2" s="11">
-        <f>'Time spent by user'!F196</f>
+      <c r="D2" s="8">
+        <f>'Time spent by user'!F194</f>
         <v>44</v>
       </c>
-      <c r="E2" s="11">
-        <f>'Time spent by user'!G196</f>
+      <c r="E2" s="8">
+        <f>'Time spent by user'!G194</f>
         <v>55</v>
       </c>
-      <c r="F2" s="11">
-        <f>'Time spent by user'!H196</f>
+      <c r="F2" s="8">
+        <f>'Time spent by user'!H194</f>
         <v>22</v>
       </c>
     </row>
@@ -14179,53 +13230,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="6" t="str">
         <f>'Time spent by user'!D2</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="6" t="str">
         <f>'Time spent by user'!E2</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="6" t="str">
         <f>'Time spent by user'!F2</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="E1" s="9" t="str">
+      <c r="E1" s="6" t="str">
         <f>'Time spent by user'!G2</f>
         <v>Dennie Grondelars</v>
       </c>
-      <c r="F1" s="9" t="str">
+      <c r="F1" s="6" t="str">
         <f>'Time spent by user'!H2</f>
         <v>Bart Hunerbein</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="11">
-        <f>'Time spent by user'!D192</f>
-        <v>120.1</v>
-      </c>
-      <c r="C2" s="11">
-        <f>'Time spent by user'!E192</f>
-        <v>126.25</v>
-      </c>
-      <c r="D2" s="11">
-        <f>'Time spent by user'!F192</f>
-        <v>42</v>
-      </c>
-      <c r="E2" s="11">
-        <f>'Time spent by user'!G192</f>
-        <v>48</v>
-      </c>
-      <c r="F2" s="11">
-        <f>'Time spent by user'!H192</f>
-        <v>20</v>
+      <c r="A2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'Time spent by user'!D190</f>
+        <v>163.1</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'Time spent by user'!E190</f>
+        <v>181.25</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'Time spent by user'!F190</f>
+        <v>44</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'Time spent by user'!G190</f>
+        <v>55</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'Time spent by user'!H190</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -14239,7 +13290,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14253,51 +13304,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="9" t="str">
+      <c r="B1" s="6" t="str">
         <f>'Time spent by user'!D2</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="C1" s="9" t="str">
+      <c r="C1" s="6" t="str">
         <f>'Time spent by user'!E2</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D1" s="9" t="str">
+      <c r="D1" s="6" t="str">
         <f>'Time spent by user'!F2</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="E1" s="9" t="str">
+      <c r="E1" s="6" t="str">
         <f>'Time spent by user'!G2</f>
         <v>Dennie Grondelars</v>
       </c>
-      <c r="F1" s="9" t="str">
+      <c r="F1" s="6" t="str">
         <f>'Time spent by user'!H2</f>
         <v>Bart Hunerbein</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <f>'Time spent by user'!D38</f>
         <v>10.5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <f>'Time spent by user'!E38</f>
         <v>9.5</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <f>'Time spent by user'!F38</f>
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <f>'Time spent by user'!G38</f>
         <v>0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <f>'Time spent by user'!H38</f>
         <v>0</v>
       </c>
@@ -14310,70 +13361,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="9" t="str">
-        <f>'Time spent by user'!D2</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="C1" s="9" t="str">
-        <f>'Time spent by user'!E2</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D1" s="9" t="str">
-        <f>'Time spent by user'!F2</f>
-        <v>Arjen Schuurman</v>
-      </c>
-      <c r="E1" s="9" t="str">
-        <f>'Time spent by user'!G2</f>
-        <v>Dennie Grondelars</v>
-      </c>
-      <c r="F1" s="9" t="str">
-        <f>'Time spent by user'!H2</f>
-        <v>Bart Hunerbein</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="11">
-        <f>'Time spent by user'!D65</f>
-        <v>43</v>
-      </c>
-      <c r="C2" s="11">
-        <f>'Time spent by user'!E65</f>
-        <v>55</v>
-      </c>
-      <c r="D2" s="11">
-        <f>'Time spent by user'!F65</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="11">
-        <f>'Time spent by user'!G65</f>
-        <v>7</v>
-      </c>
-      <c r="F2" s="11">
-        <f>'Time spent by user'!H65</f>
-        <v>2</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'Time spent by user'!I38</f>
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'Time spent by user'!I190</f>
+        <v>465.35</v>
       </c>
     </row>
   </sheetData>
@@ -14384,60 +13404,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="11">
-        <f>'Time spent by user'!I38</f>
-        <v>20</v>
-      </c>
-      <c r="C2" s="11">
-        <f>'Time spent by user'!I192</f>
-        <v>356.35</v>
-      </c>
-      <c r="D2" s="11">
-        <f>'Time spent by user'!I65</f>
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14451,136 +13421,137 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="str">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="str">
         <f>'Time spent by user'!D2</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="6" t="str">
         <f>'Time spent by user'!E2</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="6" t="str">
         <f>'Time spent by user'!F2</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="6" t="str">
         <f>'Time spent by user'!G2</f>
         <v>Dennie Grondelars</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="6" t="str">
         <f>'Time spent by user'!H2</f>
         <v>Bart Hunerbein</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <f>'Total time spent'!B2</f>
         <v>173.6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <f>'Total time spent'!C2</f>
         <v>190.75</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <f>'Total time spent'!D2</f>
         <v>44</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <f>'Total time spent'!E2</f>
         <v>55</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <f>'Total time spent'!F2</f>
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="10">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="13">
-        <v>50</v>
-      </c>
-      <c r="D5" s="13">
-        <v>50</v>
-      </c>
-      <c r="E5" s="13">
-        <v>50</v>
-      </c>
-      <c r="F5" s="13">
-        <v>50</v>
-      </c>
-      <c r="G5" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <f>C5*C4</f>
-        <v>8680</v>
-      </c>
-      <c r="D7" s="9">
+        <v>3472</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" ref="D7:G7" si="0">D5*D4</f>
-        <v>9537.5</v>
-      </c>
-      <c r="E7" s="9">
+        <v>3815</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>2200</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>2750</v>
-      </c>
-      <c r="G7" s="9">
+        <v>880</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>236</v>
+      <c r="B10" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="C10" s="11">
         <f>SUM(C7:G7)</f>
-        <v>24267.5</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+        <v>9707</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/italent/documents/quality/TimeSpent.xlsx
+++ b/italent/documents/quality/TimeSpent.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\quality\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18165" windowHeight="8175" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Import from RTC" sheetId="1" r:id="rId1"/>
@@ -24,6 +19,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="239">
   <si>
     <t>Type</t>
   </si>
@@ -747,6 +743,9 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>Adjust detail page</t>
   </si>
 </sst>
 </file>
@@ -871,8 +870,8 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -918,7 +917,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -930,7 +929,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -956,7 +954,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1090,7 +1088,7 @@
                   <c:v>190.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>106.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55</c:v>
@@ -1123,7 +1121,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1149,7 +1146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1179,7 +1176,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1193,7 +1190,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1205,7 +1202,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1231,7 +1227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1365,7 +1361,7 @@
                   <c:v>181.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>93.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55</c:v>
@@ -1398,7 +1394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1424,7 +1419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1454,7 +1449,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1468,7 +1463,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1480,7 +1475,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1506,7 +1500,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1640,7 +1634,7 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1673,7 +1667,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1699,7 +1692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1729,7 +1722,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1743,7 +1736,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1755,7 +1748,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,7 +1773,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1855,10 +1847,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>465.35</c:v>
+                  <c:v>514.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,7 +1877,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1911,7 +1902,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1941,7 +1932,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4591,10 +4582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9860,6 +9851,32 @@
         <v>25</v>
       </c>
     </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>52</v>
+      </c>
+      <c r="D203" t="s">
+        <v>46</v>
+      </c>
+      <c r="E203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" t="s">
+        <v>238</v>
+      </c>
+      <c r="G203" t="s">
+        <v>34</v>
+      </c>
+      <c r="H203" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9869,12 +9886,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="83.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -10033,6 +10051,9 @@
         <f>'Import from RTC'!G124</f>
         <v>Arjen Schuurman</v>
       </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
@@ -10115,6 +10136,9 @@
         <f>'Import from RTC'!G145</f>
         <v>Arjen Schuurman</v>
       </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
@@ -10133,7 +10157,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Import from RTC'!A134</f>
         <v>Defect</v>
@@ -10150,7 +10174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Import from RTC'!A135</f>
         <v>Defect</v>
@@ -10164,7 +10188,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Import from RTC'!A137</f>
         <v>Defect</v>
@@ -10181,7 +10205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'Import from RTC'!A142</f>
         <v>Defect</v>
@@ -10194,8 +10218,11 @@
         <f>'Import from RTC'!G160</f>
         <v>Arjen Schuurman</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'Import from RTC'!A144</f>
         <v>Defect</v>
@@ -10212,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Import from RTC'!A147</f>
         <v>Defect</v>
@@ -10229,7 +10256,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Import from RTC'!A152</f>
         <v>Defect</v>
@@ -10246,7 +10273,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'Import from RTC'!A155</f>
         <v>Defect</v>
@@ -10263,7 +10290,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'Import from RTC'!A159</f>
         <v>Defect</v>
@@ -10280,7 +10307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Import from RTC'!A165</f>
         <v>Defect</v>
@@ -10297,7 +10324,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Import from RTC'!A166</f>
         <v>Defect</v>
@@ -10314,7 +10341,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Import from RTC'!A167</f>
         <v>Defect</v>
@@ -10331,7 +10358,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'Import from RTC'!A168</f>
         <v>Defect</v>
@@ -10348,7 +10375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'Import from RTC'!A169</f>
         <v>Defect</v>
@@ -10365,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Import from RTC'!A170</f>
         <v>Defect</v>
@@ -10382,7 +10409,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'Import from RTC'!A171</f>
         <v>Defect</v>
@@ -10446,6 +10473,9 @@
         <f>'Import from RTC'!G193</f>
         <v>Arjen Schuurman</v>
       </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
@@ -10460,6 +10490,9 @@
         <f>'Import from RTC'!G194</f>
         <v>Arjen Schuurman</v>
       </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -10475,7 +10508,7 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="0"/>
@@ -10487,7 +10520,7 @@
       </c>
       <c r="I38">
         <f>SUM(D38:H38)</f>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -10978,6 +11011,9 @@
       <c r="D64">
         <v>2</v>
       </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
@@ -11189,6 +11225,9 @@
       <c r="E75">
         <v>1</v>
       </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
@@ -11271,6 +11310,9 @@
         <f>'Import from RTC'!G85</f>
         <v>Dennie Grondelaers</v>
       </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
@@ -11288,6 +11330,9 @@
       <c r="D81">
         <v>4</v>
       </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
@@ -11353,6 +11398,9 @@
         <f>'Import from RTC'!G90</f>
         <v>Arjen Schuurman</v>
       </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
@@ -11541,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>'Import from RTC'!A88</f>
         <v>Task</v>
@@ -11558,7 +11606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>'Import from RTC'!A89</f>
         <v>Task</v>
@@ -11575,7 +11623,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>'Import from RTC'!A90</f>
         <v>Task</v>
@@ -11592,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>'Import from RTC'!A91</f>
         <v>Task</v>
@@ -11609,7 +11657,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>'Import from RTC'!A92</f>
         <v>Task</v>
@@ -11626,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>'Import from RTC'!A93</f>
         <v>Task</v>
@@ -11643,7 +11691,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>'Import from RTC'!A94</f>
         <v>Task</v>
@@ -11660,7 +11708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>'Import from RTC'!A95</f>
         <v>Task</v>
@@ -11677,7 +11725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>'Import from RTC'!A96</f>
         <v>Task</v>
@@ -11690,8 +11738,11 @@
         <f>'Import from RTC'!G114</f>
         <v>Arjen Schuurman</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>'Import from RTC'!A97</f>
         <v>Task</v>
@@ -11708,7 +11759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>'Import from RTC'!A98</f>
         <v>Task</v>
@@ -11721,8 +11772,11 @@
         <f>'Import from RTC'!G116</f>
         <v>Arjen Schuurman</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>'Import from RTC'!A99</f>
         <v>Task</v>
@@ -11741,8 +11795,11 @@
       <c r="E108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>'Import from RTC'!A101</f>
         <v>Task</v>
@@ -11759,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>'Import from RTC'!A102</f>
         <v>Task</v>
@@ -11776,7 +11833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>'Import from RTC'!A103</f>
         <v>Task</v>
@@ -11793,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>'Import from RTC'!A108</f>
         <v>Task</v>
@@ -11810,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>'Import from RTC'!A110</f>
         <v>Task</v>
@@ -11827,7 +11884,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>'Import from RTC'!A111</f>
         <v>Task</v>
@@ -11844,7 +11901,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>'Import from RTC'!A112</f>
         <v>Task</v>
@@ -11861,7 +11918,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>'Import from RTC'!A113</f>
         <v>Task</v>
@@ -11878,7 +11935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>'Import from RTC'!A114</f>
         <v>Task</v>
@@ -11895,7 +11952,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>'Import from RTC'!A116</f>
         <v>Task</v>
@@ -11912,7 +11969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>'Import from RTC'!A117</f>
         <v>Task</v>
@@ -11929,7 +11986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>'Import from RTC'!A118</f>
         <v>Task</v>
@@ -11946,7 +12003,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>'Import from RTC'!A119</f>
         <v>Task</v>
@@ -11963,7 +12020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>'Import from RTC'!A120</f>
         <v>Task</v>
@@ -11980,7 +12037,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>'Import from RTC'!A121</f>
         <v>Task</v>
@@ -11997,7 +12054,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>'Import from RTC'!A122</f>
         <v>Task</v>
@@ -12011,7 +12068,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>'Import from RTC'!A123</f>
         <v>Task</v>
@@ -12028,7 +12085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>'Import from RTC'!A124</f>
         <v>Task</v>
@@ -12045,7 +12102,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>'Import from RTC'!A125</f>
         <v>Task</v>
@@ -12062,7 +12119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>'Import from RTC'!A128</f>
         <v>Task</v>
@@ -12074,6 +12131,9 @@
       <c r="C128" t="str">
         <f>'Import from RTC'!G146</f>
         <v>Arjen Schuurman</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -12348,7 +12408,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>'Import from RTC'!A153</f>
         <v>Task</v>
@@ -12365,7 +12425,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>'Import from RTC'!A154</f>
         <v>Task</v>
@@ -12382,7 +12442,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>'Import from RTC'!A156</f>
         <v>Task</v>
@@ -12399,7 +12459,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>'Import from RTC'!A157</f>
         <v>Task</v>
@@ -12416,7 +12476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>'Import from RTC'!A158</f>
         <v>Task</v>
@@ -12433,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>'Import from RTC'!A160</f>
         <v>Task</v>
@@ -12450,7 +12510,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>'Import from RTC'!A161</f>
         <v>Task</v>
@@ -12467,7 +12527,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>'Import from RTC'!A162</f>
         <v>Task</v>
@@ -12484,7 +12544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>'Import from RTC'!A163</f>
         <v>Task</v>
@@ -12501,7 +12561,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>'Import from RTC'!A164</f>
         <v>Task</v>
@@ -12518,7 +12578,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>'Import from RTC'!A172</f>
         <v>Task</v>
@@ -12535,7 +12595,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>'Import from RTC'!A177</f>
         <v>Task</v>
@@ -12552,7 +12612,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>'Import from RTC'!A178</f>
         <v>Task</v>
@@ -12569,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f>'Import from RTC'!A179</f>
         <v>Task</v>
@@ -12582,8 +12642,11 @@
         <f>'Import from RTC'!G197</f>
         <v>Arjen Schuurman</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f>'Import from RTC'!A180</f>
         <v>Task</v>
@@ -12596,8 +12659,11 @@
         <f>'Import from RTC'!G198</f>
         <v>Arjen Schuurman</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f>'Import from RTC'!A181</f>
         <v>Task</v>
@@ -12902,6 +12968,9 @@
       <c r="E176">
         <v>1</v>
       </c>
+      <c r="F176">
+        <v>24</v>
+      </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -13069,6 +13138,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="str">
+        <f>'Import from RTC'!F203</f>
+        <v>Adjust detail page</v>
+      </c>
+      <c r="C187" t="str">
+        <f>'Import from RTC'!G203</f>
+        <v>Arjen Schuurman</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+    </row>
     <row r="190" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>232</v>
@@ -13083,7 +13168,7 @@
       </c>
       <c r="F190" s="2">
         <f>SUM(F41:F189)</f>
-        <v>44</v>
+        <v>93.25</v>
       </c>
       <c r="G190" s="2">
         <f>SUM(G41:G189)</f>
@@ -13095,7 +13180,7 @@
       </c>
       <c r="I190">
         <f>SUM(D190:H190)</f>
-        <v>465.35</v>
+        <v>514.6</v>
       </c>
     </row>
     <row r="194" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -13112,7 +13197,7 @@
       </c>
       <c r="F194" s="2">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>106.25</v>
       </c>
       <c r="G194" s="2">
         <f t="shared" si="1"/>
@@ -13124,7 +13209,7 @@
       </c>
       <c r="I194">
         <f t="shared" si="1"/>
-        <v>485.35</v>
+        <v>547.6</v>
       </c>
     </row>
   </sheetData>
@@ -13194,7 +13279,7 @@
       </c>
       <c r="D2" s="8">
         <f>'Time spent by user'!F194</f>
-        <v>44</v>
+        <v>106.25</v>
       </c>
       <c r="E2" s="8">
         <f>'Time spent by user'!G194</f>
@@ -13268,7 +13353,7 @@
       </c>
       <c r="D2" s="8">
         <f>'Time spent by user'!F190</f>
-        <v>44</v>
+        <v>93.25</v>
       </c>
       <c r="E2" s="8">
         <f>'Time spent by user'!G190</f>
@@ -13342,7 +13427,7 @@
       </c>
       <c r="D2" s="8">
         <f>'Time spent by user'!F38</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" s="8">
         <f>'Time spent by user'!G38</f>
@@ -13389,11 +13474,11 @@
       </c>
       <c r="B2" s="8">
         <f>'Time spent by user'!I38</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C2" s="8">
         <f>'Time spent by user'!I190</f>
-        <v>465.35</v>
+        <v>514.6</v>
       </c>
     </row>
   </sheetData>
@@ -13406,7 +13491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -13457,7 +13542,7 @@
       </c>
       <c r="E4" s="8">
         <f>'Total time spent'!D2</f>
-        <v>44</v>
+        <v>106.25</v>
       </c>
       <c r="F4" s="8">
         <f>'Total time spent'!E2</f>
@@ -13510,7 +13595,7 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>2125</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
@@ -13543,7 +13628,7 @@
       </c>
       <c r="C10" s="11">
         <f>SUM(C7:G7)</f>
-        <v>9707</v>
+        <v>10952</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>

--- a/italent/documents/quality/TimeSpent.xlsx
+++ b/italent/documents/quality/TimeSpent.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18165" windowHeight="8175" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="21980" windowHeight="19820" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Import from RTC" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="240">
   <si>
     <t>Type</t>
   </si>
@@ -746,6 +748,9 @@
   </si>
   <si>
     <t>Adjust detail page</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
   </si>
 </sst>
 </file>
@@ -870,8 +875,8 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -917,7 +922,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -954,7 +959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1088,13 +1093,13 @@
                   <c:v>190.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.25</c:v>
+                  <c:v>112.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,7 +1151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1176,7 +1181,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1190,7 +1195,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1227,7 +1232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1361,13 +1366,13 @@
                   <c:v>181.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.25</c:v>
+                  <c:v>99.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,7 +1424,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1449,7 +1454,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1463,7 +1468,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1500,7 +1505,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1634,13 +1639,13 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,7 +1697,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1722,7 +1727,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1736,7 +1741,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1773,7 +1778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1847,10 +1852,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>514.6</c:v>
+                  <c:v>561.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,7 +1907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1932,7 +1937,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4362,7 +4367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4397,7 +4402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4574,7 +4579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4588,18 +4593,18 @@
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4625,7 +4630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4651,7 +4656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4677,7 +4682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4703,7 +4708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4729,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4755,7 +4760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4781,7 +4786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4807,7 +4812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4833,7 +4838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4859,7 +4864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4885,7 +4890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4911,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4937,7 +4942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4963,7 +4968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4989,7 +4994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5041,7 +5046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5067,7 +5072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -5093,7 +5098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -5119,7 +5124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5145,7 +5150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -5171,7 +5176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5197,7 +5202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -5223,7 +5228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -5249,7 +5254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -5275,7 +5280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -5353,7 +5358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -5405,7 +5410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -5431,7 +5436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -5457,7 +5462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -5483,7 +5488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -5509,7 +5514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5561,7 +5566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -5613,7 +5618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -5639,7 +5644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -5717,7 +5722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -5743,7 +5748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5769,7 +5774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -5821,7 +5826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -5847,7 +5852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -5873,7 +5878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -5899,7 +5904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -5951,7 +5956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -5977,7 +5982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -6029,7 +6034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -6055,7 +6060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -6081,7 +6086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -6107,7 +6112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -6133,7 +6138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -6159,7 +6164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -6185,7 +6190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -6211,7 +6216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -6237,7 +6242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -6263,7 +6268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -6289,7 +6294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -6341,7 +6346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -6367,7 +6372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -6445,7 +6450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -6471,7 +6476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -6497,7 +6502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -6549,7 +6554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6575,7 +6580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -6601,7 +6606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -6627,7 +6632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -6679,7 +6684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -6705,7 +6710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -6731,7 +6736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -6757,7 +6762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -6783,7 +6788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -6809,7 +6814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -6835,7 +6840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -6861,7 +6866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -6887,7 +6892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -6913,7 +6918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -6939,7 +6944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -6965,7 +6970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -6991,7 +6996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -7017,7 +7022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -7043,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -7069,7 +7074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -7095,7 +7100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -7121,7 +7126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -7147,7 +7152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -7199,7 +7204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -7277,7 +7282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -7303,7 +7308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>92</v>
       </c>
@@ -7329,7 +7334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -7355,7 +7360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -7381,7 +7386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>92</v>
       </c>
@@ -7433,7 +7438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -7459,7 +7464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -7485,7 +7490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -7511,7 +7516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -7537,7 +7542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -7563,7 +7568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -7589,7 +7594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -7615,7 +7620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -7641,7 +7646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -7667,7 +7672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -7693,7 +7698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -7719,7 +7724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -7745,7 +7750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -7771,7 +7776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -7797,7 +7802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -7823,7 +7828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -7849,7 +7854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>92</v>
       </c>
@@ -7875,7 +7880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>92</v>
       </c>
@@ -7901,7 +7906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -7927,7 +7932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -7953,7 +7958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -7979,7 +7984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -8005,7 +8010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>92</v>
       </c>
@@ -8031,7 +8036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -8057,7 +8062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -8083,7 +8088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>92</v>
       </c>
@@ -8109,7 +8114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -8135,7 +8140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>92</v>
       </c>
@@ -8161,7 +8166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -8187,7 +8192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -8213,7 +8218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -8239,7 +8244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -8265,7 +8270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>92</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -8317,7 +8322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>92</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +8374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -8395,7 +8400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>92</v>
       </c>
@@ -8421,7 +8426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -8447,7 +8452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -8473,7 +8478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -8499,7 +8504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -8525,7 +8530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -8551,7 +8556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -8603,7 +8608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>92</v>
       </c>
@@ -8629,7 +8634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -8655,7 +8660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -8681,7 +8686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -8707,7 +8712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>92</v>
       </c>
@@ -8733,7 +8738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -8759,7 +8764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -8785,7 +8790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -8811,7 +8816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -8837,7 +8842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -8863,7 +8868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>92</v>
       </c>
@@ -8889,7 +8894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>92</v>
       </c>
@@ -8915,7 +8920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>92</v>
       </c>
@@ -8941,7 +8946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -8967,7 +8972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>92</v>
       </c>
@@ -8993,7 +8998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>92</v>
       </c>
@@ -9019,7 +9024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>92</v>
       </c>
@@ -9045,7 +9050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -9071,7 +9076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>92</v>
       </c>
@@ -9097,7 +9102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>92</v>
       </c>
@@ -9123,7 +9128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>92</v>
       </c>
@@ -9149,7 +9154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>92</v>
       </c>
@@ -9175,7 +9180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -9201,7 +9206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -9227,7 +9232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -9253,7 +9258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -9279,7 +9284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -9305,7 +9310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -9331,7 +9336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -9357,7 +9362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -9383,7 +9388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -9409,7 +9414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -9435,7 +9440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -9461,7 +9466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -9487,7 +9492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -9513,7 +9518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -9539,7 +9544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -9565,7 +9570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -9591,7 +9596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -9617,7 +9622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -9643,7 +9648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -9669,7 +9674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -9695,7 +9700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -9721,7 +9726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -9747,7 +9752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -9773,7 +9778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -9799,7 +9804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -9825,7 +9830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -9851,7 +9856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -9879,6 +9884,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9886,23 +9896,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="B2" s="3" t="s">
         <v>227</v>
       </c>
@@ -9925,7 +9935,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="str">
         <f>'Import from RTC'!A73</f>
         <v>Defect</v>
@@ -9938,8 +9948,11 @@
         <f>'Import from RTC'!G91</f>
         <v>Dennie Grondelaers</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>'Import from RTC'!A75</f>
         <v>Defect</v>
@@ -9956,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="str">
         <f>'Import from RTC'!A84</f>
         <v>Defect</v>
@@ -9973,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="str">
         <f>'Import from RTC'!A87</f>
         <v>Defect</v>
@@ -9987,7 +10000,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="str">
         <f>'Import from RTC'!A100</f>
         <v>Defect</v>
@@ -10004,7 +10017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="str">
         <f>'Import from RTC'!A104</f>
         <v>Defect</v>
@@ -10021,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="str">
         <f>'Import from RTC'!A105</f>
         <v>Defect</v>
@@ -10038,7 +10051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="str">
         <f>'Import from RTC'!A106</f>
         <v>Defect</v>
@@ -10055,7 +10068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="str">
         <f>'Import from RTC'!A107</f>
         <v>Defect</v>
@@ -10072,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="str">
         <f>'Import from RTC'!A109</f>
         <v>Defect</v>
@@ -10089,7 +10102,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="str">
         <f>'Import from RTC'!A115</f>
         <v>Defect</v>
@@ -10106,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="str">
         <f>'Import from RTC'!A126</f>
         <v>Defect</v>
@@ -10123,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="str">
         <f>'Import from RTC'!A127</f>
         <v>Defect</v>
@@ -10140,7 +10153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="str">
         <f>'Import from RTC'!A132</f>
         <v>Defect</v>
@@ -10157,7 +10170,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="str">
         <f>'Import from RTC'!A134</f>
         <v>Defect</v>
@@ -10174,7 +10187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="str">
         <f>'Import from RTC'!A135</f>
         <v>Defect</v>
@@ -10188,7 +10201,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="str">
         <f>'Import from RTC'!A137</f>
         <v>Defect</v>
@@ -10205,7 +10218,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="str">
         <f>'Import from RTC'!A142</f>
         <v>Defect</v>
@@ -10222,7 +10235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="str">
         <f>'Import from RTC'!A144</f>
         <v>Defect</v>
@@ -10239,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="str">
         <f>'Import from RTC'!A147</f>
         <v>Defect</v>
@@ -10256,7 +10269,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="str">
         <f>'Import from RTC'!A152</f>
         <v>Defect</v>
@@ -10273,7 +10286,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="str">
         <f>'Import from RTC'!A155</f>
         <v>Defect</v>
@@ -10290,7 +10303,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="str">
         <f>'Import from RTC'!A159</f>
         <v>Defect</v>
@@ -10307,7 +10320,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="str">
         <f>'Import from RTC'!A165</f>
         <v>Defect</v>
@@ -10324,7 +10337,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="str">
         <f>'Import from RTC'!A166</f>
         <v>Defect</v>
@@ -10341,7 +10354,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="str">
         <f>'Import from RTC'!A167</f>
         <v>Defect</v>
@@ -10358,7 +10371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="str">
         <f>'Import from RTC'!A168</f>
         <v>Defect</v>
@@ -10375,7 +10388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="str">
         <f>'Import from RTC'!A169</f>
         <v>Defect</v>
@@ -10392,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="str">
         <f>'Import from RTC'!A170</f>
         <v>Defect</v>
@@ -10409,7 +10422,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="str">
         <f>'Import from RTC'!A171</f>
         <v>Defect</v>
@@ -10426,7 +10439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="str">
         <f>'Import from RTC'!A173</f>
         <v>Defect</v>
@@ -10443,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="str">
         <f>'Import from RTC'!A174</f>
         <v>Defect</v>
@@ -10460,7 +10473,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="str">
         <f>'Import from RTC'!A175</f>
         <v>Defect</v>
@@ -10477,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="str">
         <f>'Import from RTC'!A176</f>
         <v>Defect</v>
@@ -10494,7 +10507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
         <v>231</v>
       </c>
@@ -10512,7 +10525,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="0"/>
@@ -10520,10 +10533,10 @@
       </c>
       <c r="I38">
         <f>SUM(D38:H38)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="str">
         <f>'Import from RTC'!A2</f>
         <v>Task</v>
@@ -10540,7 +10553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="str">
         <f>'Import from RTC'!A3</f>
         <v>Task</v>
@@ -10557,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="str">
         <f>'Import from RTC'!A4</f>
         <v>Task</v>
@@ -10574,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="str">
         <f>'Import from RTC'!A5</f>
         <v>Task</v>
@@ -10591,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="str">
         <f>'Import from RTC'!A6</f>
         <v>Task</v>
@@ -10608,7 +10621,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="str">
         <f>'Import from RTC'!A7</f>
         <v>Task</v>
@@ -10625,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" t="str">
         <f>'Import from RTC'!A8</f>
         <v>Task</v>
@@ -10642,7 +10655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="str">
         <f>'Import from RTC'!A10</f>
         <v>Task</v>
@@ -10662,7 +10675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="str">
         <f>'Import from RTC'!A11</f>
         <v>Task</v>
@@ -10682,7 +10695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="str">
         <f>'Import from RTC'!A12</f>
         <v>Task</v>
@@ -10702,7 +10715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="str">
         <f>'Import from RTC'!A13</f>
         <v>Task</v>
@@ -10722,7 +10735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="str">
         <f>'Import from RTC'!A14</f>
         <v>Task</v>
@@ -10751,7 +10764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="str">
         <f>'Import from RTC'!A15</f>
         <v>Task</v>
@@ -10771,7 +10784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="str">
         <f>'Import from RTC'!A16</f>
         <v>Task</v>
@@ -10788,7 +10801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="str">
         <f>'Import from RTC'!A17</f>
         <v>Task</v>
@@ -10805,7 +10818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="str">
         <f>'Import from RTC'!A18</f>
         <v>Task</v>
@@ -10828,7 +10841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="str">
         <f>'Import from RTC'!A20</f>
         <v>Task</v>
@@ -10857,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="str">
         <f>'Import from RTC'!A21</f>
         <v>Task</v>
@@ -10886,7 +10899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="str">
         <f>'Import from RTC'!A22</f>
         <v>Task</v>
@@ -10906,7 +10919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="str">
         <f>'Import from RTC'!A24</f>
         <v>Task</v>
@@ -10923,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="str">
         <f>'Import from RTC'!A25</f>
         <v>Task</v>
@@ -10943,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="str">
         <f>'Import from RTC'!A26</f>
         <v>Task</v>
@@ -10972,7 +10985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="str">
         <f>'Import from RTC'!A27</f>
         <v>Task</v>
@@ -10995,7 +11008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="str">
         <f>'Import from RTC'!A29</f>
         <v>Task</v>
@@ -11015,7 +11028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="str">
         <f>'Import from RTC'!A30</f>
         <v>Task</v>
@@ -11032,7 +11045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="str">
         <f>'Import from RTC'!A31</f>
         <v>Task</v>
@@ -11049,7 +11062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="str">
         <f>'Import from RTC'!A33</f>
         <v>Task</v>
@@ -11072,7 +11085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="str">
         <f>'Import from RTC'!A34</f>
         <v>Task</v>
@@ -11089,7 +11102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="str">
         <f>'Import from RTC'!A39</f>
         <v>Task</v>
@@ -11115,7 +11128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="str">
         <f>'Import from RTC'!A40</f>
         <v>Task</v>
@@ -11135,7 +11148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="str">
         <f>'Import from RTC'!A57</f>
         <v>Task</v>
@@ -11155,7 +11168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="str">
         <f>'Import from RTC'!A58</f>
         <v>Task</v>
@@ -11172,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="str">
         <f>'Import from RTC'!A59</f>
         <v>Task</v>
@@ -11189,7 +11202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="str">
         <f>'Import from RTC'!A61</f>
         <v>Task</v>
@@ -11206,7 +11219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="str">
         <f>'Import from RTC'!A62</f>
         <v>Task</v>
@@ -11228,8 +11241,11 @@
       <c r="F75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="str">
         <f>'Import from RTC'!A63</f>
         <v>Task</v>
@@ -11246,7 +11262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="str">
         <f>'Import from RTC'!A64</f>
         <v>Task</v>
@@ -11263,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="str">
         <f>'Import from RTC'!A65</f>
         <v>Task</v>
@@ -11280,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="str">
         <f>'Import from RTC'!A66</f>
         <v>Task</v>
@@ -11297,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="str">
         <f>'Import from RTC'!A67</f>
         <v>Task</v>
@@ -11311,10 +11327,13 @@
         <v>Dennie Grondelaers</v>
       </c>
       <c r="F80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="str">
         <f>'Import from RTC'!A68</f>
         <v>Task</v>
@@ -11334,7 +11353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="str">
         <f>'Import from RTC'!A69</f>
         <v>Task</v>
@@ -11351,7 +11370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="str">
         <f>'Import from RTC'!A70</f>
         <v>Task</v>
@@ -11368,7 +11387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="str">
         <f>'Import from RTC'!A71</f>
         <v>Task</v>
@@ -11385,7 +11404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="str">
         <f>'Import from RTC'!A72</f>
         <v>Task</v>
@@ -11402,7 +11421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="str">
         <f>'Import from RTC'!A74</f>
         <v>Task</v>
@@ -11419,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="str">
         <f>'Import from RTC'!A76</f>
         <v>Task</v>
@@ -11436,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="str">
         <f>'Import from RTC'!A77</f>
         <v>Task</v>
@@ -11453,7 +11472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="str">
         <f>'Import from RTC'!A78</f>
         <v>Task</v>
@@ -11470,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="str">
         <f>'Import from RTC'!A79</f>
         <v>Task</v>
@@ -11487,7 +11506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="str">
         <f>'Import from RTC'!A80</f>
         <v>Task</v>
@@ -11504,7 +11523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="str">
         <f>'Import from RTC'!A81</f>
         <v>Task</v>
@@ -11521,7 +11540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="str">
         <f>'Import from RTC'!A82</f>
         <v>Task</v>
@@ -11538,7 +11557,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="str">
         <f>'Import from RTC'!A83</f>
         <v>Task</v>
@@ -11555,7 +11574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="str">
         <f>'Import from RTC'!A85</f>
         <v>Task</v>
@@ -11572,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="str">
         <f>'Import from RTC'!A86</f>
         <v>Task</v>
@@ -11589,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="str">
         <f>'Import from RTC'!A88</f>
         <v>Task</v>
@@ -11606,7 +11625,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="str">
         <f>'Import from RTC'!A89</f>
         <v>Task</v>
@@ -11623,7 +11642,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="str">
         <f>'Import from RTC'!A90</f>
         <v>Task</v>
@@ -11640,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="str">
         <f>'Import from RTC'!A91</f>
         <v>Task</v>
@@ -11657,7 +11676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="str">
         <f>'Import from RTC'!A92</f>
         <v>Task</v>
@@ -11674,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="str">
         <f>'Import from RTC'!A93</f>
         <v>Task</v>
@@ -11691,7 +11710,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="str">
         <f>'Import from RTC'!A94</f>
         <v>Task</v>
@@ -11708,7 +11727,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="str">
         <f>'Import from RTC'!A95</f>
         <v>Task</v>
@@ -11725,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="str">
         <f>'Import from RTC'!A96</f>
         <v>Task</v>
@@ -11742,7 +11761,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="str">
         <f>'Import from RTC'!A97</f>
         <v>Task</v>
@@ -11759,7 +11778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="str">
         <f>'Import from RTC'!A98</f>
         <v>Task</v>
@@ -11776,7 +11795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="str">
         <f>'Import from RTC'!A99</f>
         <v>Task</v>
@@ -11798,8 +11817,11 @@
       <c r="F108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="str">
         <f>'Import from RTC'!A101</f>
         <v>Task</v>
@@ -11816,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="str">
         <f>'Import from RTC'!A102</f>
         <v>Task</v>
@@ -11832,8 +11854,11 @@
       <c r="D110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="str">
         <f>'Import from RTC'!A103</f>
         <v>Task</v>
@@ -11850,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="str">
         <f>'Import from RTC'!A108</f>
         <v>Task</v>
@@ -11867,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" t="str">
         <f>'Import from RTC'!A110</f>
         <v>Task</v>
@@ -11884,7 +11909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" t="str">
         <f>'Import from RTC'!A111</f>
         <v>Task</v>
@@ -11901,7 +11926,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" t="str">
         <f>'Import from RTC'!A112</f>
         <v>Task</v>
@@ -11918,7 +11943,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" t="str">
         <f>'Import from RTC'!A113</f>
         <v>Task</v>
@@ -11935,7 +11960,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" t="str">
         <f>'Import from RTC'!A114</f>
         <v>Task</v>
@@ -11952,7 +11977,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" t="str">
         <f>'Import from RTC'!A116</f>
         <v>Task</v>
@@ -11969,7 +11994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" t="str">
         <f>'Import from RTC'!A117</f>
         <v>Task</v>
@@ -11986,7 +12011,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" t="str">
         <f>'Import from RTC'!A118</f>
         <v>Task</v>
@@ -12003,7 +12028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" t="str">
         <f>'Import from RTC'!A119</f>
         <v>Task</v>
@@ -12020,7 +12045,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" t="str">
         <f>'Import from RTC'!A120</f>
         <v>Task</v>
@@ -12037,7 +12062,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" t="str">
         <f>'Import from RTC'!A121</f>
         <v>Task</v>
@@ -12054,7 +12079,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" t="str">
         <f>'Import from RTC'!A122</f>
         <v>Task</v>
@@ -12068,7 +12093,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" t="str">
         <f>'Import from RTC'!A123</f>
         <v>Task</v>
@@ -12085,7 +12110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" t="str">
         <f>'Import from RTC'!A124</f>
         <v>Task</v>
@@ -12102,7 +12127,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" t="str">
         <f>'Import from RTC'!A125</f>
         <v>Task</v>
@@ -12119,7 +12144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" t="str">
         <f>'Import from RTC'!A128</f>
         <v>Task</v>
@@ -12136,7 +12161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="str">
         <f>'Import from RTC'!A129</f>
         <v>Task</v>
@@ -12153,7 +12178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="str">
         <f>'Import from RTC'!A130</f>
         <v>Task</v>
@@ -12170,7 +12195,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="str">
         <f>'Import from RTC'!A131</f>
         <v>Task</v>
@@ -12187,7 +12212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="str">
         <f>'Import from RTC'!A133</f>
         <v>Task</v>
@@ -12204,7 +12229,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="str">
         <f>'Import from RTC'!A136</f>
         <v>Task</v>
@@ -12221,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="str">
         <f>'Import from RTC'!A138</f>
         <v>Task</v>
@@ -12238,7 +12263,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="str">
         <f>'Import from RTC'!A139</f>
         <v>Task</v>
@@ -12255,7 +12280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="str">
         <f>'Import from RTC'!A140</f>
         <v>Task</v>
@@ -12272,7 +12297,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="str">
         <f>'Import from RTC'!A141</f>
         <v>Task</v>
@@ -12289,7 +12314,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="str">
         <f>'Import from RTC'!A143</f>
         <v>Task</v>
@@ -12306,7 +12331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="str">
         <f>'Import from RTC'!A145</f>
         <v>Task</v>
@@ -12323,7 +12348,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="str">
         <f>'Import from RTC'!A146</f>
         <v>Task</v>
@@ -12340,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="str">
         <f>'Import from RTC'!A148</f>
         <v>Task</v>
@@ -12357,7 +12382,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="str">
         <f>'Import from RTC'!A149</f>
         <v>Task</v>
@@ -12374,7 +12399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="str">
         <f>'Import from RTC'!A150</f>
         <v>Task</v>
@@ -12391,7 +12416,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="str">
         <f>'Import from RTC'!A151</f>
         <v>Task</v>
@@ -12408,7 +12433,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" t="str">
         <f>'Import from RTC'!A153</f>
         <v>Task</v>
@@ -12425,7 +12450,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" t="str">
         <f>'Import from RTC'!A154</f>
         <v>Task</v>
@@ -12442,7 +12467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" t="str">
         <f>'Import from RTC'!A156</f>
         <v>Task</v>
@@ -12459,7 +12484,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" t="str">
         <f>'Import from RTC'!A157</f>
         <v>Task</v>
@@ -12476,7 +12501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" t="str">
         <f>'Import from RTC'!A158</f>
         <v>Task</v>
@@ -12493,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" t="str">
         <f>'Import from RTC'!A160</f>
         <v>Task</v>
@@ -12510,7 +12535,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" t="str">
         <f>'Import from RTC'!A161</f>
         <v>Task</v>
@@ -12527,7 +12552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" t="str">
         <f>'Import from RTC'!A162</f>
         <v>Task</v>
@@ -12544,7 +12569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" t="str">
         <f>'Import from RTC'!A163</f>
         <v>Task</v>
@@ -12561,7 +12586,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" t="str">
         <f>'Import from RTC'!A164</f>
         <v>Task</v>
@@ -12578,7 +12603,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" t="str">
         <f>'Import from RTC'!A172</f>
         <v>Task</v>
@@ -12595,7 +12620,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" t="str">
         <f>'Import from RTC'!A177</f>
         <v>Task</v>
@@ -12612,7 +12637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" t="str">
         <f>'Import from RTC'!A178</f>
         <v>Task</v>
@@ -12629,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" t="str">
         <f>'Import from RTC'!A179</f>
         <v>Task</v>
@@ -12646,7 +12671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" t="str">
         <f>'Import from RTC'!A180</f>
         <v>Task</v>
@@ -12663,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" t="str">
         <f>'Import from RTC'!A181</f>
         <v>Task</v>
@@ -12680,7 +12705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="str">
         <f>'Import from RTC'!A182</f>
         <v>Task</v>
@@ -12697,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" t="str">
         <f>'Import from RTC'!A183</f>
         <v>Task</v>
@@ -12714,7 +12739,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" t="str">
         <f>'Import from RTC'!A184</f>
         <v>Task</v>
@@ -12731,7 +12756,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -12759,7 +12784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -12781,7 +12806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -12803,7 +12828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -12819,7 +12844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -12832,7 +12857,7 @@
         <v>Unassigned</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -12847,8 +12872,11 @@
       <c r="E169">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -12867,7 +12895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -12883,7 +12911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -12899,7 +12927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -12915,7 +12943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -12931,7 +12959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -12950,7 +12978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -12972,7 +13000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -12988,7 +13016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -13004,7 +13032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -13020,7 +13048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -13036,7 +13064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -13052,7 +13080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -13071,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -13087,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -13106,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -13118,8 +13146,11 @@
         <f>'Import from RTC'!G78</f>
         <v>Dennie Grondelaers</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -13137,8 +13168,11 @@
       <c r="E186">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -13153,8 +13187,25 @@
       <c r="F187">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>239</v>
+      </c>
+      <c r="C188" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="2" customFormat="1">
       <c r="A190" s="2" t="s">
         <v>232</v>
       </c>
@@ -13168,11 +13219,11 @@
       </c>
       <c r="F190" s="2">
         <f>SUM(F41:F189)</f>
-        <v>93.25</v>
+        <v>99.25</v>
       </c>
       <c r="G190" s="2">
         <f>SUM(G41:G189)</f>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="H190" s="2">
         <f>SUM(H41:H189)</f>
@@ -13180,10 +13231,10 @@
       </c>
       <c r="I190">
         <f>SUM(D190:H190)</f>
-        <v>514.6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>561.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="2" customFormat="1">
       <c r="A194" s="2" t="s">
         <v>230</v>
       </c>
@@ -13192,24 +13243,24 @@
         <v>173.6</v>
       </c>
       <c r="E194" s="2">
-        <f t="shared" ref="E194:I194" si="1">E190+E38</f>
+        <f>E190+E38</f>
         <v>190.75</v>
       </c>
       <c r="F194" s="2">
-        <f t="shared" si="1"/>
-        <v>106.25</v>
+        <f>F190+F38</f>
+        <v>112.25</v>
       </c>
       <c r="G194" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>G190+G38</f>
+        <v>100</v>
       </c>
       <c r="H194" s="2">
-        <f t="shared" si="1"/>
+        <f>H190+H38</f>
         <v>22</v>
       </c>
       <c r="I194">
-        <f t="shared" si="1"/>
-        <v>547.6</v>
+        <f>I190+I38</f>
+        <v>598.6</v>
       </c>
     </row>
   </sheetData>
@@ -13217,7 +13268,12 @@
     <sortCondition ref="A3:A185"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13229,17 +13285,17 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
@@ -13265,7 +13321,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>230</v>
       </c>
@@ -13279,11 +13335,11 @@
       </c>
       <c r="D2" s="8">
         <f>'Time spent by user'!F194</f>
-        <v>106.25</v>
+        <v>112.25</v>
       </c>
       <c r="E2" s="8">
         <f>'Time spent by user'!G194</f>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F2" s="8">
         <f>'Time spent by user'!H194</f>
@@ -13293,6 +13349,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13304,17 +13365,17 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
@@ -13339,7 +13400,7 @@
         <v>Bart Hunerbein</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>232</v>
       </c>
@@ -13353,11 +13414,11 @@
       </c>
       <c r="D2" s="8">
         <f>'Time spent by user'!F190</f>
-        <v>93.25</v>
+        <v>99.25</v>
       </c>
       <c r="E2" s="8">
         <f>'Time spent by user'!G190</f>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F2" s="8">
         <f>'Time spent by user'!H190</f>
@@ -13367,6 +13428,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13378,17 +13444,17 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
@@ -13413,7 +13479,7 @@
         <v>Bart Hunerbein</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>231</v>
       </c>
@@ -13431,7 +13497,7 @@
       </c>
       <c r="E2" s="8">
         <f>'Time spent by user'!G38</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="8">
         <f>'Time spent by user'!H38</f>
@@ -13441,6 +13507,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13452,12 +13523,12 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13468,22 +13539,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="8">
         <f>'Time spent by user'!I38</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8">
         <f>'Time spent by user'!I190</f>
-        <v>514.6</v>
+        <v>561.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13495,17 +13571,17 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="str">
         <f>'Time spent by user'!D2</f>
@@ -13528,7 +13604,7 @@
         <v>Bart Hunerbein</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
@@ -13542,18 +13618,18 @@
       </c>
       <c r="E4" s="8">
         <f>'Total time spent'!D2</f>
-        <v>106.25</v>
+        <v>112.25</v>
       </c>
       <c r="F4" s="8">
         <f>'Total time spent'!E2</f>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G4" s="8">
         <f>'Total time spent'!F2</f>
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="9" t="s">
         <v>236</v>
       </c>
@@ -13573,7 +13649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -13581,7 +13657,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
         <v>237</v>
       </c>
@@ -13595,18 +13671,18 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>2125</v>
+        <v>2245</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -13614,7 +13690,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13622,13 +13698,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C10" s="11">
         <f>SUM(C7:G7)</f>
-        <v>10952</v>
+        <v>11972</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -13637,6 +13713,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/italent/documents/quality/TimeSpent.xlsx
+++ b/italent/documents/quality/TimeSpent.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\quality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="0" windowWidth="21980" windowHeight="19820" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="11625" yWindow="0" windowWidth="21975" windowHeight="19815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Import from RTC" sheetId="1" r:id="rId1"/>
@@ -18,13 +23,13 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -934,6 +939,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -959,7 +965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1087,19 +1093,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>173.6</c:v>
+                  <c:v>194.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190.75</c:v>
+                  <c:v>211.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>112.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,6 +1132,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1151,7 +1158,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1181,7 +1188,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1232,7 +1239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1360,19 +1367,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>163.1</c:v>
+                  <c:v>179.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181.25</c:v>
+                  <c:v>201.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>99.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,7 +1431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1454,7 +1461,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1505,7 +1512,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1633,19 +1640,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,7 +1704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1727,7 +1734,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1753,6 +1760,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1778,7 +1786,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1852,10 +1860,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.0</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>561.6</c:v>
+                  <c:v>598.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,6 +1890,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1907,7 +1916,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1937,7 +1946,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-BE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4579,7 +4588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4593,18 +4602,18 @@
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4630,7 +4639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4656,7 +4665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4682,7 +4691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4708,7 +4717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4760,7 +4769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4786,7 +4795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4812,7 +4821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4838,7 +4847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4864,7 +4873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4890,7 +4899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4916,7 +4925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4942,7 +4951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4994,7 +5003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5072,7 +5081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -5124,7 +5133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -5176,7 +5185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5202,7 +5211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +5237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -5254,7 +5263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -5280,7 +5289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -5306,7 +5315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -5332,7 +5341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -5410,7 +5419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -5436,7 +5445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -5514,7 +5523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -5592,7 +5601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -5618,7 +5627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -5644,7 +5653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -5696,7 +5705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -5722,7 +5731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -5748,7 +5757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5774,7 +5783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -5800,7 +5809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -5852,7 +5861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -5878,7 +5887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -5904,7 +5913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -5930,7 +5939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -5956,7 +5965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -5982,7 +5991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -6008,7 +6017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -6034,7 +6043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -6060,7 +6069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -6086,7 +6095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -6112,7 +6121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -6138,7 +6147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -6164,7 +6173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -6190,7 +6199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -6216,7 +6225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -6242,7 +6251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -6268,7 +6277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -6294,7 +6303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -6320,7 +6329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -6346,7 +6355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -6372,7 +6381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -6398,7 +6407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -6424,7 +6433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -6450,7 +6459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -6476,7 +6485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -6502,7 +6511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -6528,7 +6537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -6554,7 +6563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6580,7 +6589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -6632,7 +6641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -6658,7 +6667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -6684,7 +6693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -6710,7 +6719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -6736,7 +6745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -6762,7 +6771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -6788,7 +6797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -6814,7 +6823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -6840,7 +6849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -6866,7 +6875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -6892,7 +6901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -6918,7 +6927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -6944,7 +6953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -6970,7 +6979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -6996,7 +7005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -7022,7 +7031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -7048,7 +7057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -7074,7 +7083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -7100,7 +7109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -7126,7 +7135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -7152,7 +7161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -7178,7 +7187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -7204,7 +7213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -7230,7 +7239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -7256,7 +7265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -7282,7 +7291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -7308,7 +7317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>92</v>
       </c>
@@ -7334,7 +7343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -7360,7 +7369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -7386,7 +7395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -7412,7 +7421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>92</v>
       </c>
@@ -7438,7 +7447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -7464,7 +7473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -7490,7 +7499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -7516,7 +7525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -7542,7 +7551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -7568,7 +7577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -7594,7 +7603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -7620,7 +7629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -7646,7 +7655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -7672,7 +7681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -7698,7 +7707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -7724,7 +7733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -7750,7 +7759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -7776,7 +7785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -7802,7 +7811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -7828,7 +7837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -7854,7 +7863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>92</v>
       </c>
@@ -7880,7 +7889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>92</v>
       </c>
@@ -7906,7 +7915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -7932,7 +7941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -7958,7 +7967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -7984,7 +7993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -8010,7 +8019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>92</v>
       </c>
@@ -8036,7 +8045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -8062,7 +8071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -8088,7 +8097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>92</v>
       </c>
@@ -8114,7 +8123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -8140,7 +8149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>92</v>
       </c>
@@ -8166,7 +8175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -8192,7 +8201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -8218,7 +8227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -8244,7 +8253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -8270,7 +8279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>92</v>
       </c>
@@ -8296,7 +8305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -8322,7 +8331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>92</v>
       </c>
@@ -8348,7 +8357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -8374,7 +8383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -8400,7 +8409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>92</v>
       </c>
@@ -8426,7 +8435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -8452,7 +8461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -8478,7 +8487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -8504,7 +8513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -8530,7 +8539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -8556,7 +8565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -8582,7 +8591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -8608,7 +8617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>92</v>
       </c>
@@ -8634,7 +8643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -8660,7 +8669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -8686,7 +8695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -8712,7 +8721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>92</v>
       </c>
@@ -8738,7 +8747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -8764,7 +8773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -8790,7 +8799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -8816,7 +8825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -8842,7 +8851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -8868,7 +8877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>92</v>
       </c>
@@ -8894,7 +8903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>92</v>
       </c>
@@ -8920,7 +8929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>92</v>
       </c>
@@ -8946,7 +8955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -8972,7 +8981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>92</v>
       </c>
@@ -8998,7 +9007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>92</v>
       </c>
@@ -9024,7 +9033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>92</v>
       </c>
@@ -9050,7 +9059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -9076,7 +9085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>92</v>
       </c>
@@ -9102,7 +9111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>92</v>
       </c>
@@ -9128,7 +9137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>92</v>
       </c>
@@ -9154,7 +9163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>92</v>
       </c>
@@ -9180,7 +9189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -9206,7 +9215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -9232,7 +9241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -9258,7 +9267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -9284,7 +9293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -9310,7 +9319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -9336,7 +9345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -9362,7 +9371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -9388,7 +9397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -9414,7 +9423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -9440,7 +9449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -9466,7 +9475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -9492,7 +9501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -9518,7 +9527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -9544,7 +9553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -9570,7 +9579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -9596,7 +9605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -9622,7 +9631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -9648,7 +9657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -9674,7 +9683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -9700,7 +9709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -9726,7 +9735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -9752,7 +9761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -9778,7 +9787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -9804,7 +9813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -9830,7 +9839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -9856,7 +9865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -9896,23 +9905,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="3" customFormat="1">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>227</v>
       </c>
@@ -9935,7 +9944,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Import from RTC'!A73</f>
         <v>Defect</v>
@@ -9952,7 +9961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Import from RTC'!A75</f>
         <v>Defect</v>
@@ -9969,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Import from RTC'!A84</f>
         <v>Defect</v>
@@ -9986,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Import from RTC'!A87</f>
         <v>Defect</v>
@@ -10000,7 +10009,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Import from RTC'!A100</f>
         <v>Defect</v>
@@ -10017,7 +10026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Import from RTC'!A104</f>
         <v>Defect</v>
@@ -10034,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Import from RTC'!A105</f>
         <v>Defect</v>
@@ -10051,7 +10060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Import from RTC'!A106</f>
         <v>Defect</v>
@@ -10068,7 +10077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Import from RTC'!A107</f>
         <v>Defect</v>
@@ -10085,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Import from RTC'!A109</f>
         <v>Defect</v>
@@ -10102,7 +10111,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Import from RTC'!A115</f>
         <v>Defect</v>
@@ -10119,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Import from RTC'!A126</f>
         <v>Defect</v>
@@ -10136,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Import from RTC'!A127</f>
         <v>Defect</v>
@@ -10153,7 +10162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'Import from RTC'!A132</f>
         <v>Defect</v>
@@ -10170,7 +10179,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Import from RTC'!A134</f>
         <v>Defect</v>
@@ -10187,7 +10196,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Import from RTC'!A135</f>
         <v>Defect</v>
@@ -10201,7 +10210,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Import from RTC'!A137</f>
         <v>Defect</v>
@@ -10215,10 +10224,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'Import from RTC'!A142</f>
         <v>Defect</v>
@@ -10235,7 +10244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'Import from RTC'!A144</f>
         <v>Defect</v>
@@ -10252,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Import from RTC'!A147</f>
         <v>Defect</v>
@@ -10269,7 +10278,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Import from RTC'!A152</f>
         <v>Defect</v>
@@ -10283,10 +10292,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'Import from RTC'!A155</f>
         <v>Defect</v>
@@ -10300,10 +10309,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'Import from RTC'!A159</f>
         <v>Defect</v>
@@ -10317,10 +10326,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Import from RTC'!A165</f>
         <v>Defect</v>
@@ -10337,7 +10346,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Import from RTC'!A166</f>
         <v>Defect</v>
@@ -10354,7 +10363,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Import from RTC'!A167</f>
         <v>Defect</v>
@@ -10371,7 +10380,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'Import from RTC'!A168</f>
         <v>Defect</v>
@@ -10388,7 +10397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'Import from RTC'!A169</f>
         <v>Defect</v>
@@ -10405,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Import from RTC'!A170</f>
         <v>Defect</v>
@@ -10422,7 +10431,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'Import from RTC'!A171</f>
         <v>Defect</v>
@@ -10439,7 +10448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'Import from RTC'!A173</f>
         <v>Defect</v>
@@ -10456,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'Import from RTC'!A174</f>
         <v>Defect</v>
@@ -10473,7 +10482,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'Import from RTC'!A175</f>
         <v>Defect</v>
@@ -10490,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'Import from RTC'!A176</f>
         <v>Defect</v>
@@ -10507,13 +10516,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1">
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>231</v>
       </c>
       <c r="D38" s="2">
         <f>SUM(D3:D36)</f>
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ref="E38:H38" si="0">SUM(E3:E36)</f>
@@ -10533,10 +10542,10 @@
       </c>
       <c r="I38">
         <f>SUM(D38:H38)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'Import from RTC'!A2</f>
         <v>Task</v>
@@ -10553,7 +10562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'Import from RTC'!A3</f>
         <v>Task</v>
@@ -10570,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'Import from RTC'!A4</f>
         <v>Task</v>
@@ -10587,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'Import from RTC'!A5</f>
         <v>Task</v>
@@ -10604,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'Import from RTC'!A6</f>
         <v>Task</v>
@@ -10618,10 +10627,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D45">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'Import from RTC'!A7</f>
         <v>Task</v>
@@ -10638,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'Import from RTC'!A8</f>
         <v>Task</v>
@@ -10655,7 +10664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'Import from RTC'!A10</f>
         <v>Task</v>
@@ -10675,7 +10684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'Import from RTC'!A11</f>
         <v>Task</v>
@@ -10695,7 +10704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'Import from RTC'!A12</f>
         <v>Task</v>
@@ -10715,7 +10724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'Import from RTC'!A13</f>
         <v>Task</v>
@@ -10735,7 +10744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'Import from RTC'!A14</f>
         <v>Task</v>
@@ -10764,7 +10773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'Import from RTC'!A15</f>
         <v>Task</v>
@@ -10784,7 +10793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'Import from RTC'!A16</f>
         <v>Task</v>
@@ -10801,7 +10810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'Import from RTC'!A17</f>
         <v>Task</v>
@@ -10818,7 +10827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'Import from RTC'!A18</f>
         <v>Task</v>
@@ -10841,7 +10850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'Import from RTC'!A20</f>
         <v>Task</v>
@@ -10870,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'Import from RTC'!A21</f>
         <v>Task</v>
@@ -10899,7 +10908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'Import from RTC'!A22</f>
         <v>Task</v>
@@ -10913,13 +10922,13 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'Import from RTC'!A24</f>
         <v>Task</v>
@@ -10936,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'Import from RTC'!A25</f>
         <v>Task</v>
@@ -10956,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>'Import from RTC'!A26</f>
         <v>Task</v>
@@ -10985,7 +10994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>'Import from RTC'!A27</f>
         <v>Task</v>
@@ -11008,7 +11017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>'Import from RTC'!A29</f>
         <v>Task</v>
@@ -11028,7 +11037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>'Import from RTC'!A30</f>
         <v>Task</v>
@@ -11045,7 +11054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>'Import from RTC'!A31</f>
         <v>Task</v>
@@ -11062,7 +11071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>'Import from RTC'!A33</f>
         <v>Task</v>
@@ -11085,7 +11094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>'Import from RTC'!A34</f>
         <v>Task</v>
@@ -11102,7 +11111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>'Import from RTC'!A39</f>
         <v>Task</v>
@@ -11128,7 +11137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>'Import from RTC'!A40</f>
         <v>Task</v>
@@ -11148,7 +11157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>'Import from RTC'!A57</f>
         <v>Task</v>
@@ -11168,7 +11177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>'Import from RTC'!A58</f>
         <v>Task</v>
@@ -11185,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>'Import from RTC'!A59</f>
         <v>Task</v>
@@ -11202,7 +11211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>'Import from RTC'!A61</f>
         <v>Task</v>
@@ -11219,7 +11228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>'Import from RTC'!A62</f>
         <v>Task</v>
@@ -11245,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>'Import from RTC'!A63</f>
         <v>Task</v>
@@ -11262,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>'Import from RTC'!A64</f>
         <v>Task</v>
@@ -11279,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>'Import from RTC'!A65</f>
         <v>Task</v>
@@ -11296,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>'Import from RTC'!A66</f>
         <v>Task</v>
@@ -11313,7 +11322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>'Import from RTC'!A67</f>
         <v>Task</v>
@@ -11333,7 +11342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>'Import from RTC'!A68</f>
         <v>Task</v>
@@ -11353,7 +11362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>'Import from RTC'!A69</f>
         <v>Task</v>
@@ -11370,7 +11379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>'Import from RTC'!A70</f>
         <v>Task</v>
@@ -11387,7 +11396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>'Import from RTC'!A71</f>
         <v>Task</v>
@@ -11404,7 +11413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>'Import from RTC'!A72</f>
         <v>Task</v>
@@ -11421,7 +11430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>'Import from RTC'!A74</f>
         <v>Task</v>
@@ -11438,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>'Import from RTC'!A76</f>
         <v>Task</v>
@@ -11455,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>'Import from RTC'!A77</f>
         <v>Task</v>
@@ -11472,7 +11481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>'Import from RTC'!A78</f>
         <v>Task</v>
@@ -11489,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>'Import from RTC'!A79</f>
         <v>Task</v>
@@ -11506,7 +11515,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>'Import from RTC'!A80</f>
         <v>Task</v>
@@ -11523,7 +11532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>'Import from RTC'!A81</f>
         <v>Task</v>
@@ -11540,7 +11549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>'Import from RTC'!A82</f>
         <v>Task</v>
@@ -11554,10 +11563,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D93">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>'Import from RTC'!A83</f>
         <v>Task</v>
@@ -11574,7 +11583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>'Import from RTC'!A85</f>
         <v>Task</v>
@@ -11591,7 +11600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>'Import from RTC'!A86</f>
         <v>Task</v>
@@ -11608,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>'Import from RTC'!A88</f>
         <v>Task</v>
@@ -11622,10 +11631,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D97">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>'Import from RTC'!A89</f>
         <v>Task</v>
@@ -11639,10 +11648,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D98">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>'Import from RTC'!A90</f>
         <v>Task</v>
@@ -11659,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>'Import from RTC'!A91</f>
         <v>Task</v>
@@ -11673,10 +11682,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D100">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>'Import from RTC'!A92</f>
         <v>Task</v>
@@ -11693,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>'Import from RTC'!A93</f>
         <v>Task</v>
@@ -11710,7 +11719,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>'Import from RTC'!A94</f>
         <v>Task</v>
@@ -11727,7 +11736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>'Import from RTC'!A95</f>
         <v>Task</v>
@@ -11744,7 +11753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>'Import from RTC'!A96</f>
         <v>Task</v>
@@ -11761,7 +11770,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>'Import from RTC'!A97</f>
         <v>Task</v>
@@ -11778,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>'Import from RTC'!A98</f>
         <v>Task</v>
@@ -11795,7 +11804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>'Import from RTC'!A99</f>
         <v>Task</v>
@@ -11821,7 +11830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>'Import from RTC'!A101</f>
         <v>Task</v>
@@ -11835,10 +11844,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>'Import from RTC'!A102</f>
         <v>Task</v>
@@ -11858,7 +11867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>'Import from RTC'!A103</f>
         <v>Task</v>
@@ -11875,7 +11884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>'Import from RTC'!A108</f>
         <v>Task</v>
@@ -11892,7 +11901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>'Import from RTC'!A110</f>
         <v>Task</v>
@@ -11906,10 +11915,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>'Import from RTC'!A111</f>
         <v>Task</v>
@@ -11923,10 +11932,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E114">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>'Import from RTC'!A112</f>
         <v>Task</v>
@@ -11940,10 +11949,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E115">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>'Import from RTC'!A113</f>
         <v>Task</v>
@@ -11957,10 +11966,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>'Import from RTC'!A114</f>
         <v>Task</v>
@@ -11974,10 +11983,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E117">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>'Import from RTC'!A116</f>
         <v>Task</v>
@@ -11994,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>'Import from RTC'!A117</f>
         <v>Task</v>
@@ -12008,10 +12017,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E119">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>'Import from RTC'!A118</f>
         <v>Task</v>
@@ -12025,10 +12034,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E120">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>'Import from RTC'!A119</f>
         <v>Task</v>
@@ -12042,10 +12051,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E121">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>'Import from RTC'!A120</f>
         <v>Task</v>
@@ -12059,10 +12068,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E122">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>'Import from RTC'!A121</f>
         <v>Task</v>
@@ -12076,10 +12085,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E123">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>'Import from RTC'!A122</f>
         <v>Task</v>
@@ -12093,7 +12102,7 @@
         <v>Niek Vandael</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>'Import from RTC'!A123</f>
         <v>Task</v>
@@ -12107,10 +12116,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E125">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>'Import from RTC'!A124</f>
         <v>Task</v>
@@ -12124,10 +12133,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E126">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>'Import from RTC'!A125</f>
         <v>Task</v>
@@ -12144,7 +12153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>'Import from RTC'!A128</f>
         <v>Task</v>
@@ -12161,7 +12170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f>'Import from RTC'!A129</f>
         <v>Task</v>
@@ -12175,10 +12184,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E129">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f>'Import from RTC'!A130</f>
         <v>Task</v>
@@ -12192,10 +12201,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E130">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f>'Import from RTC'!A131</f>
         <v>Task</v>
@@ -12212,7 +12221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f>'Import from RTC'!A133</f>
         <v>Task</v>
@@ -12226,10 +12235,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E132">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>'Import from RTC'!A136</f>
         <v>Task</v>
@@ -12246,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f>'Import from RTC'!A138</f>
         <v>Task</v>
@@ -12260,10 +12269,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E134">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f>'Import from RTC'!A139</f>
         <v>Task</v>
@@ -12280,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f>'Import from RTC'!A140</f>
         <v>Task</v>
@@ -12294,10 +12303,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E136">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>'Import from RTC'!A141</f>
         <v>Task</v>
@@ -12311,10 +12320,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E137">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f>'Import from RTC'!A143</f>
         <v>Task</v>
@@ -12331,7 +12340,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f>'Import from RTC'!A145</f>
         <v>Task</v>
@@ -12345,10 +12354,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E139">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>'Import from RTC'!A146</f>
         <v>Task</v>
@@ -12365,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>'Import from RTC'!A148</f>
         <v>Task</v>
@@ -12379,10 +12388,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D141">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f>'Import from RTC'!A149</f>
         <v>Task</v>
@@ -12396,10 +12405,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D142">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>'Import from RTC'!A150</f>
         <v>Task</v>
@@ -12413,10 +12422,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D143">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>'Import from RTC'!A151</f>
         <v>Task</v>
@@ -12430,10 +12439,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D144">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>'Import from RTC'!A153</f>
         <v>Task</v>
@@ -12447,10 +12456,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D145">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>'Import from RTC'!A154</f>
         <v>Task</v>
@@ -12464,10 +12473,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D146">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>'Import from RTC'!A156</f>
         <v>Task</v>
@@ -12481,10 +12490,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D147">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>'Import from RTC'!A157</f>
         <v>Task</v>
@@ -12498,10 +12507,10 @@
         <v>Niek Vandael</v>
       </c>
       <c r="D148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>'Import from RTC'!A158</f>
         <v>Task</v>
@@ -12518,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>'Import from RTC'!A160</f>
         <v>Task</v>
@@ -12532,10 +12541,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E150">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>'Import from RTC'!A161</f>
         <v>Task</v>
@@ -12549,10 +12558,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>'Import from RTC'!A162</f>
         <v>Task</v>
@@ -12566,10 +12575,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>'Import from RTC'!A163</f>
         <v>Task</v>
@@ -12583,10 +12592,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E153">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>'Import from RTC'!A164</f>
         <v>Task</v>
@@ -12600,10 +12609,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E154">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>'Import from RTC'!A172</f>
         <v>Task</v>
@@ -12617,10 +12626,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>'Import from RTC'!A177</f>
         <v>Task</v>
@@ -12634,10 +12643,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E156">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>'Import from RTC'!A178</f>
         <v>Task</v>
@@ -12654,7 +12663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f>'Import from RTC'!A179</f>
         <v>Task</v>
@@ -12671,7 +12680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f>'Import from RTC'!A180</f>
         <v>Task</v>
@@ -12688,7 +12697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f>'Import from RTC'!A181</f>
         <v>Task</v>
@@ -12702,10 +12711,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f>'Import from RTC'!A182</f>
         <v>Task</v>
@@ -12722,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f>'Import from RTC'!A183</f>
         <v>Task</v>
@@ -12736,10 +12745,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E162">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f>'Import from RTC'!A184</f>
         <v>Task</v>
@@ -12753,10 +12762,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E163">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -12784,7 +12793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -12806,7 +12815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -12828,7 +12837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -12844,7 +12853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -12857,7 +12866,7 @@
         <v>Unassigned</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -12876,7 +12885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -12895,7 +12904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -12911,7 +12920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -12927,7 +12936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -12943,7 +12952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -12959,7 +12968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -12978,7 +12987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -13000,7 +13009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -13016,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -13032,7 +13041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -13048,7 +13057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -13061,10 +13070,10 @@
         <v>Jesse Vranken</v>
       </c>
       <c r="E180">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -13080,7 +13089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -13099,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -13115,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -13134,7 +13143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -13150,7 +13159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -13172,7 +13181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -13191,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -13205,17 +13214,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="2" customFormat="1">
+    <row r="190" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D190" s="2">
         <f>SUM(D41:D189)</f>
-        <v>163.1</v>
+        <v>179.5</v>
       </c>
       <c r="E190" s="2">
         <f>SUM(E41:E189)</f>
-        <v>181.25</v>
+        <v>201.75</v>
       </c>
       <c r="F190" s="2">
         <f>SUM(F41:F189)</f>
@@ -13231,36 +13240,36 @@
       </c>
       <c r="I190">
         <f>SUM(D190:H190)</f>
-        <v>561.6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="2" customFormat="1">
+        <v>598.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D194" s="2">
-        <f>D190+D38</f>
-        <v>173.6</v>
+        <f t="shared" ref="D194:I194" si="1">D190+D38</f>
+        <v>194.5</v>
       </c>
       <c r="E194" s="2">
-        <f>E190+E38</f>
-        <v>190.75</v>
+        <f t="shared" si="1"/>
+        <v>211.25</v>
       </c>
       <c r="F194" s="2">
-        <f>F190+F38</f>
+        <f t="shared" si="1"/>
         <v>112.25</v>
       </c>
       <c r="G194" s="2">
-        <f>G190+G38</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H194" s="2">
-        <f>H190+H38</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I194">
-        <f>I190+I38</f>
-        <v>598.6</v>
+        <f t="shared" si="1"/>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -13281,21 +13290,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
@@ -13321,17 +13330,17 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B2" s="8">
         <f>'Time spent by user'!D194</f>
-        <v>173.6</v>
+        <v>194.5</v>
       </c>
       <c r="C2" s="8">
         <f>'Time spent by user'!E194</f>
-        <v>190.75</v>
+        <v>211.25</v>
       </c>
       <c r="D2" s="8">
         <f>'Time spent by user'!F194</f>
@@ -13365,17 +13374,17 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
@@ -13400,17 +13409,17 @@
         <v>Bart Hunerbein</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B2" s="8">
         <f>'Time spent by user'!D190</f>
-        <v>163.1</v>
+        <v>179.5</v>
       </c>
       <c r="C2" s="8">
         <f>'Time spent by user'!E190</f>
-        <v>181.25</v>
+        <v>201.75</v>
       </c>
       <c r="D2" s="8">
         <f>'Time spent by user'!F190</f>
@@ -13444,17 +13453,17 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
@@ -13479,13 +13488,13 @@
         <v>Bart Hunerbein</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="8">
         <f>'Time spent by user'!D38</f>
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8">
         <f>'Time spent by user'!E38</f>
@@ -13523,12 +13532,12 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13539,17 +13548,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="8">
         <f>'Time spent by user'!I38</f>
-        <v>37</v>
+        <v>41.5</v>
       </c>
       <c r="C2" s="8">
         <f>'Time spent by user'!I190</f>
-        <v>561.6</v>
+        <v>598.5</v>
       </c>
     </row>
   </sheetData>
@@ -13571,17 +13580,17 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="str">
         <f>'Time spent by user'!D2</f>
@@ -13604,17 +13613,17 @@
         <v>Bart Hunerbein</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>229</v>
       </c>
       <c r="C4" s="8">
         <f>'Total time spent'!B2</f>
-        <v>173.6</v>
+        <v>194.5</v>
       </c>
       <c r="D4" s="8">
         <f>'Total time spent'!C2</f>
-        <v>190.75</v>
+        <v>211.25</v>
       </c>
       <c r="E4" s="8">
         <f>'Total time spent'!D2</f>
@@ -13629,7 +13638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>236</v>
       </c>
@@ -13649,7 +13658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -13657,17 +13666,17 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>237</v>
       </c>
       <c r="C7" s="6">
         <f>C5*C4</f>
-        <v>3472</v>
+        <v>3890</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ref="D7:G7" si="0">D5*D4</f>
-        <v>3815</v>
+        <v>4225</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
@@ -13682,7 +13691,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -13690,7 +13699,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13698,13 +13707,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C10" s="11">
         <f>SUM(C7:G7)</f>
-        <v>11972</v>
+        <v>12800</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>

--- a/italent/documents/quality/TimeSpent.xlsx
+++ b/italent/documents/quality/TimeSpent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="0" windowWidth="21975" windowHeight="19815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="11625" yWindow="0" windowWidth="21975" windowHeight="19815" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Import from RTC" sheetId="1" r:id="rId1"/>
@@ -1214,6 +1214,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1406,6 +1407,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1487,6 +1489,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1679,6 +1682,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4303,15 +4307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9905,7 +9909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
+    <sheetView topLeftCell="A159" workbookViewId="0">
       <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
@@ -13290,8 +13294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13450,7 +13454,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13529,7 +13533,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13576,8 +13580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13675,19 +13679,19 @@
         <v>3890</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" ref="D7:G7" si="0">D5*D4</f>
+        <f>D5*D4</f>
         <v>4225</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f>E5*E4</f>
         <v>2245</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f>F5*F4</f>
         <v>2000</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="0"/>
+        <f>G5*G4</f>
         <v>440</v>
       </c>
     </row>

--- a/italent/documents/quality/TimeSpent.xlsx
+++ b/italent/documents/quality/TimeSpent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="0" windowWidth="21975" windowHeight="19815" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="11625" yWindow="0" windowWidth="21975" windowHeight="19815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Import from RTC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="250">
   <si>
     <t>Type</t>
   </si>
@@ -716,9 +716,6 @@
     <t>Order projects on number of likes</t>
   </si>
   <si>
-    <t>Dennie Grondelars</t>
-  </si>
-  <si>
     <t>Workitem</t>
   </si>
   <si>
@@ -756,6 +753,44 @@
   </si>
   <si>
     <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Niek 
+Vandael</t>
+  </si>
+  <si>
+    <t>Jesse 
+Vranken</t>
+  </si>
+  <si>
+    <t>Arjen 
+Schuurman</t>
+  </si>
+  <si>
+    <t>Dennie 
+Grondelars</t>
+  </si>
+  <si>
+    <t>Bart 
+Hunerbein</t>
+  </si>
+  <si>
+    <t>Niek</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Arjen</t>
+  </si>
+  <si>
+    <t>Dennie</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Time is defined in hours</t>
   </si>
 </sst>
 </file>
@@ -765,7 +800,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$€-426]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +827,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -828,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -860,16 +903,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -878,6 +1088,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -939,7 +1176,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1069,19 +1305,24 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Niek Vandael</c:v>
+                  <c:v>Niek 
+Vandael</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jesse Vranken</c:v>
+                  <c:v>Jesse 
+Vranken</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Arjen Schuurman</c:v>
+                  <c:v>Arjen 
+Schuurman</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dennie Grondelars</c:v>
+                  <c:v>Dennie 
+Grondelars</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bart Hunerbein</c:v>
+                  <c:v>Bart 
+Hunerbein</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1132,7 +1373,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1344,19 +1584,24 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Niek Vandael</c:v>
+                  <c:v>Niek 
+Vandael</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jesse Vranken</c:v>
+                  <c:v>Jesse 
+Vranken</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Arjen Schuurman</c:v>
+                  <c:v>Arjen 
+Schuurman</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dennie Grondelars</c:v>
+                  <c:v>Dennie 
+Grondelars</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bart Hunerbein</c:v>
+                  <c:v>Bart 
+Hunerbein</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1489,7 +1734,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1619,19 +1863,24 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Niek Vandael</c:v>
+                  <c:v>Niek 
+Vandael</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jesse Vranken</c:v>
+                  <c:v>Jesse 
+Vranken</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Arjen Schuurman</c:v>
+                  <c:v>Arjen 
+Schuurman</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dennie Grondelars</c:v>
+                  <c:v>Dennie 
+Grondelars</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Bart Hunerbein</c:v>
+                  <c:v>Bart 
+Hunerbein</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1682,7 +1931,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1764,7 +2012,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1894,7 +2141,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9886,7 +10132,7 @@
         <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G203" t="s">
         <v>34</v>
@@ -9907,3373 +10153,4143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I194"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="82.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="10" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="82.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="str">
         <f>'Import from RTC'!A73</f>
         <v>Defect</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B2" s="12" t="str">
         <f>'Import from RTC'!F91</f>
         <v>Resource (view model) fuctionality</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C2" s="10" t="str">
         <f>'Import from RTC'!G91</f>
         <v>Dennie Grondelaers</v>
       </c>
-      <c r="G3">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="str">
         <f>'Import from RTC'!A75</f>
         <v>Defect</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B3" s="12" t="str">
         <f>'Import from RTC'!F93</f>
         <v>Autofill status, lastupdate and last updated by when persisting an entity</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C3" s="10" t="str">
         <f>'Import from RTC'!G93</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D4">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="str">
         <f>'Import from RTC'!A84</f>
         <v>Defect</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B4" s="12" t="str">
         <f>'Import from RTC'!F102</f>
         <v>Add Category to projects</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C4" s="10" t="str">
         <f>'Import from RTC'!G102</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D5">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="str">
         <f>'Import from RTC'!A87</f>
         <v>Defect</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B5" s="12" t="str">
         <f>'Import from RTC'!F105</f>
         <v>logout triggers authentication error</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C5" s="10" t="str">
         <f>'Import from RTC'!G105</f>
         <v>Niek Vandael</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="str">
         <f>'Import from RTC'!A100</f>
         <v>Defect</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B6" s="12" t="str">
         <f>'Import from RTC'!F118</f>
         <v>Search projects based on tags</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C6" s="10" t="str">
         <f>'Import from RTC'!G118</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D7">
+      <c r="D6" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="str">
         <f>'Import from RTC'!A104</f>
         <v>Defect</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B7" s="12" t="str">
         <f>'Import from RTC'!F122</f>
         <v>Projectstatus direct zichtbaar voor studenten</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C7" s="10" t="str">
         <f>'Import from RTC'!G122</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D8">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="str">
         <f>'Import from RTC'!A105</f>
         <v>Defect</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B8" s="12" t="str">
         <f>'Import from RTC'!F123</f>
         <v>Studenten kunnen projecten filteren waarop ze zich kunnen inschrijven</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C8" s="10" t="str">
         <f>'Import from RTC'!G123</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D9">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="str">
         <f>'Import from RTC'!A106</f>
         <v>Defect</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B9" s="12" t="str">
         <f>'Import from RTC'!F124</f>
         <v>Rework new project page/controller</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C9" s="10" t="str">
         <f>'Import from RTC'!G124</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F10">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="G9" s="12"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="str">
         <f>'Import from RTC'!A107</f>
         <v>Defect</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B10" s="12" t="str">
         <f>'Import from RTC'!F125</f>
         <v>Verslag Meetings</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C10" s="10" t="str">
         <f>'Import from RTC'!G125</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E11">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="str">
         <f>'Import from RTC'!A109</f>
         <v>Defect</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B11" s="12" t="str">
         <f>'Import from RTC'!F127</f>
         <v>Bugfix Pictures not displaying on myprojects page</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C11" s="10" t="str">
         <f>'Import from RTC'!G127</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E12">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="str">
         <f>'Import from RTC'!A115</f>
         <v>Defect</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B12" s="12" t="str">
         <f>'Import from RTC'!F133</f>
         <v>Create project progressbar (backed/subscribed)</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C12" s="10" t="str">
         <f>'Import from RTC'!G133</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D13">
+      <c r="D12" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="str">
         <f>'Import from RTC'!A126</f>
         <v>Defect</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B13" s="12" t="str">
         <f>'Import from RTC'!F144</f>
         <v>Show only first picture in project list</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C13" s="10" t="str">
         <f>'Import from RTC'!G144</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D14">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="str">
         <f>'Import from RTC'!A127</f>
         <v>Defect</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B14" s="12" t="str">
         <f>'Import from RTC'!F145</f>
         <v>Create popup messages for result while saving/creating categories.</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C14" s="10" t="str">
         <f>'Import from RTC'!G145</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F15">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+      <c r="G14" s="12"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="str">
         <f>'Import from RTC'!A132</f>
         <v>Defect</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B15" s="12" t="str">
         <f>'Import from RTC'!F150</f>
         <v>Disable comments for public</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C15" s="10" t="str">
         <f>'Import from RTC'!G150</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E16">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="str">
         <f>'Import from RTC'!A134</f>
         <v>Defect</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B16" s="12" t="str">
         <f>'Import from RTC'!F152</f>
         <v xml:space="preserve">Docents can't back anymore </v>
       </c>
-      <c r="C17" t="str">
+      <c r="C16" s="10" t="str">
         <f>'Import from RTC'!G152</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E17">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="str">
         <f>'Import from RTC'!A135</f>
         <v>Defect</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B17" s="12" t="str">
         <f>'Import from RTC'!F153</f>
         <v>Detail page styling</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C17" s="10" t="str">
         <f>'Import from RTC'!G153</f>
         <v>Niek Vandael</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="str">
         <f>'Import from RTC'!A137</f>
         <v>Defect</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B18" s="12" t="str">
         <f>'Import from RTC'!F155</f>
         <v>No progressbar showing on 0pct</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C18" s="10" t="str">
         <f>'Import from RTC'!G155</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D19">
+      <c r="D18" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="str">
         <f>'Import from RTC'!A142</f>
         <v>Defect</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B19" s="12" t="str">
         <f>'Import from RTC'!F160</f>
         <v>Update project detail page</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C19" s="10" t="str">
         <f>'Import from RTC'!G160</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F20">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="str">
         <f>'Import from RTC'!A144</f>
         <v>Defect</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B20" s="12" t="str">
         <f>'Import from RTC'!F162</f>
         <v>Using preziId from backend</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C20" s="10" t="str">
         <f>'Import from RTC'!G162</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E21">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="str">
         <f>'Import from RTC'!A147</f>
         <v>Defect</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B21" s="12" t="str">
         <f>'Import from RTC'!F165</f>
         <v>Only show make new.. when project is new</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C21" s="10" t="str">
         <f>'Import from RTC'!G165</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E22">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="str">
         <f>'Import from RTC'!A152</f>
         <v>Defect</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B22" s="12" t="str">
         <f>'Import from RTC'!F170</f>
         <v>Project save should return to project detail</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C22" s="10" t="str">
         <f>'Import from RTC'!G170</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D23">
+      <c r="D22" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="str">
         <f>'Import from RTC'!A155</f>
         <v>Defect</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B23" s="12" t="str">
         <f>'Import from RTC'!F173</f>
         <v>Like function is broken</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C23" s="10" t="str">
         <f>'Import from RTC'!G173</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D24">
+      <c r="D23" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="str">
         <f>'Import from RTC'!A159</f>
         <v>Defect</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B24" s="12" t="str">
         <f>'Import from RTC'!F177</f>
         <v>Show icon when project is 'running'</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C24" s="10" t="str">
         <f>'Import from RTC'!G177</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D25">
+      <c r="D24" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="str">
         <f>'Import from RTC'!A165</f>
         <v>Defect</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B25" s="12" t="str">
         <f>'Import from RTC'!F183</f>
         <v>Show full start/end time</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C25" s="10" t="str">
         <f>'Import from RTC'!G183</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E26">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="str">
         <f>'Import from RTC'!A166</f>
         <v>Defect</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B26" s="12" t="str">
         <f>'Import from RTC'!F184</f>
         <v>Text adjustment for Docent filter</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C26" s="10" t="str">
         <f>'Import from RTC'!G184</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E27">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="str">
         <f>'Import from RTC'!A167</f>
         <v>Defect</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B27" s="12" t="str">
         <f>'Import from RTC'!F185</f>
         <v>Layout Project Block</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C27" s="10" t="str">
         <f>'Import from RTC'!G185</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E28">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="str">
         <f>'Import from RTC'!A168</f>
         <v>Defect</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B28" s="12" t="str">
         <f>'Import from RTC'!F186</f>
         <v>Prevent request manipulation</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C28" s="10" t="str">
         <f>'Import from RTC'!G186</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E29">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="str">
         <f>'Import from RTC'!A169</f>
         <v>Defect</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B29" s="12" t="str">
         <f>'Import from RTC'!F187</f>
         <v>Show text when list is empty</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C29" s="10" t="str">
         <f>'Import from RTC'!G187</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E30">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="str">
         <f>'Import from RTC'!A170</f>
         <v>Defect</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B30" s="12" t="str">
         <f>'Import from RTC'!F188</f>
         <v>Popup message on back/subcsribe</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C30" s="10" t="str">
         <f>'Import from RTC'!G188</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E31">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="str">
         <f>'Import from RTC'!A171</f>
         <v>Defect</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B31" s="12" t="str">
         <f>'Import from RTC'!F189</f>
         <v>Project form validation</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C31" s="10" t="str">
         <f>'Import from RTC'!G189</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E32">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="str">
         <f>'Import from RTC'!A173</f>
         <v>Defect</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B32" s="12" t="str">
         <f>'Import from RTC'!F191</f>
         <v>Docents can delete supporters</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C32" s="10" t="str">
         <f>'Import from RTC'!G191</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E33">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="str">
         <f>'Import from RTC'!A174</f>
         <v>Defect</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B33" s="12" t="str">
         <f>'Import from RTC'!F192</f>
         <v>Redirect on cancel edit</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C33" s="10" t="str">
         <f>'Import from RTC'!G192</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E34">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="str">
         <f>'Import from RTC'!A175</f>
         <v>Defect</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B34" s="12" t="str">
         <f>'Import from RTC'!F193</f>
         <v>Add logo to menu</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C34" s="10" t="str">
         <f>'Import from RTC'!G193</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F35">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+      <c r="G34" s="12"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="str">
         <f>'Import from RTC'!A176</f>
         <v>Defect</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B35" s="12" t="str">
         <f>'Import from RTC'!F194</f>
         <v>Improve menu bar to show correct on small screen size.</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C35" s="10" t="str">
         <f>'Import from RTC'!G194</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F36">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="2">
-        <f>SUM(D3:D36)</f>
+      <c r="G35" s="12"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="13">
+        <f>SUM(D2:D35)</f>
         <v>15</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" ref="E38:H38" si="0">SUM(E3:E36)</f>
+      <c r="E37" s="13">
+        <f t="shared" ref="E37:H37" si="0">SUM(E2:E35)</f>
         <v>9.5</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F37" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G37" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H37" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38">
-        <f>SUM(D38:H38)</f>
+      <c r="I37">
+        <f>SUM(D37:H37)</f>
         <v>41.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="str">
         <f>'Import from RTC'!A2</f>
         <v>Task</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B40" s="12" t="str">
         <f>'Import from RTC'!F2</f>
         <v>Define a new build</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C40" s="10" t="str">
         <f>'Import from RTC'!G2</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D41">
+      <c r="D40" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="str">
         <f>'Import from RTC'!A3</f>
         <v>Task</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B41" s="12" t="str">
         <f>'Import from RTC'!F3</f>
         <v>Share code with Jazz Source Control</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C41" s="10" t="str">
         <f>'Import from RTC'!G3</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D42">
+      <c r="D41" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="str">
         <f>'Import from RTC'!A4</f>
         <v>Task</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B42" s="12" t="str">
         <f>'Import from RTC'!F4</f>
         <v>Define sprints/iterations</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C42" s="10" t="str">
         <f>'Import from RTC'!G4</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D43">
+      <c r="D42" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="str">
         <f>'Import from RTC'!A5</f>
         <v>Task</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B43" s="12" t="str">
         <f>'Import from RTC'!F5</f>
         <v>Define categories and releases for work items</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C43" s="10" t="str">
         <f>'Import from RTC'!G5</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D44">
+      <c r="D43" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="str">
         <f>'Import from RTC'!A6</f>
         <v>Task</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B44" s="12" t="str">
         <f>'Import from RTC'!F6</f>
         <v>Define team members</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C44" s="10" t="str">
         <f>'Import from RTC'!G6</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D45">
+      <c r="D44" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="str">
         <f>'Import from RTC'!A7</f>
         <v>Task</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B45" s="12" t="str">
         <f>'Import from RTC'!F7</f>
         <v>Define permissions</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C45" s="10" t="str">
         <f>'Import from RTC'!G7</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D46">
+      <c r="D45" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="str">
         <f>'Import from RTC'!A8</f>
         <v>Task</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B46" s="12" t="str">
         <f>'Import from RTC'!F8</f>
         <v>Setup RTC</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C46" s="10" t="str">
         <f>'Import from RTC'!G8</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+      <c r="D46" s="12">
+        <v>8</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="str">
         <f>'Import from RTC'!A10</f>
         <v>Task</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B47" s="12" t="str">
         <f>'Import from RTC'!F10</f>
         <v>Share initial code</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C47" s="10" t="str">
         <f>'Import from RTC'!G10</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D48">
+      <c r="D47" s="12">
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E47" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="str">
         <f>'Import from RTC'!A11</f>
         <v>Task</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B48" s="12" t="str">
         <f>'Import from RTC'!F11</f>
         <v>Setup Openshift Server</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C48" s="10" t="str">
         <f>'Import from RTC'!G11</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
+      <c r="D48" s="12">
+        <v>10</v>
+      </c>
+      <c r="E48" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="str">
         <f>'Import from RTC'!A12</f>
         <v>Task</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B49" s="12" t="str">
         <f>'Import from RTC'!F12</f>
         <v>RTC Testing</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C49" s="10" t="str">
         <f>'Import from RTC'!G12</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D50">
+      <c r="D49" s="12">
         <v>2</v>
       </c>
-      <c r="E50">
+      <c r="E49" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="str">
         <f>'Import from RTC'!A13</f>
         <v>Task</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B50" s="12" t="str">
         <f>'Import from RTC'!F13</f>
         <v>Enable Jenkins</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C50" s="10" t="str">
         <f>'Import from RTC'!G13</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D51">
+      <c r="D50" s="12">
         <v>2</v>
       </c>
-      <c r="E51">
+      <c r="E50" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="str">
         <f>'Import from RTC'!A14</f>
         <v>Task</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B51" s="12" t="str">
         <f>'Import from RTC'!F23</f>
         <v>Create Analisis</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C51" s="10" t="str">
         <f>'Import from RTC'!G23</f>
         <v>Unassigned</v>
       </c>
-      <c r="D52">
-        <v>10</v>
-      </c>
-      <c r="E52">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>10</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
+      <c r="D51" s="12">
+        <v>10</v>
+      </c>
+      <c r="E51" s="12">
+        <v>10</v>
+      </c>
+      <c r="F51" s="12">
+        <v>10</v>
+      </c>
+      <c r="G51" s="12">
+        <v>10</v>
+      </c>
+      <c r="H51" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="str">
         <f>'Import from RTC'!A15</f>
         <v>Task</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B52" s="12" t="str">
         <f>'Import from RTC'!F24</f>
         <v>Analyse login</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C52" s="10" t="str">
         <f>'Import from RTC'!G24</f>
         <v>Unassigned</v>
       </c>
-      <c r="F53">
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12">
         <v>5</v>
       </c>
-      <c r="G53">
+      <c r="G52" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="str">
         <f>'Import from RTC'!A16</f>
         <v>Task</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B53" s="12" t="str">
         <f>'Import from RTC'!F25</f>
         <v>Analyse projects</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C53" s="10" t="str">
         <f>'Import from RTC'!G25</f>
         <v>Unassigned</v>
       </c>
-      <c r="D54">
+      <c r="D53" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="str">
         <f>'Import from RTC'!A17</f>
         <v>Task</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B54" s="12" t="str">
         <f>'Import from RTC'!F26</f>
         <v>Analyse subscribers</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C54" s="10" t="str">
         <f>'Import from RTC'!G26</f>
         <v>Unassigned</v>
       </c>
-      <c r="E55">
+      <c r="D54" s="12"/>
+      <c r="E54" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="str">
         <f>'Import from RTC'!A18</f>
         <v>Task</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B55" s="12" t="str">
         <f>'Import from RTC'!F27</f>
         <v>Set Up Project Structure</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C55" s="10" t="str">
         <f>'Import from RTC'!G27</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E56">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12">
         <v>3</v>
       </c>
-      <c r="F56">
+      <c r="F55" s="12">
         <v>5</v>
       </c>
-      <c r="G56">
+      <c r="G55" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="str">
         <f>'Import from RTC'!A20</f>
         <v>Task</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B56" s="12" t="str">
         <f>'Import from RTC'!F30</f>
         <v>Vereisten verzamelen</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C56" s="10" t="str">
         <f>'Import from RTC'!G30</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D57">
+      <c r="D56" s="12">
         <v>2</v>
       </c>
-      <c r="E57">
+      <c r="E56" s="12">
         <v>2</v>
       </c>
-      <c r="F57">
+      <c r="F56" s="12">
         <v>2</v>
       </c>
-      <c r="G57">
+      <c r="G56" s="12">
         <v>2</v>
       </c>
-      <c r="H57">
+      <c r="H56" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="str">
         <f>'Import from RTC'!A21</f>
         <v>Task</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B57" s="12" t="str">
         <f>'Import from RTC'!F31</f>
         <v>Plan van aanpak</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C57" s="10" t="str">
         <f>'Import from RTC'!G31</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D58">
+      <c r="D57" s="12">
         <v>4</v>
       </c>
-      <c r="E58">
+      <c r="E57" s="12">
         <v>5</v>
       </c>
-      <c r="F58">
-        <v>8</v>
-      </c>
-      <c r="G58">
+      <c r="F57" s="12">
+        <v>8</v>
+      </c>
+      <c r="G57" s="12">
         <v>2</v>
       </c>
-      <c r="H58">
+      <c r="H57" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="str">
         <f>'Import from RTC'!A22</f>
         <v>Task</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B58" s="12" t="str">
         <f>'Import from RTC'!F32</f>
         <v>Create Use Cases Diagram</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C58" s="10" t="str">
         <f>'Import from RTC'!G32</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D59">
+      <c r="D58" s="12">
         <v>15</v>
       </c>
-      <c r="E59">
+      <c r="E58" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="str">
         <f>'Import from RTC'!A24</f>
         <v>Task</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B59" s="12" t="str">
         <f>'Import from RTC'!F34</f>
         <v>RTC setup development environment documentje maken</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C59" s="10" t="str">
         <f>'Import from RTC'!G34</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D60">
+      <c r="D59" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="str">
         <f>'Import from RTC'!A25</f>
         <v>Task</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B60" s="12" t="str">
         <f>'Import from RTC'!F35</f>
         <v>Setup development environment</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C60" s="10" t="str">
         <f>'Import from RTC'!G35</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D61">
+      <c r="D60" s="12">
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="E60" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="str">
         <f>'Import from RTC'!A26</f>
         <v>Task</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B61" s="12" t="str">
         <f>'Import from RTC'!F37</f>
         <v>Requirements opstellen</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C61" s="10" t="str">
         <f>'Import from RTC'!G37</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="D62">
+      <c r="D61" s="12">
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="E61" s="12">
         <v>2</v>
       </c>
-      <c r="F62">
+      <c r="F61" s="12">
         <v>5</v>
       </c>
-      <c r="G62">
+      <c r="G61" s="12">
         <v>2</v>
       </c>
-      <c r="H62">
+      <c r="H61" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="str">
         <f>'Import from RTC'!A27</f>
         <v>Task</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B62" s="12" t="str">
         <f>'Import from RTC'!F38</f>
         <v>Studenten en docenten moeten inloggen alvorens de applicatie te kunnen gebruiken</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C62" s="10" t="str">
         <f>'Import from RTC'!G38</f>
         <v>Unassigned</v>
       </c>
-      <c r="E63">
+      <c r="D62" s="12"/>
+      <c r="E62" s="12">
         <v>1</v>
       </c>
-      <c r="F63">
+      <c r="F62" s="12">
         <v>2</v>
       </c>
-      <c r="G63">
+      <c r="G62" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="str">
         <f>'Import from RTC'!A29</f>
         <v>Task</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B63" s="12" t="str">
         <f>'Import from RTC'!F41</f>
         <v>Studenten kunnen projecten liken</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C63" s="10" t="str">
         <f>'Import from RTC'!G41</f>
         <v>Unassigned</v>
       </c>
-      <c r="D64">
+      <c r="D63" s="12">
         <v>2</v>
       </c>
-      <c r="F64">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
+      <c r="G63" s="12"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="str">
         <f>'Import from RTC'!A30</f>
         <v>Task</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B64" s="12" t="str">
         <f>'Import from RTC'!F42</f>
         <v>Studenten kunnen op projecten inschrijven</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C64" s="10" t="str">
         <f>'Import from RTC'!G42</f>
         <v>Unassigned</v>
       </c>
-      <c r="E65">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="str">
         <f>'Import from RTC'!A31</f>
         <v>Task</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B65" s="12" t="str">
         <f>'Import from RTC'!F43</f>
         <v>Docenten kunnen op projecten intekenen</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C65" s="10" t="str">
         <f>'Import from RTC'!G43</f>
         <v>Unassigned</v>
       </c>
-      <c r="E66">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="str">
         <f>'Import from RTC'!A33</f>
         <v>Task</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B66" s="12" t="str">
         <f>'Import from RTC'!F46</f>
         <v>Technische details zoals video en foto-hosting uitzoeken</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C66" s="10" t="str">
         <f>'Import from RTC'!G46</f>
         <v>Unassigned</v>
       </c>
-      <c r="E67">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12">
         <v>1</v>
       </c>
-      <c r="F67">
+      <c r="F66" s="12">
         <v>3</v>
       </c>
-      <c r="G67">
+      <c r="G66" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="str">
         <f>'Import from RTC'!A34</f>
         <v>Task</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B67" s="12" t="str">
         <f>'Import from RTC'!F47</f>
         <v>Mockups maken</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C67" s="10" t="str">
         <f>'Import from RTC'!G47</f>
         <v>Bart Hunerbein</v>
       </c>
-      <c r="H68">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="str">
         <f>'Import from RTC'!A39</f>
         <v>Task</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B68" s="12" t="str">
         <f>'Import from RTC'!F54</f>
         <v>Voorbereiding presentatie (engels)</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C68" s="10" t="str">
         <f>'Import from RTC'!G54</f>
         <v>Unassigned</v>
       </c>
-      <c r="D69">
+      <c r="D68" s="12">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E68" s="12">
         <v>2</v>
       </c>
-      <c r="F69">
+      <c r="F68" s="12">
         <v>2</v>
       </c>
-      <c r="G69">
+      <c r="G68" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="str">
         <f>'Import from RTC'!A40</f>
         <v>Task</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B69" s="12" t="str">
         <f>'Import from RTC'!F57</f>
         <v>backend uitwerken</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C69" s="10" t="str">
         <f>'Import from RTC'!G57</f>
         <v>Unassigned</v>
       </c>
-      <c r="E70">
-        <v>10</v>
-      </c>
-      <c r="G70">
+      <c r="D69" s="12"/>
+      <c r="E69" s="12">
+        <v>10</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="str">
         <f>'Import from RTC'!A57</f>
         <v>Task</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B70" s="12" t="str">
         <f>'Import from RTC'!F75</f>
         <v>Openshift does not build anymore</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C70" s="10" t="str">
         <f>'Import from RTC'!G75</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D71">
+      <c r="D70" s="12">
         <v>3</v>
       </c>
-      <c r="E71">
+      <c r="E70" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="str">
         <f>'Import from RTC'!A58</f>
         <v>Task</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B71" s="12" t="str">
         <f>'Import from RTC'!F76</f>
         <v>Angular - Implement Likes</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C71" s="10" t="str">
         <f>'Import from RTC'!G76</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E72">
+      <c r="D71" s="12"/>
+      <c r="E71" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="str">
         <f>'Import from RTC'!A59</f>
         <v>Task</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B72" s="12" t="str">
         <f>'Import from RTC'!F77</f>
         <v>Toggle likes for a project</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C72" s="10" t="str">
         <f>'Import from RTC'!G77</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D73">
+      <c r="D72" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="str">
         <f>'Import from RTC'!A61</f>
         <v>Task</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B73" s="12" t="str">
         <f>'Import from RTC'!F79</f>
         <v>Angular - Implement Project Service</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C73" s="10" t="str">
         <f>'Import from RTC'!G79</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E74">
+      <c r="D73" s="12"/>
+      <c r="E73" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="str">
         <f>'Import from RTC'!A62</f>
         <v>Task</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B74" s="12" t="str">
         <f>'Import from RTC'!F80</f>
         <v>English presentation</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C74" s="10" t="str">
         <f>'Import from RTC'!G80</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D75">
+      <c r="D74" s="12">
         <v>1</v>
       </c>
-      <c r="E75">
+      <c r="E74" s="12">
         <v>1</v>
       </c>
-      <c r="F75">
+      <c r="F74" s="12">
         <v>1</v>
       </c>
-      <c r="G75">
+      <c r="G74" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="str">
         <f>'Import from RTC'!A63</f>
         <v>Task</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B75" s="12" t="str">
         <f>'Import from RTC'!F81</f>
         <v>Spring - Implement Subscriber Student Service</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C75" s="10" t="str">
         <f>'Import from RTC'!G81</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E76">
+      <c r="D75" s="12"/>
+      <c r="E75" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="str">
         <f>'Import from RTC'!A64</f>
         <v>Task</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B76" s="12" t="str">
         <f>'Import from RTC'!F82</f>
         <v>Angular - Implement Subscriber Student Service</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C76" s="10" t="str">
         <f>'Import from RTC'!G82</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E77">
+      <c r="D76" s="12"/>
+      <c r="E76" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="str">
         <f>'Import from RTC'!A65</f>
         <v>Task</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B77" s="12" t="str">
         <f>'Import from RTC'!F83</f>
         <v>Spring - Implement Subscriber Docent Service</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C77" s="10" t="str">
         <f>'Import from RTC'!G83</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E78">
+      <c r="D77" s="12"/>
+      <c r="E77" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="str">
         <f>'Import from RTC'!A66</f>
         <v>Task</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B78" s="12" t="str">
         <f>'Import from RTC'!F84</f>
         <v>MySql timeout after 8 hours</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C78" s="10" t="str">
         <f>'Import from RTC'!G84</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D79">
+      <c r="D78" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="str">
         <f>'Import from RTC'!A67</f>
         <v>Task</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B79" s="12" t="str">
         <f>'Import from RTC'!F85</f>
         <v>Security setup</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C79" s="10" t="str">
         <f>'Import from RTC'!G85</f>
         <v>Dennie Grondelaers</v>
       </c>
-      <c r="F80">
-        <v>10</v>
-      </c>
-      <c r="G80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12">
+        <v>10</v>
+      </c>
+      <c r="G79" s="12">
+        <v>10</v>
+      </c>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="str">
         <f>'Import from RTC'!A68</f>
         <v>Task</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B80" s="12" t="str">
         <f>'Import from RTC'!F86</f>
         <v>Create category screen</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C80" s="10" t="str">
         <f>'Import from RTC'!G86</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D81">
+      <c r="D80" s="12">
         <v>4</v>
       </c>
-      <c r="F81">
+      <c r="E80" s="12"/>
+      <c r="F80" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
+      <c r="G80" s="12"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="str">
         <f>'Import from RTC'!A69</f>
         <v>Task</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B81" s="12" t="str">
         <f>'Import from RTC'!F87</f>
         <v>Security - Autowiring Error</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C81" s="10" t="str">
         <f>'Import from RTC'!G87</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E82">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="str">
         <f>'Import from RTC'!A70</f>
         <v>Task</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B82" s="12" t="str">
         <f>'Import from RTC'!F88</f>
         <v>Save youtube videos on project</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C82" s="10" t="str">
         <f>'Import from RTC'!G88</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D83">
+      <c r="D82" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="str">
         <f>'Import from RTC'!A71</f>
         <v>Task</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B83" s="12" t="str">
         <f>'Import from RTC'!F89</f>
         <v>Add pictures on project</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C83" s="10" t="str">
         <f>'Import from RTC'!G89</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D84">
+      <c r="D83" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="str">
         <f>'Import from RTC'!A72</f>
         <v>Task</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B84" s="12" t="str">
         <f>'Import from RTC'!F90</f>
         <v>Enable update for projects</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C84" s="10" t="str">
         <f>'Import from RTC'!G90</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F85">
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
+      <c r="G84" s="12"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="str">
         <f>'Import from RTC'!A74</f>
         <v>Task</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B85" s="12" t="str">
         <f>'Import from RTC'!F92</f>
         <v>Add milestones to project</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C85" s="10" t="str">
         <f>'Import from RTC'!G92</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D86">
+      <c r="D85" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="str">
         <f>'Import from RTC'!A76</f>
         <v>Task</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B86" s="12" t="str">
         <f>'Import from RTC'!F94</f>
         <v xml:space="preserve">Create department list </v>
       </c>
-      <c r="C87" t="str">
+      <c r="C86" s="10" t="str">
         <f>'Import from RTC'!G94</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D87">
+      <c r="D86" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="str">
         <f>'Import from RTC'!A77</f>
         <v>Task</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B87" s="12" t="str">
         <f>'Import from RTC'!F95</f>
         <v>Add wanted-subscribers to project</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C87" s="10" t="str">
         <f>'Import from RTC'!G95</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D88">
+      <c r="D87" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="str">
         <f>'Import from RTC'!A78</f>
         <v>Task</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B88" s="12" t="str">
         <f>'Import from RTC'!F96</f>
         <v>Angular - Implement Subscriber Docent Service</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C88" s="10" t="str">
         <f>'Import from RTC'!G96</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E89">
+      <c r="D88" s="12"/>
+      <c r="E88" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="str">
         <f>'Import from RTC'!A79</f>
         <v>Task</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B89" s="12" t="str">
         <f>'Import from RTC'!F97</f>
         <v>Prezis toevoegen aan het project</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C89" s="10" t="str">
         <f>'Import from RTC'!G97</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E90">
+      <c r="D89" s="12"/>
+      <c r="E89" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="str">
         <f>'Import from RTC'!A80</f>
         <v>Task</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B90" s="12" t="str">
         <f>'Import from RTC'!F98</f>
         <v>Search functionality (angular)</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C90" s="10" t="str">
         <f>'Import from RTC'!G98</f>
         <v>Bart Hunerbein</v>
       </c>
-      <c r="H91">
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="str">
         <f>'Import from RTC'!A81</f>
         <v>Task</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B91" s="12" t="str">
         <f>'Import from RTC'!F99</f>
         <v>Online bestanden toevoegen aan het project</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C91" s="10" t="str">
         <f>'Import from RTC'!G99</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E92">
+      <c r="D91" s="12"/>
+      <c r="E91" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="str">
         <f>'Import from RTC'!A82</f>
         <v>Task</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B92" s="12" t="str">
         <f>'Import from RTC'!F100</f>
         <v>JSTD syntax error in eclipse</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C92" s="10" t="str">
         <f>'Import from RTC'!G100</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D93">
+      <c r="D92" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="str">
         <f>'Import from RTC'!A83</f>
         <v>Task</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B93" s="12" t="str">
         <f>'Import from RTC'!F101</f>
         <v>Compress pictures</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C93" s="10" t="str">
         <f>'Import from RTC'!G101</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D94">
+      <c r="D93" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="str">
         <f>'Import from RTC'!A85</f>
         <v>Task</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B94" s="12" t="str">
         <f>'Import from RTC'!F103</f>
         <v>Filter projects by category</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C94" s="10" t="str">
         <f>'Import from RTC'!G103</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D95">
+      <c r="D94" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="str">
         <f>'Import from RTC'!A86</f>
         <v>Task</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B95" s="12" t="str">
         <f>'Import from RTC'!F104</f>
         <v>Form submits when not valid (new project)</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C95" s="10" t="str">
         <f>'Import from RTC'!G104</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D96">
+      <c r="D95" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="str">
         <f>'Import from RTC'!A88</f>
         <v>Task</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B96" s="12" t="str">
         <f>'Import from RTC'!F106</f>
         <v>Deleting category does not show errormessage</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C96" s="10" t="str">
         <f>'Import from RTC'!G106</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D97">
+      <c r="D96" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="str">
         <f>'Import from RTC'!A89</f>
         <v>Task</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B97" s="12" t="str">
         <f>'Import from RTC'!F107</f>
         <v>Missing menu item 'New project'</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C97" s="10" t="str">
         <f>'Import from RTC'!G107</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D98">
+      <c r="D97" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="str">
         <f>'Import from RTC'!A90</f>
         <v>Task</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B98" s="12" t="str">
         <f>'Import from RTC'!F108</f>
         <v>Create domain model</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C98" s="10" t="str">
         <f>'Import from RTC'!G108</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D99">
+      <c r="D98" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="str">
         <f>'Import from RTC'!A91</f>
         <v>Task</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B99" s="12" t="str">
         <f>'Import from RTC'!F109</f>
         <v>Disable like when not authenticated</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C99" s="10" t="str">
         <f>'Import from RTC'!G109</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D100">
+      <c r="D99" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="str">
         <f>'Import from RTC'!A92</f>
         <v>Task</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B100" s="12" t="str">
         <f>'Import from RTC'!F110</f>
         <v>Layout myProject Page</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C100" s="10" t="str">
         <f>'Import from RTC'!G110</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E101">
+      <c r="D100" s="12"/>
+      <c r="E100" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="str">
         <f>'Import from RTC'!A93</f>
         <v>Task</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B101" s="12" t="str">
         <f>'Import from RTC'!F111</f>
         <v>Add Background</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C101" s="10" t="str">
         <f>'Import from RTC'!G111</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E102">
+      <c r="D101" s="12"/>
+      <c r="E101" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="str">
         <f>'Import from RTC'!A94</f>
         <v>Task</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B102" s="12" t="str">
         <f>'Import from RTC'!F112</f>
         <v>Layout home pagina</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C102" s="10" t="str">
         <f>'Import from RTC'!G112</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E103">
+      <c r="D102" s="12"/>
+      <c r="E102" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="str">
         <f>'Import from RTC'!A95</f>
         <v>Task</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B103" s="12" t="str">
         <f>'Import from RTC'!F113</f>
         <v>Add domain to projects</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C103" s="10" t="str">
         <f>'Import from RTC'!G113</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E104">
+      <c r="D103" s="12"/>
+      <c r="E103" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="str">
         <f>'Import from RTC'!A96</f>
         <v>Task</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B104" s="12" t="str">
         <f>'Import from RTC'!F114</f>
         <v>Remove comic sans font.</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C104" s="10" t="str">
         <f>'Import from RTC'!G114</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F105">
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
+      <c r="G104" s="12"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="str">
         <f>'Import from RTC'!A97</f>
         <v>Task</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B105" s="12" t="str">
         <f>'Import from RTC'!F115</f>
         <v>Guests cannot view project details</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C105" s="10" t="str">
         <f>'Import from RTC'!G115</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D106">
+      <c r="D105" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="str">
         <f>'Import from RTC'!A98</f>
         <v>Task</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B106" s="12" t="str">
         <f>'Import from RTC'!F116</f>
         <v>Align subscripe/backup row, move to detail project page.</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C106" s="10" t="str">
         <f>'Import from RTC'!G116</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F107">
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
+      <c r="G106" s="12"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="str">
         <f>'Import from RTC'!A99</f>
         <v>Task</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B107" s="12" t="str">
         <f>'Import from RTC'!F117</f>
         <v>Plan van aanpak: Quality assurance</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C107" s="10" t="str">
         <f>'Import from RTC'!G117</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D108">
+      <c r="D107" s="12">
         <v>5</v>
       </c>
-      <c r="E108">
+      <c r="E107" s="12">
         <v>3</v>
       </c>
-      <c r="F108">
+      <c r="F107" s="12">
         <v>1</v>
       </c>
-      <c r="G108">
+      <c r="G107" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="str">
         <f>'Import from RTC'!A101</f>
         <v>Task</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B108" s="12" t="str">
         <f>'Import from RTC'!F119</f>
         <v>Tag projects (multiple categories per project)</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C108" s="10" t="str">
         <f>'Import from RTC'!G119</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D109">
+      <c r="D108" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="str">
         <f>'Import from RTC'!A102</f>
         <v>Task</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B109" s="12" t="str">
         <f>'Import from RTC'!F120</f>
         <v>Create FIT criteria</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C109" s="10" t="str">
         <f>'Import from RTC'!G120</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D110">
+      <c r="D109" s="12">
         <v>2</v>
       </c>
-      <c r="G110">
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="str">
         <f>'Import from RTC'!A103</f>
         <v>Task</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B110" s="12" t="str">
         <f>'Import from RTC'!F121</f>
         <v>Docenten kunnen filteren op niet-gebackte projecten</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C110" s="10" t="str">
         <f>'Import from RTC'!G121</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D111">
+      <c r="D110" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="str">
         <f>'Import from RTC'!A108</f>
         <v>Task</v>
       </c>
-      <c r="B112" t="str">
+      <c r="B111" s="12" t="str">
         <f>'Import from RTC'!F126</f>
         <v>Bugfix subscribe/back project</v>
       </c>
-      <c r="C112" t="str">
+      <c r="C111" s="10" t="str">
         <f>'Import from RTC'!G126</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E112">
+      <c r="D111" s="12"/>
+      <c r="E111" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="str">
         <f>'Import from RTC'!A110</f>
         <v>Task</v>
       </c>
-      <c r="B113" t="str">
+      <c r="B112" s="12" t="str">
         <f>'Import from RTC'!F128</f>
         <v>Only show Student Subscribe when possible</v>
       </c>
-      <c r="C113" t="str">
+      <c r="C112" s="10" t="str">
         <f>'Import from RTC'!G128</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E113">
+      <c r="D112" s="12"/>
+      <c r="E112" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="str">
         <f>'Import from RTC'!A111</f>
         <v>Task</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B113" s="12" t="str">
         <f>'Import from RTC'!F129</f>
         <v>Layout Language Select</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C113" s="10" t="str">
         <f>'Import from RTC'!G129</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E114">
+      <c r="D113" s="12"/>
+      <c r="E113" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="str">
         <f>'Import from RTC'!A112</f>
         <v>Task</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B114" s="12" t="str">
         <f>'Import from RTC'!F130</f>
         <v>Layout Login Button</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C114" s="10" t="str">
         <f>'Import from RTC'!G130</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E115">
+      <c r="D114" s="12"/>
+      <c r="E114" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="str">
         <f>'Import from RTC'!A113</f>
         <v>Task</v>
       </c>
-      <c r="B116" t="str">
+      <c r="B115" s="12" t="str">
         <f>'Import from RTC'!F131</f>
         <v>Layout - Adding All Caps for titles and subtitles</v>
       </c>
-      <c r="C116" t="str">
+      <c r="C115" s="10" t="str">
         <f>'Import from RTC'!G131</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E116">
+      <c r="D115" s="12"/>
+      <c r="E115" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="str">
         <f>'Import from RTC'!A114</f>
         <v>Task</v>
       </c>
-      <c r="B117" t="str">
+      <c r="B116" s="12" t="str">
         <f>'Import from RTC'!F132</f>
         <v>Bugfix - Title not showing in public list</v>
       </c>
-      <c r="C117" t="str">
+      <c r="C116" s="10" t="str">
         <f>'Import from RTC'!G132</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E117">
+      <c r="D116" s="12"/>
+      <c r="E116" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="str">
         <f>'Import from RTC'!A116</f>
         <v>Task</v>
       </c>
-      <c r="B118" t="str">
+      <c r="B117" s="12" t="str">
         <f>'Import from RTC'!F134</f>
         <v>Session lost after refresh</v>
       </c>
-      <c r="C118" t="str">
+      <c r="C117" s="10" t="str">
         <f>'Import from RTC'!G134</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D118">
+      <c r="D117" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="str">
         <f>'Import from RTC'!A117</f>
         <v>Task</v>
       </c>
-      <c r="B119" t="str">
+      <c r="B118" s="12" t="str">
         <f>'Import from RTC'!F135</f>
         <v>Bugfix Delete Media</v>
       </c>
-      <c r="C119" t="str">
+      <c r="C118" s="10" t="str">
         <f>'Import from RTC'!G135</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E119">
+      <c r="D118" s="12"/>
+      <c r="E118" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="str">
         <f>'Import from RTC'!A118</f>
         <v>Task</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B119" s="12" t="str">
         <f>'Import from RTC'!F136</f>
         <v>Only show docent back when possible</v>
       </c>
-      <c r="C120" t="str">
+      <c r="C119" s="10" t="str">
         <f>'Import from RTC'!G136</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E120">
+      <c r="D119" s="12"/>
+      <c r="E119" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="str">
         <f>'Import from RTC'!A119</f>
         <v>Task</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B120" s="12" t="str">
         <f>'Import from RTC'!F137</f>
         <v>Bugfix - import sql</v>
       </c>
-      <c r="C121" t="str">
+      <c r="C120" s="10" t="str">
         <f>'Import from RTC'!G137</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E121">
+      <c r="D120" s="12"/>
+      <c r="E120" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="str">
         <f>'Import from RTC'!A120</f>
         <v>Task</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B121" s="12" t="str">
         <f>'Import from RTC'!F138</f>
         <v>Show Docent backed projects in myprojects</v>
       </c>
-      <c r="C122" t="str">
+      <c r="C121" s="10" t="str">
         <f>'Import from RTC'!G138</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E122">
+      <c r="D121" s="12"/>
+      <c r="E121" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="str">
         <f>'Import from RTC'!A121</f>
         <v>Task</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B122" s="12" t="str">
         <f>'Import from RTC'!F139</f>
         <v>Change max number of media to 100</v>
       </c>
-      <c r="C123" t="str">
+      <c r="C122" s="10" t="str">
         <f>'Import from RTC'!G139</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E123">
+      <c r="D122" s="12"/>
+      <c r="E122" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="str">
         <f>'Import from RTC'!A122</f>
         <v>Task</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B123" s="12" t="str">
         <f>'Import from RTC'!F140</f>
         <v>Add social media buttons</v>
       </c>
-      <c r="C124" t="str">
+      <c r="C123" s="10" t="str">
         <f>'Import from RTC'!G140</f>
         <v>Niek Vandael</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="str">
         <f>'Import from RTC'!A123</f>
         <v>Task</v>
       </c>
-      <c r="B125" t="str">
+      <c r="B124" s="12" t="str">
         <f>'Import from RTC'!F141</f>
         <v>Enable student subscribe when project is fully backed</v>
       </c>
-      <c r="C125" t="str">
+      <c r="C124" s="10" t="str">
         <f>'Import from RTC'!G141</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E125">
+      <c r="D124" s="12"/>
+      <c r="E124" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="str">
         <f>'Import from RTC'!A124</f>
         <v>Task</v>
       </c>
-      <c r="B126" t="str">
+      <c r="B125" s="12" t="str">
         <f>'Import from RTC'!F142</f>
         <v>Bugfix - filter for student home page</v>
       </c>
-      <c r="C126" t="str">
+      <c r="C125" s="10" t="str">
         <f>'Import from RTC'!G142</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E126">
+      <c r="D125" s="12"/>
+      <c r="E125" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="15"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="str">
         <f>'Import from RTC'!A125</f>
         <v>Task</v>
       </c>
-      <c r="B127" t="str">
+      <c r="B126" s="12" t="str">
         <f>'Import from RTC'!F143</f>
         <v>Add comments to projects</v>
       </c>
-      <c r="C127" t="str">
+      <c r="C126" s="10" t="str">
         <f>'Import from RTC'!G143</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D127">
+      <c r="D126" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="str">
         <f>'Import from RTC'!A128</f>
         <v>Task</v>
       </c>
-      <c r="B128" t="str">
+      <c r="B127" s="12" t="str">
         <f>'Import from RTC'!F146</f>
         <v>Create popup messages for result while saving/creating projects.</v>
       </c>
-      <c r="C128" t="str">
+      <c r="C127" s="10" t="str">
         <f>'Import from RTC'!G146</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F128">
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
+      <c r="G127" s="12"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="str">
         <f>'Import from RTC'!A129</f>
         <v>Task</v>
       </c>
-      <c r="B129" t="str">
+      <c r="B128" s="12" t="str">
         <f>'Import from RTC'!F147</f>
         <v>Bugfix - error updating projects</v>
       </c>
-      <c r="C129" t="str">
+      <c r="C128" s="10" t="str">
         <f>'Import from RTC'!G147</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E129">
+      <c r="D128" s="12"/>
+      <c r="E128" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="str">
         <f>'Import from RTC'!A130</f>
         <v>Task</v>
       </c>
-      <c r="B130" t="str">
+      <c r="B129" s="12" t="str">
         <f>'Import from RTC'!F148</f>
         <v>Only docents can make projects public</v>
       </c>
-      <c r="C130" t="str">
+      <c r="C129" s="10" t="str">
         <f>'Import from RTC'!G148</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E130">
+      <c r="D129" s="12"/>
+      <c r="E129" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="str">
         <f>'Import from RTC'!A131</f>
         <v>Task</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B130" s="12" t="str">
         <f>'Import from RTC'!F149</f>
         <v>Picture carousel on detail page</v>
       </c>
-      <c r="C131" t="str">
+      <c r="C130" s="10" t="str">
         <f>'Import from RTC'!G149</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D131">
+      <c r="D130" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="str">
         <f>'Import from RTC'!A133</f>
         <v>Task</v>
       </c>
-      <c r="B132" t="str">
+      <c r="B131" s="12" t="str">
         <f>'Import from RTC'!F151</f>
         <v>Disable student edit for backed projects</v>
       </c>
-      <c r="C132" t="str">
+      <c r="C131" s="10" t="str">
         <f>'Import from RTC'!G151</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E132">
+      <c r="D131" s="12"/>
+      <c r="E131" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="str">
         <f>'Import from RTC'!A136</f>
         <v>Task</v>
       </c>
-      <c r="B133" t="str">
+      <c r="B132" s="12" t="str">
         <f>'Import from RTC'!F154</f>
         <v>Set start date when 100%  subscribed</v>
       </c>
-      <c r="C133" t="str">
+      <c r="C132" s="10" t="str">
         <f>'Import from RTC'!G154</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E133">
+      <c r="D132" s="12"/>
+      <c r="E132" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="str">
         <f>'Import from RTC'!A138</f>
         <v>Task</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B133" s="12" t="str">
         <f>'Import from RTC'!F156</f>
         <v>Allow Docents to edit all projects</v>
       </c>
-      <c r="C134" t="str">
+      <c r="C133" s="10" t="str">
         <f>'Import from RTC'!G156</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E134">
+      <c r="D133" s="12"/>
+      <c r="E133" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="15"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="str">
         <f>'Import from RTC'!A139</f>
         <v>Task</v>
       </c>
-      <c r="B135" t="str">
+      <c r="B134" s="12" t="str">
         <f>'Import from RTC'!F157</f>
         <v>Allow Docents do delete all projects</v>
       </c>
-      <c r="C135" t="str">
+      <c r="C134" s="10" t="str">
         <f>'Import from RTC'!G157</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E135">
+      <c r="D134" s="12"/>
+      <c r="E134" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="str">
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="str">
         <f>'Import from RTC'!A140</f>
         <v>Task</v>
       </c>
-      <c r="B136" t="str">
+      <c r="B135" s="12" t="str">
         <f>'Import from RTC'!F158</f>
         <v>Display end date &amp; duration</v>
       </c>
-      <c r="C136" t="str">
+      <c r="C135" s="10" t="str">
         <f>'Import from RTC'!G158</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E136">
+      <c r="D135" s="12"/>
+      <c r="E135" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="str">
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="str">
         <f>'Import from RTC'!A141</f>
         <v>Task</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B136" s="12" t="str">
         <f>'Import from RTC'!F159</f>
         <v>No text on full progressbar</v>
       </c>
-      <c r="C137" t="str">
+      <c r="C136" s="10" t="str">
         <f>'Import from RTC'!G159</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E137">
+      <c r="D136" s="12"/>
+      <c r="E136" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="str">
         <f>'Import from RTC'!A143</f>
         <v>Task</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B137" s="12" t="str">
         <f>'Import from RTC'!F161</f>
         <v>Get archived projects</v>
       </c>
-      <c r="C138" t="str">
+      <c r="C137" s="10" t="str">
         <f>'Import from RTC'!G161</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D138">
+      <c r="D137" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="str">
         <f>'Import from RTC'!A145</f>
         <v>Task</v>
       </c>
-      <c r="B139" t="str">
+      <c r="B138" s="12" t="str">
         <f>'Import from RTC'!F163</f>
         <v>Add Scrollbar for long description</v>
       </c>
-      <c r="C139" t="str">
+      <c r="C138" s="10" t="str">
         <f>'Import from RTC'!G163</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E139">
+      <c r="D138" s="12"/>
+      <c r="E138" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="str">
         <f>'Import from RTC'!A146</f>
         <v>Task</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B139" s="12" t="str">
         <f>'Import from RTC'!F164</f>
         <v>Docents can delete subscribers</v>
       </c>
-      <c r="C140" t="str">
+      <c r="C139" s="10" t="str">
         <f>'Import from RTC'!G164</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E140">
+      <c r="D139" s="12"/>
+      <c r="E139" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="str">
         <f>'Import from RTC'!A148</f>
         <v>Task</v>
       </c>
-      <c r="B141" t="str">
+      <c r="B140" s="12" t="str">
         <f>'Import from RTC'!F166</f>
         <v>Disable animation on progress bar</v>
       </c>
-      <c r="C141" t="str">
+      <c r="C140" s="10" t="str">
         <f>'Import from RTC'!G166</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D141">
+      <c r="D140" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="str">
         <f>'Import from RTC'!A149</f>
         <v>Task</v>
       </c>
-      <c r="B142" t="str">
+      <c r="B141" s="12" t="str">
         <f>'Import from RTC'!F167</f>
         <v>Show full project description without scroller</v>
       </c>
-      <c r="C142" t="str">
+      <c r="C141" s="10" t="str">
         <f>'Import from RTC'!G167</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D142">
+      <c r="D141" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="15"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="str">
         <f>'Import from RTC'!A150</f>
         <v>Task</v>
       </c>
-      <c r="B143" t="str">
+      <c r="B142" s="12" t="str">
         <f>'Import from RTC'!F168</f>
         <v>BackingPct not centered when &gt; 100</v>
       </c>
-      <c r="C143" t="str">
+      <c r="C142" s="10" t="str">
         <f>'Import from RTC'!G168</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D143">
+      <c r="D142" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="str">
         <f>'Import from RTC'!A151</f>
         <v>Task</v>
       </c>
-      <c r="B144" t="str">
+      <c r="B143" s="12" t="str">
         <f>'Import from RTC'!F169</f>
         <v>Change background color to match selected menu item</v>
       </c>
-      <c r="C144" t="str">
+      <c r="C143" s="10" t="str">
         <f>'Import from RTC'!G169</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D144">
+      <c r="D143" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="15"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="str">
         <f>'Import from RTC'!A153</f>
         <v>Task</v>
       </c>
-      <c r="B145" t="str">
+      <c r="B144" s="12" t="str">
         <f>'Import from RTC'!F171</f>
         <v>Left title should navigate to home page</v>
       </c>
-      <c r="C145" t="str">
+      <c r="C144" s="10" t="str">
         <f>'Import from RTC'!G171</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D145">
+      <c r="D144" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="str">
         <f>'Import from RTC'!A154</f>
         <v>Task</v>
       </c>
-      <c r="B146" t="str">
+      <c r="B145" s="12" t="str">
         <f>'Import from RTC'!F172</f>
         <v>Possibility to delete a project comment</v>
       </c>
-      <c r="C146" t="str">
+      <c r="C145" s="10" t="str">
         <f>'Import from RTC'!G172</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D146">
+      <c r="D145" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="15"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="str">
         <f>'Import from RTC'!A156</f>
         <v>Task</v>
       </c>
-      <c r="B147" t="str">
+      <c r="B146" s="12" t="str">
         <f>'Import from RTC'!F174</f>
         <v>About page not presentable</v>
       </c>
-      <c r="C147" t="str">
+      <c r="C146" s="10" t="str">
         <f>'Import from RTC'!G174</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D147">
+      <c r="D146" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="str">
         <f>'Import from RTC'!A157</f>
         <v>Task</v>
       </c>
-      <c r="B148" t="str">
+      <c r="B147" s="12" t="str">
         <f>'Import from RTC'!F175</f>
         <v>Search by tag or keyword in one search box</v>
       </c>
-      <c r="C148" t="str">
+      <c r="C147" s="10" t="str">
         <f>'Import from RTC'!G175</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D148">
+      <c r="D147" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="15"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="str">
         <f>'Import from RTC'!A158</f>
         <v>Task</v>
       </c>
-      <c r="B149" t="str">
+      <c r="B148" s="12" t="str">
         <f>'Import from RTC'!F176</f>
         <v>Category menuitem not showing 'active'</v>
       </c>
-      <c r="C149" t="str">
+      <c r="C148" s="10" t="str">
         <f>'Import from RTC'!G176</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D149">
+      <c r="D148" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="str">
         <f>'Import from RTC'!A160</f>
         <v>Task</v>
       </c>
-      <c r="B150" t="str">
+      <c r="B149" s="12" t="str">
         <f>'Import from RTC'!F178</f>
         <v>Make project title bold</v>
       </c>
-      <c r="C150" t="str">
+      <c r="C149" s="10" t="str">
         <f>'Import from RTC'!G178</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E150">
+      <c r="D149" s="12"/>
+      <c r="E149" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="15"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="str">
         <f>'Import from RTC'!A161</f>
         <v>Task</v>
       </c>
-      <c r="B151" t="str">
+      <c r="B150" s="12" t="str">
         <f>'Import from RTC'!F179</f>
         <v>Allow Back after 100%</v>
       </c>
-      <c r="C151" t="str">
+      <c r="C150" s="10" t="str">
         <f>'Import from RTC'!G179</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E151">
+      <c r="D150" s="12"/>
+      <c r="E150" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="str">
         <f>'Import from RTC'!A162</f>
         <v>Task</v>
       </c>
-      <c r="B152" t="str">
+      <c r="B151" s="12" t="str">
         <f>'Import from RTC'!F180</f>
         <v>make public only when 100% backed</v>
       </c>
-      <c r="C152" t="str">
+      <c r="C151" s="10" t="str">
         <f>'Import from RTC'!G180</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E152">
+      <c r="D151" s="12"/>
+      <c r="E151" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="str">
         <f>'Import from RTC'!A163</f>
         <v>Task</v>
       </c>
-      <c r="B153" t="str">
+      <c r="B152" s="12" t="str">
         <f>'Import from RTC'!F181</f>
         <v>Navigate to details on title click</v>
       </c>
-      <c r="C153" t="str">
+      <c r="C152" s="10" t="str">
         <f>'Import from RTC'!G181</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E153">
+      <c r="D152" s="12"/>
+      <c r="E152" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="str">
         <f>'Import from RTC'!A164</f>
         <v>Task</v>
       </c>
-      <c r="B154" t="str">
+      <c r="B153" s="12" t="str">
         <f>'Import from RTC'!F182</f>
         <v>Text back &gt; steun(nl), support(en)</v>
       </c>
-      <c r="C154" t="str">
+      <c r="C153" s="10" t="str">
         <f>'Import from RTC'!G182</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E154">
+      <c r="D153" s="12"/>
+      <c r="E153" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="15"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="str">
         <f>'Import from RTC'!A172</f>
         <v>Task</v>
       </c>
-      <c r="B155" t="str">
+      <c r="B154" s="12" t="str">
         <f>'Import from RTC'!F190</f>
         <v>Search on more fields</v>
       </c>
-      <c r="C155" t="str">
+      <c r="C154" s="10" t="str">
         <f>'Import from RTC'!G190</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E155">
+      <c r="D154" s="12"/>
+      <c r="E154" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="str">
         <f>'Import from RTC'!A177</f>
         <v>Task</v>
       </c>
-      <c r="B156" t="str">
+      <c r="B155" s="12" t="str">
         <f>'Import from RTC'!F195</f>
         <v>Show favicon</v>
       </c>
-      <c r="C156" t="str">
+      <c r="C155" s="10" t="str">
         <f>'Import from RTC'!G195</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E156">
+      <c r="D155" s="12"/>
+      <c r="E155" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="15"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="str">
         <f>'Import from RTC'!A178</f>
         <v>Task</v>
       </c>
-      <c r="B157" t="str">
+      <c r="B156" s="12" t="str">
         <f>'Import from RTC'!F196</f>
         <v>Model Validation</v>
       </c>
-      <c r="C157" t="str">
+      <c r="C156" s="10" t="str">
         <f>'Import from RTC'!G196</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E157">
+      <c r="D156" s="12"/>
+      <c r="E156" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="15"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="str">
         <f>'Import from RTC'!A179</f>
         <v>Task</v>
       </c>
-      <c r="B158" t="str">
+      <c r="B157" s="12" t="str">
         <f>'Import from RTC'!F197</f>
         <v>Incorrect layout when adding items on new project page, especially on smaller screen sizes</v>
       </c>
-      <c r="C158" t="str">
+      <c r="C157" s="10" t="str">
         <f>'Import from RTC'!G197</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F158">
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
+      <c r="G157" s="12"/>
+      <c r="H157" s="15"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="str">
         <f>'Import from RTC'!A180</f>
         <v>Task</v>
       </c>
-      <c r="B159" t="str">
+      <c r="B158" s="12" t="str">
         <f>'Import from RTC'!F198</f>
         <v>Add error toast for delete constraint by categories</v>
       </c>
-      <c r="C159" t="str">
+      <c r="C158" s="10" t="str">
         <f>'Import from RTC'!G198</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F159">
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
+      <c r="G158" s="12"/>
+      <c r="H158" s="15"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="str">
         <f>'Import from RTC'!A181</f>
         <v>Task</v>
       </c>
-      <c r="B160" t="str">
+      <c r="B159" s="12" t="str">
         <f>'Import from RTC'!F199</f>
         <v>Add Javadoc</v>
       </c>
-      <c r="C160" t="str">
+      <c r="C159" s="10" t="str">
         <f>'Import from RTC'!G199</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E160">
+      <c r="D159" s="12"/>
+      <c r="E159" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="15"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="str">
         <f>'Import from RTC'!A182</f>
         <v>Task</v>
       </c>
-      <c r="B161" t="str">
+      <c r="B160" s="12" t="str">
         <f>'Import from RTC'!F200</f>
         <v>Add duration options</v>
       </c>
-      <c r="C161" t="str">
+      <c r="C160" s="10" t="str">
         <f>'Import from RTC'!G200</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E161">
+      <c r="D160" s="12"/>
+      <c r="E160" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="15"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="str">
         <f>'Import from RTC'!A183</f>
         <v>Task</v>
       </c>
-      <c r="B162" t="str">
+      <c r="B161" s="12" t="str">
         <f>'Import from RTC'!F201</f>
         <v>Code convention adjustments</v>
       </c>
-      <c r="C162" t="str">
+      <c r="C161" s="10" t="str">
         <f>'Import from RTC'!G201</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E162">
+      <c r="D161" s="12"/>
+      <c r="E161" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="15"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="str">
         <f>'Import from RTC'!A184</f>
         <v>Task</v>
       </c>
-      <c r="B163" t="str">
+      <c r="B162" s="12" t="str">
         <f>'Import from RTC'!F202</f>
         <v>Order projects on number of likes</v>
       </c>
-      <c r="C163" t="str">
+      <c r="C162" s="10" t="str">
         <f>'Import from RTC'!G202</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E163">
+      <c r="D162" s="12"/>
+      <c r="E162" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" t="str">
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="15"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="12" t="str">
         <f>'Import from RTC'!F40</f>
         <v>setup Eclipse with RTC</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C163" s="10" t="str">
         <f>'Import from RTC'!G40</f>
         <v>Unassigned</v>
       </c>
-      <c r="D164">
+      <c r="D163" s="12">
         <v>2</v>
       </c>
-      <c r="E164">
+      <c r="E163" s="12">
         <v>2</v>
       </c>
-      <c r="F164">
+      <c r="F163" s="12">
         <v>2</v>
       </c>
-      <c r="G164">
+      <c r="G163" s="12">
         <v>2</v>
       </c>
-      <c r="H164">
+      <c r="H163" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" t="str">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="12" t="str">
         <f>'Import from RTC'!F48</f>
         <v>Docenten/studenten kunnen de pagina sorteren op basis van tags/likes</v>
       </c>
-      <c r="C165" t="str">
+      <c r="C164" s="10" t="str">
         <f>'Import from RTC'!G48</f>
         <v>Unassigned</v>
       </c>
-      <c r="D165">
+      <c r="D164" s="12">
         <v>5</v>
       </c>
-      <c r="E165">
+      <c r="E164" s="12">
         <v>2</v>
       </c>
-      <c r="G165">
+      <c r="F164" s="12"/>
+      <c r="G164" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" t="str">
+      <c r="H164" s="15"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="12" t="str">
         <f>'Import from RTC'!F49</f>
         <v>Studenten moeten projecten kunnen maken gerelateerd aan bepaalde categorieen</v>
       </c>
-      <c r="C166" t="str">
+      <c r="C165" s="10" t="str">
         <f>'Import from RTC'!G49</f>
         <v>Unassigned</v>
       </c>
-      <c r="D166">
+      <c r="D165" s="12">
         <v>5</v>
       </c>
-      <c r="E166">
+      <c r="E165" s="12">
         <v>1</v>
       </c>
-      <c r="G166">
+      <c r="F165" s="12"/>
+      <c r="G165" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" t="str">
+      <c r="H165" s="15"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="12" t="str">
         <f>'Import from RTC'!F51</f>
         <v>Klassediagrammen maken</v>
       </c>
-      <c r="C167" t="str">
+      <c r="C166" s="10" t="str">
         <f>'Import from RTC'!G51</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E167">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" t="str">
+      <c r="D166" s="12"/>
+      <c r="E166" s="12">
+        <v>10</v>
+      </c>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="15"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="12" t="str">
         <f>'Import from RTC'!F53</f>
         <v>Voorbereiding verdediging eindversie</v>
       </c>
-      <c r="C168" t="str">
+      <c r="C167" s="10" t="str">
         <f>'Import from RTC'!G53</f>
         <v>Unassigned</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" t="str">
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="15"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="12" t="str">
         <f>'Import from RTC'!F58</f>
         <v>ERD maken</v>
       </c>
-      <c r="C169" t="str">
+      <c r="C168" s="10" t="str">
         <f>'Import from RTC'!G58</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="E169">
+      <c r="D168" s="12"/>
+      <c r="E168" s="12">
         <v>5</v>
       </c>
-      <c r="G169">
+      <c r="F168" s="12"/>
+      <c r="G168" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>8</v>
-      </c>
-      <c r="B170" t="str">
+      <c r="H168" s="15"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="12" t="str">
         <f>'Import from RTC'!F59</f>
         <v>Use case diagram studenten</v>
       </c>
-      <c r="C170" t="str">
+      <c r="C169" s="10" t="str">
         <f>'Import from RTC'!G59</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D170">
+      <c r="D169" s="12">
         <v>2</v>
       </c>
-      <c r="E170">
+      <c r="E169" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>8</v>
-      </c>
-      <c r="B171" t="str">
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="15"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="12" t="str">
         <f>'Import from RTC'!F60</f>
         <v>Departement per student/docent toevoegen</v>
       </c>
-      <c r="C171" t="str">
+      <c r="C170" s="10" t="str">
         <f>'Import from RTC'!G60</f>
         <v>Bart Hunerbein</v>
       </c>
-      <c r="D171">
+      <c r="D170" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" t="str">
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="15"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="12" t="str">
         <f>'Import from RTC'!F61</f>
         <v>Create DFDs</v>
       </c>
-      <c r="C172" t="str">
+      <c r="C171" s="10" t="str">
         <f>'Import from RTC'!G61</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D172">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>8</v>
-      </c>
-      <c r="B173" t="str">
+      <c r="D171" s="12">
+        <v>10</v>
+      </c>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="15"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="12" t="str">
         <f>'Import from RTC'!F63</f>
         <v>Create Domain Model</v>
       </c>
-      <c r="C173" t="str">
+      <c r="C172" s="10" t="str">
         <f>'Import from RTC'!G63</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E173">
+      <c r="D172" s="12"/>
+      <c r="E172" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" t="str">
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="15"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="12" t="str">
         <f>'Import from RTC'!F64</f>
         <v>Create Activity Diagram</v>
       </c>
-      <c r="C174" t="str">
+      <c r="C173" s="10" t="str">
         <f>'Import from RTC'!G64</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D174">
+      <c r="D173" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" t="str">
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="15"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="12" t="str">
         <f>'Import from RTC'!F65</f>
         <v>Create Class Diagram Domain</v>
       </c>
-      <c r="C175" t="str">
+      <c r="C174" s="10" t="str">
         <f>'Import from RTC'!G65</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="D175">
+      <c r="D174" s="12">
         <v>4</v>
       </c>
-      <c r="E175">
+      <c r="E174" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" t="str">
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="12" t="str">
         <f>'Import from RTC'!F66</f>
         <v>First project setup (Angular)</v>
       </c>
-      <c r="C176" t="str">
+      <c r="C175" s="10" t="str">
         <f>'Import from RTC'!G66</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D176">
+      <c r="D175" s="12">
         <v>1</v>
       </c>
-      <c r="E176">
+      <c r="E175" s="12">
         <v>1</v>
       </c>
-      <c r="F176">
+      <c r="F175" s="12">
         <v>24</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" t="str">
+      <c r="G175" s="12"/>
+      <c r="H175" s="15"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="12" t="str">
         <f>'Import from RTC'!F67</f>
         <v>Testing Angular</v>
       </c>
-      <c r="C177" t="str">
+      <c r="C176" s="10" t="str">
         <f>'Import from RTC'!G67</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E177">
+      <c r="D176" s="12"/>
+      <c r="E176" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" t="str">
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="15"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="12" t="str">
         <f>'Import from RTC'!F68</f>
         <v>Implement model</v>
       </c>
-      <c r="C178" t="str">
+      <c r="C177" s="10" t="str">
         <f>'Import from RTC'!G68</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E178">
+      <c r="D177" s="12"/>
+      <c r="E177" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" t="str">
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="15"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="12" t="str">
         <f>'Import from RTC'!F69</f>
         <v>Test Model</v>
       </c>
-      <c r="C179" t="str">
+      <c r="C178" s="10" t="str">
         <f>'Import from RTC'!G69</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E179">
+      <c r="D178" s="12"/>
+      <c r="E178" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" t="str">
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="15"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="12" t="str">
         <f>'Import from RTC'!F70</f>
         <v>Implement Services</v>
       </c>
-      <c r="C180" t="str">
+      <c r="C179" s="10" t="str">
         <f>'Import from RTC'!G70</f>
         <v>Jesse Vranken</v>
       </c>
-      <c r="E180">
+      <c r="D179" s="12"/>
+      <c r="E179" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" t="str">
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="15"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="12" t="str">
         <f>'Import from RTC'!F71</f>
         <v>Create Project list</v>
       </c>
-      <c r="C181" t="str">
+      <c r="C180" s="10" t="str">
         <f>'Import from RTC'!G71</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D181">
+      <c r="D180" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" t="str">
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="15"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="12" t="str">
         <f>'Import from RTC'!F72</f>
         <v>Automate MySQL entries on table-creation</v>
       </c>
-      <c r="C182" t="str">
+      <c r="C181" s="10" t="str">
         <f>'Import from RTC'!G72</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D182">
+      <c r="D181" s="12">
         <v>1</v>
       </c>
-      <c r="E182">
+      <c r="E181" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" t="str">
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="15"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="12" t="str">
         <f>'Import from RTC'!F73</f>
         <v>RestControllers unavailable after implementing JpaRepository</v>
       </c>
-      <c r="C183" t="str">
+      <c r="C182" s="10" t="str">
         <f>'Import from RTC'!G73</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D183">
+      <c r="D182" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" t="str">
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="15"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="12" t="str">
         <f>'Import from RTC'!F74</f>
         <v>Configure MySQL Database</v>
       </c>
-      <c r="C184" t="str">
+      <c r="C183" s="10" t="str">
         <f>'Import from RTC'!G74</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D184">
+      <c r="D183" s="12">
         <v>1</v>
       </c>
-      <c r="E184">
+      <c r="E183" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" t="str">
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="15"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="12" t="str">
         <f>'Import from RTC'!F78</f>
         <v>Spring-boot setup and configuration</v>
       </c>
-      <c r="C185" t="str">
+      <c r="C184" s="10" t="str">
         <f>'Import from RTC'!G78</f>
         <v>Dennie Grondelaers</v>
       </c>
-      <c r="G185">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" t="str">
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12">
+        <v>10</v>
+      </c>
+      <c r="H184" s="15"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="12" t="str">
         <f>'Import from RTC'!F33</f>
         <v>Testen van de deliveries</v>
       </c>
-      <c r="C186" t="str">
+      <c r="C185" s="10" t="str">
         <f>'Import from RTC'!G33</f>
         <v>Niek Vandael</v>
       </c>
-      <c r="D186">
+      <c r="D185" s="12">
         <v>5</v>
       </c>
-      <c r="E186">
+      <c r="E185" s="12">
         <v>5</v>
       </c>
-      <c r="G186">
+      <c r="F185" s="12"/>
+      <c r="G185" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" t="str">
+      <c r="H185" s="15"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="12" t="str">
         <f>'Import from RTC'!F203</f>
         <v>Adjust detail page</v>
       </c>
-      <c r="C187" t="str">
+      <c r="C186" s="10" t="str">
         <f>'Import from RTC'!G203</f>
         <v>Arjen Schuurman</v>
       </c>
-      <c r="F187">
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12">
         <v>4</v>
       </c>
-      <c r="G187">
+      <c r="G186" s="12">
         <v>1</v>
       </c>
+      <c r="H186" s="15"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12">
+        <v>12</v>
+      </c>
+      <c r="H187" s="15"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>8</v>
-      </c>
-      <c r="B188" t="s">
-        <v>239</v>
-      </c>
-      <c r="C188" t="s">
-        <v>30</v>
-      </c>
-      <c r="G188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D190" s="2">
-        <f>SUM(D41:D189)</f>
+      <c r="A188" s="14"/>
+      <c r="B188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B189" s="13"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="13">
+        <f>SUM(D40:D188)</f>
         <v>179.5</v>
       </c>
-      <c r="E190" s="2">
-        <f>SUM(E41:E189)</f>
+      <c r="E189" s="13">
+        <f>SUM(E40:E188)</f>
         <v>201.75</v>
       </c>
-      <c r="F190" s="2">
-        <f>SUM(F41:F189)</f>
+      <c r="F189" s="13">
+        <f>SUM(F40:F188)</f>
         <v>99.25</v>
       </c>
-      <c r="G190" s="2">
-        <f>SUM(G41:G189)</f>
+      <c r="G189" s="13">
+        <f>SUM(G40:G188)</f>
         <v>96</v>
       </c>
-      <c r="H190" s="2">
-        <f>SUM(H41:H189)</f>
+      <c r="H189" s="17">
+        <f>SUM(H40:H188)</f>
         <v>22</v>
       </c>
-      <c r="I190">
-        <f>SUM(D190:H190)</f>
+      <c r="I189">
+        <f>SUM(D189:H189)</f>
         <v>598.5</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D194" s="2">
-        <f t="shared" ref="D194:I194" si="1">D190+D38</f>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="14"/>
+      <c r="B190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="15"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="14"/>
+      <c r="B191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="15"/>
+    </row>
+    <row r="192" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="14"/>
+      <c r="B192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="15"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B193" s="28"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="28">
+        <f t="shared" ref="D193:I193" si="1">D189+D37</f>
         <v>194.5</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E193" s="28">
         <f t="shared" si="1"/>
         <v>211.25</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F193" s="28">
         <f t="shared" si="1"/>
         <v>112.25</v>
       </c>
-      <c r="G194" s="2">
+      <c r="G193" s="28">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H194" s="2">
+      <c r="H193" s="30">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I194">
+      <c r="I193">
         <f t="shared" si="1"/>
         <v>640</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="18"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F194" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H194" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -13281,7 +14297,7 @@
     <sortCondition ref="A3:A185"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13309,53 +14325,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="6" t="str">
-        <f>'Time spent by user'!D2</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <f>'Time spent by user'!E2</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D1" s="6" t="str">
-        <f>'Time spent by user'!F2</f>
-        <v>Arjen Schuurman</v>
-      </c>
-      <c r="E1" s="6" t="str">
-        <f>'Time spent by user'!G2</f>
-        <v>Dennie Grondelars</v>
-      </c>
-      <c r="F1" s="6" t="str">
-        <f>'Time spent by user'!H2</f>
-        <v>Bart Hunerbein</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>'Time spent by user'!D1</f>
+        <v>Niek 
+Vandael</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f>'Time spent by user'!E1</f>
+        <v>Jesse 
+Vranken</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>'Time spent by user'!F1</f>
+        <v>Arjen 
+Schuurman</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <f>'Time spent by user'!G1</f>
+        <v>Dennie 
+Grondelars</v>
+      </c>
+      <c r="F1" s="4" t="str">
+        <f>'Time spent by user'!H1</f>
+        <v>Bart 
+Hunerbein</v>
+      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="8">
-        <f>'Time spent by user'!D194</f>
+      <c r="A2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="6">
+        <f>'Time spent by user'!D193</f>
         <v>194.5</v>
       </c>
-      <c r="C2" s="8">
-        <f>'Time spent by user'!E194</f>
+      <c r="C2" s="6">
+        <f>'Time spent by user'!E193</f>
         <v>211.25</v>
       </c>
-      <c r="D2" s="8">
-        <f>'Time spent by user'!F194</f>
+      <c r="D2" s="6">
+        <f>'Time spent by user'!F193</f>
         <v>112.25</v>
       </c>
-      <c r="E2" s="8">
-        <f>'Time spent by user'!G194</f>
+      <c r="E2" s="6">
+        <f>'Time spent by user'!G193</f>
         <v>100</v>
       </c>
-      <c r="F2" s="8">
-        <f>'Time spent by user'!H194</f>
+      <c r="F2" s="6">
+        <f>'Time spent by user'!H193</f>
         <v>22</v>
       </c>
     </row>
@@ -13389,52 +14410,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="6" t="str">
-        <f>'Time spent by user'!D2</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <f>'Time spent by user'!E2</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D1" s="6" t="str">
-        <f>'Time spent by user'!F2</f>
-        <v>Arjen Schuurman</v>
-      </c>
-      <c r="E1" s="6" t="str">
-        <f>'Time spent by user'!G2</f>
-        <v>Dennie Grondelars</v>
-      </c>
-      <c r="F1" s="6" t="str">
-        <f>'Time spent by user'!H2</f>
-        <v>Bart Hunerbein</v>
+      <c r="A1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>'Time spent by user'!D1</f>
+        <v>Niek 
+Vandael</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f>'Time spent by user'!E1</f>
+        <v>Jesse 
+Vranken</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>'Time spent by user'!F1</f>
+        <v>Arjen 
+Schuurman</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <f>'Time spent by user'!G1</f>
+        <v>Dennie 
+Grondelars</v>
+      </c>
+      <c r="F1" s="4" t="str">
+        <f>'Time spent by user'!H1</f>
+        <v>Bart 
+Hunerbein</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="8">
-        <f>'Time spent by user'!D190</f>
+      <c r="A2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="6">
+        <f>'Time spent by user'!D189</f>
         <v>179.5</v>
       </c>
-      <c r="C2" s="8">
-        <f>'Time spent by user'!E190</f>
+      <c r="C2" s="6">
+        <f>'Time spent by user'!E189</f>
         <v>201.75</v>
       </c>
-      <c r="D2" s="8">
-        <f>'Time spent by user'!F190</f>
+      <c r="D2" s="6">
+        <f>'Time spent by user'!F189</f>
         <v>99.25</v>
       </c>
-      <c r="E2" s="8">
-        <f>'Time spent by user'!G190</f>
+      <c r="E2" s="6">
+        <f>'Time spent by user'!G189</f>
         <v>96</v>
       </c>
-      <c r="F2" s="8">
-        <f>'Time spent by user'!H190</f>
+      <c r="F2" s="6">
+        <f>'Time spent by user'!H189</f>
         <v>22</v>
       </c>
     </row>
@@ -13468,52 +14494,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="6" t="str">
-        <f>'Time spent by user'!D2</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <f>'Time spent by user'!E2</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="D1" s="6" t="str">
-        <f>'Time spent by user'!F2</f>
-        <v>Arjen Schuurman</v>
-      </c>
-      <c r="E1" s="6" t="str">
-        <f>'Time spent by user'!G2</f>
-        <v>Dennie Grondelars</v>
-      </c>
-      <c r="F1" s="6" t="str">
-        <f>'Time spent by user'!H2</f>
-        <v>Bart Hunerbein</v>
+      <c r="A1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>'Time spent by user'!D1</f>
+        <v>Niek 
+Vandael</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f>'Time spent by user'!E1</f>
+        <v>Jesse 
+Vranken</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>'Time spent by user'!F1</f>
+        <v>Arjen 
+Schuurman</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <f>'Time spent by user'!G1</f>
+        <v>Dennie 
+Grondelars</v>
+      </c>
+      <c r="F1" s="4" t="str">
+        <f>'Time spent by user'!H1</f>
+        <v>Bart 
+Hunerbein</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="8">
-        <f>'Time spent by user'!D38</f>
+      <c r="A2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="6">
+        <f>'Time spent by user'!D37</f>
         <v>15</v>
       </c>
-      <c r="C2" s="8">
-        <f>'Time spent by user'!E38</f>
+      <c r="C2" s="6">
+        <f>'Time spent by user'!E37</f>
         <v>9.5</v>
       </c>
-      <c r="D2" s="8">
-        <f>'Time spent by user'!F38</f>
-        <v>13</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'Time spent by user'!G38</f>
+      <c r="D2" s="6">
+        <f>'Time spent by user'!F37</f>
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
+        <f>'Time spent by user'!G37</f>
         <v>4</v>
       </c>
-      <c r="F2" s="8">
-        <f>'Time spent by user'!H38</f>
+      <c r="F2" s="6">
+        <f>'Time spent by user'!H37</f>
         <v>0</v>
       </c>
     </row>
@@ -13542,26 +14573,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="8">
-        <f>'Time spent by user'!I38</f>
+      <c r="A2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="6">
+        <f>'Time spent by user'!I37</f>
         <v>41.5</v>
       </c>
-      <c r="C2" s="8">
-        <f>'Time spent by user'!I190</f>
+      <c r="C2" s="6">
+        <f>'Time spent by user'!I189</f>
         <v>598.5</v>
       </c>
     </row>
@@ -13580,7 +14611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G10"/>
     </sheetView>
   </sheetViews>
@@ -13595,134 +14626,139 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="str">
-        <f>'Time spent by user'!D2</f>
-        <v>Niek Vandael</v>
-      </c>
-      <c r="D3" s="6" t="str">
-        <f>'Time spent by user'!E2</f>
-        <v>Jesse Vranken</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>'Time spent by user'!F2</f>
-        <v>Arjen Schuurman</v>
-      </c>
-      <c r="F3" s="6" t="str">
-        <f>'Time spent by user'!G2</f>
-        <v>Dennie Grondelars</v>
-      </c>
-      <c r="G3" s="6" t="str">
-        <f>'Time spent by user'!H2</f>
-        <v>Bart Hunerbein</v>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="str">
+        <f>'Time spent by user'!D1</f>
+        <v>Niek 
+Vandael</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>'Time spent by user'!E1</f>
+        <v>Jesse 
+Vranken</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>'Time spent by user'!F1</f>
+        <v>Arjen 
+Schuurman</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f>'Time spent by user'!G1</f>
+        <v>Dennie 
+Grondelars</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>'Time spent by user'!H1</f>
+        <v>Bart 
+Hunerbein</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="6">
         <f>'Total time spent'!B2</f>
         <v>194.5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <f>'Total time spent'!C2</f>
         <v>211.25</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f>'Total time spent'!D2</f>
         <v>112.25</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f>'Total time spent'!E2</f>
         <v>100</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <f>'Total time spent'!F2</f>
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="8">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="10">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <f>C5*C4</f>
         <v>3890</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <f>D5*D4</f>
         <v>4225</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <f>E5*E4</f>
         <v>2245</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <f>F5*F4</f>
         <v>2000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <f>G5*G4</f>
         <v>440</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="9">
         <f>SUM(C7:G7)</f>
         <v>12800</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
